--- a/테이블설계/1. 테이블정의서.xlsx
+++ b/테이블설계/1. 테이블정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE66CF78-5BC9-4A77-B2A3-837AF31D3173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF3D9A-0846-4EA2-8A37-E6EB838EEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="436">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1388,18 +1388,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>탈퇴시 sysdate로 업데이트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈퇴일자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_PLUS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MEMBER(NICKNAME)</t>
   </si>
   <si>
@@ -1499,11 +1487,55 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>STORAGE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>남은 수량(재고)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동포인트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자입력x, 변경시마다 sysdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT 시에만 SYSDATE 해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGINTIME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 로그인 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 성공시에만 업데이트 해준다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_AUTO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1511,7 +1543,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,17 +1739,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="10"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1761,7 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2222,7 +2254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2581,22 +2613,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2764,9 +2787,18 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3088,7 +3120,7 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -3100,7 +3132,7 @@
     <col min="8" max="8" width="59.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3116,7 +3148,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3142,11 +3174,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1">
-      <c r="A3" s="137" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="131" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3166,9 +3198,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="135"/>
+    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="135"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3184,9 +3216,9 @@
       <c r="G4" s="18"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="138"/>
-      <c r="B5" s="135"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="135"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3204,9 +3236,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="138"/>
-      <c r="B6" s="135"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="135"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3222,9 +3254,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="138"/>
-      <c r="B7" s="135"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="135"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3240,9 +3272,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="138"/>
-      <c r="B8" s="135"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="135"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3258,9 +3290,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="138"/>
-      <c r="B9" s="135"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="135"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3276,9 +3308,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="138"/>
-      <c r="B10" s="135"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="135"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3294,9 +3326,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="138"/>
-      <c r="B11" s="135"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="135"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3312,9 +3344,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1">
-      <c r="A12" s="138"/>
-      <c r="B12" s="135"/>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="135"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3330,9 +3362,9 @@
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
-      <c r="A13" s="139"/>
-      <c r="B13" s="136"/>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="136"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3348,11 +3380,11 @@
       </c>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1">
-      <c r="A14" s="140" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="142" t="s">
+      <c r="B14" s="139" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3375,9 +3407,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="142"/>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="137"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3395,9 +3427,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="151"/>
-      <c r="B16" s="142"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="148"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3411,9 +3443,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="151"/>
-      <c r="B17" s="142"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="148"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3427,9 +3459,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="151"/>
-      <c r="B18" s="142"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="148"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3443,9 +3475,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="151"/>
-      <c r="B19" s="142"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="148"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3459,9 +3491,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="142"/>
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="148"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3481,9 +3513,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34">
-      <c r="A21" s="151"/>
-      <c r="B21" s="142"/>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+      <c r="A21" s="148"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3501,9 +3533,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1">
-      <c r="A22" s="152"/>
-      <c r="B22" s="150"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="149"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3523,11 +3555,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1">
-      <c r="A23" s="155" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="150" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3547,9 +3579,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1">
-      <c r="A24" s="156"/>
-      <c r="B24" s="154"/>
+    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="153"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3567,9 +3599,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1">
-      <c r="A25" s="156"/>
-      <c r="B25" s="154"/>
+    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="153"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3589,9 +3621,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="156"/>
-      <c r="B26" s="154"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="153"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3607,9 +3639,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="156"/>
-      <c r="B27" s="154"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="153"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3625,9 +3657,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="156"/>
-      <c r="B28" s="154"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="153"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3643,9 +3675,9 @@
       </c>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="156"/>
-      <c r="B29" s="154"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="153"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3661,9 +3693,9 @@
       </c>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="156"/>
-      <c r="B30" s="154"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="153"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3679,9 +3711,9 @@
       </c>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1">
-      <c r="A31" s="156"/>
-      <c r="B31" s="154"/>
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="153"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3697,11 +3729,11 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1">
-      <c r="A32" s="151" t="s">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="139" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3723,9 +3755,9 @@
         <v>nextval</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1">
-      <c r="A33" s="151"/>
-      <c r="B33" s="142"/>
+    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="148"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3744,9 +3776,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1">
-      <c r="A34" s="151"/>
-      <c r="B34" s="142"/>
+    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="148"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3766,9 +3798,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="151"/>
-      <c r="B35" s="142"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="148"/>
+      <c r="B35" s="139"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3784,9 +3816,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="151"/>
-      <c r="B36" s="142"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="148"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3802,9 +3834,9 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="151"/>
-      <c r="B37" s="142"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="148"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3820,9 +3852,9 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="151"/>
-      <c r="B38" s="142"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="148"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3838,9 +3870,9 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="151"/>
-      <c r="B39" s="142"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="148"/>
+      <c r="B39" s="139"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3856,11 +3888,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1">
-      <c r="A40" s="157" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="154" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="154" t="s">
+      <c r="B40" s="151" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3878,9 +3910,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1">
-      <c r="A41" s="157"/>
-      <c r="B41" s="154"/>
+    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="154"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3899,9 +3931,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="157"/>
-      <c r="B42" s="154"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="154"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3917,9 +3949,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="157"/>
-      <c r="B43" s="154"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="154"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3935,9 +3967,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="157"/>
-      <c r="B44" s="154"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="154"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3953,11 +3985,11 @@
       <c r="G44" s="11"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="140" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="139" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -3977,9 +4009,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="140"/>
-      <c r="B46" s="142"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="137"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -3998,9 +4030,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="140"/>
-      <c r="B47" s="142"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="137"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -4018,9 +4050,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A48" s="141"/>
-      <c r="B48" s="143"/>
+    <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="138"/>
+      <c r="B48" s="140"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4038,11 +4070,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="147" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="144" t="s">
+      <c r="B49" s="141" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4060,9 +4092,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="148"/>
-      <c r="B50" s="145"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="145"/>
+      <c r="B50" s="142"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4078,9 +4110,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="148"/>
-      <c r="B51" s="145"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="145"/>
+      <c r="B51" s="142"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4100,9 +4132,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="148"/>
-      <c r="B52" s="145"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="145"/>
+      <c r="B52" s="142"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4118,9 +4150,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="148"/>
-      <c r="B53" s="145"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="145"/>
+      <c r="B53" s="142"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4136,9 +4168,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="148"/>
-      <c r="B54" s="145"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="145"/>
+      <c r="B54" s="142"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4156,9 +4188,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="148"/>
-      <c r="B55" s="145"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="145"/>
+      <c r="B55" s="142"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4174,9 +4206,9 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1">
-      <c r="A56" s="149"/>
-      <c r="B56" s="146"/>
+    <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A56" s="146"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4194,9 +4226,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="133"/>
-      <c r="B57" s="133" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="130"/>
+      <c r="B57" s="130" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4214,9 +4246,9 @@
       <c r="G57" s="54"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="131"/>
-      <c r="B58" s="131"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="128"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4232,9 +4264,9 @@
       <c r="G58" s="54"/>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="131"/>
-      <c r="B59" s="131"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="128"/>
+      <c r="B59" s="128"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4250,9 +4282,9 @@
       <c r="G59" s="54"/>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="131"/>
-      <c r="B60" s="131"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="128"/>
+      <c r="B60" s="128"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4268,9 +4300,9 @@
       <c r="G60" s="54"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="132"/>
-      <c r="B61" s="132"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="129"/>
+      <c r="B61" s="129"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4286,9 +4318,9 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="127"/>
-      <c r="B62" s="127" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="124"/>
+      <c r="B62" s="124" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4306,9 +4338,9 @@
       <c r="G62" s="57"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="128"/>
-      <c r="B63" s="128"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="125"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4326,9 +4358,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="129"/>
-      <c r="B64" s="129"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="126"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4344,11 +4376,11 @@
       <c r="G64" s="57"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="130" t="s">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="127" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="130" t="s">
+      <c r="B65" s="127" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4366,9 +4398,9 @@
       <c r="G65" s="54"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="131"/>
-      <c r="B66" s="131"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="128"/>
+      <c r="B66" s="128"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4386,9 +4418,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="131"/>
-      <c r="B67" s="131"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="128"/>
+      <c r="B67" s="128"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4404,9 +4436,9 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="131"/>
-      <c r="B68" s="131"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="128"/>
+      <c r="B68" s="128"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4424,9 +4456,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="132"/>
-      <c r="B69" s="132"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="129"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4442,11 +4474,11 @@
       <c r="G69" s="54"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="127" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="124" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="127" t="s">
+      <c r="B70" s="124" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4464,9 +4496,9 @@
       <c r="G70" s="66"/>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="128"/>
-      <c r="B71" s="128"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="125"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4482,9 +4514,9 @@
       <c r="G71" s="57"/>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="128"/>
-      <c r="B72" s="128"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="125"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4500,9 +4532,9 @@
       <c r="G72" s="57"/>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="128"/>
-      <c r="B73" s="128"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="125"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4518,9 +4550,9 @@
       <c r="G73" s="57"/>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="129"/>
-      <c r="B74" s="129"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="126"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4536,11 +4568,11 @@
       </c>
       <c r="H74" s="58"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="130" t="s">
+      <c r="B75" s="127" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4558,11 +4590,11 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="131"/>
+      <c r="B76" s="128"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4580,11 +4612,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="131"/>
+      <c r="B77" s="128"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4602,11 +4634,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="131"/>
+      <c r="B78" s="128"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4620,9 +4652,9 @@
       <c r="G78" s="54"/>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="68"/>
-      <c r="B79" s="131"/>
+      <c r="B79" s="128"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4636,11 +4668,11 @@
       <c r="G79" s="54"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="132"/>
+      <c r="B80" s="129"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4700,7 +4732,7 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
@@ -4718,69 +4750,69 @@
     <col min="17" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="A1" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="164" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="158" t="s">
+      <c r="D1" s="162"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="162" t="s">
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="159" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="163"/>
+      <c r="J1" s="160"/>
       <c r="K1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="18">
-      <c r="A2" s="158" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
+      <c r="A2" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="159" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="158" t="s">
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="160">
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="157">
         <v>44474</v>
       </c>
-      <c r="J2" s="161"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="81"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="167" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="169" t="s">
+      <c r="B4" s="165"/>
+      <c r="C4" s="166" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="169" t="s">
+      <c r="F4" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="170"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="167"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="70" t="s">
         <v>190</v>
       </c>
@@ -4819,7 +4851,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="54">
         <v>1</v>
       </c>
@@ -4848,7 +4880,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="54">
         <v>2</v>
       </c>
@@ -4881,7 +4913,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="54">
         <v>3</v>
       </c>
@@ -4914,7 +4946,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="54">
         <v>4</v>
       </c>
@@ -4945,7 +4977,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="54">
         <v>5</v>
       </c>
@@ -4978,7 +5010,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="54">
         <v>6</v>
       </c>
@@ -5009,7 +5041,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="54">
         <v>7</v>
       </c>
@@ -5040,7 +5072,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="54">
         <v>8</v>
       </c>
@@ -5071,7 +5103,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="54">
         <v>9</v>
       </c>
@@ -5102,7 +5134,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -5133,7 +5165,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="54">
         <v>11</v>
       </c>
@@ -5164,7 +5196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K17" s="78" t="s">
         <v>360</v>
       </c>
@@ -5172,27 +5204,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="167" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="168"/>
-      <c r="C18" s="169" t="s">
+      <c r="B18" s="165"/>
+      <c r="C18" s="166" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="170"/>
+      <c r="D18" s="167"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="169" t="s">
+      <c r="F18" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="170"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="167"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" s="70" t="s">
         <v>190</v>
       </c>
@@ -5231,7 +5263,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="54">
         <v>1</v>
       </c>
@@ -5260,7 +5292,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -5299,7 +5331,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="54">
         <v>3</v>
       </c>
@@ -5328,7 +5360,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="54">
         <v>4</v>
       </c>
@@ -5357,7 +5389,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="54">
         <v>5</v>
       </c>
@@ -5386,7 +5418,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="54">
         <v>6</v>
       </c>
@@ -5417,7 +5449,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -5448,7 +5480,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48">
+    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.45">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -5477,7 +5509,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" s="54">
         <v>9</v>
       </c>
@@ -5510,7 +5542,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K29" s="78" t="s">
         <v>360</v>
       </c>
@@ -5518,27 +5550,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="167" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A30" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="169" t="s">
+      <c r="B30" s="165"/>
+      <c r="C30" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="170"/>
+      <c r="D30" s="167"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="169" t="s">
+      <c r="F30" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="170"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="167"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" s="70" t="s">
         <v>190</v>
       </c>
@@ -5577,7 +5609,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" s="54">
         <v>1</v>
       </c>
@@ -5606,7 +5638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -5639,7 +5671,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" s="73">
         <v>3</v>
       </c>
@@ -5676,7 +5708,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" s="54">
         <v>4</v>
       </c>
@@ -5707,7 +5739,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="54">
         <v>5</v>
       </c>
@@ -5738,7 +5770,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="54">
         <v>6</v>
       </c>
@@ -5769,7 +5801,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="54">
         <v>7</v>
       </c>
@@ -5800,7 +5832,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="54">
         <v>8</v>
       </c>
@@ -5829,7 +5861,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="54">
         <v>9</v>
       </c>
@@ -5858,7 +5890,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K41" s="78" t="s">
         <v>360</v>
       </c>
@@ -5866,27 +5898,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="167" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="173" t="s">
+      <c r="B42" s="169"/>
+      <c r="C42" s="170" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="174"/>
+      <c r="D42" s="171"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="173" t="s">
+      <c r="F42" s="170" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="174"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="171"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="100" t="s">
         <v>190</v>
       </c>
@@ -5925,7 +5957,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" s="102">
         <v>1</v>
       </c>
@@ -5954,7 +5986,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32">
+    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -5989,7 +6021,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" s="88">
         <v>3</v>
       </c>
@@ -6026,7 +6058,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" s="101">
         <v>4</v>
       </c>
@@ -6057,7 +6089,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" s="101">
         <v>5</v>
       </c>
@@ -6088,7 +6120,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" s="101">
         <v>6</v>
       </c>
@@ -6119,7 +6151,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" s="101">
         <v>7</v>
       </c>
@@ -6148,7 +6180,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32">
+    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6179,7 +6211,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K52" s="78" t="s">
         <v>360</v>
       </c>
@@ -6187,27 +6219,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="167" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A53" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169" t="s">
+      <c r="B53" s="165"/>
+      <c r="C53" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="170"/>
+      <c r="D53" s="167"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="169" t="s">
+      <c r="F53" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="170"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="G53" s="168"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="167"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="70" t="s">
         <v>190</v>
       </c>
@@ -6246,7 +6278,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32">
+    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6275,7 +6307,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32">
+    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6310,7 +6342,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -6341,7 +6373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="54">
         <v>4</v>
       </c>
@@ -6374,7 +6406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="54">
         <v>5</v>
       </c>
@@ -6405,7 +6437,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K60" s="78" t="s">
         <v>360</v>
       </c>
@@ -6413,27 +6445,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="167" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A61" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169" t="s">
+      <c r="B61" s="165"/>
+      <c r="C61" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="170"/>
+      <c r="D61" s="167"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="169" t="s">
+      <c r="F61" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="171"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="170"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="167"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" s="70" t="s">
         <v>190</v>
       </c>
@@ -6472,7 +6504,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" s="54">
         <v>1</v>
       </c>
@@ -6501,7 +6533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32">
+    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6536,7 +6568,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" s="54">
         <v>3</v>
       </c>
@@ -6567,7 +6599,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" s="54">
         <v>4</v>
       </c>
@@ -6598,7 +6630,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J67" s="108"/>
       <c r="K67" s="78" t="s">
         <v>360</v>
@@ -6607,27 +6639,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="176" t="s">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A68" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="176"/>
-      <c r="C68" s="177" t="s">
+      <c r="B68" s="173"/>
+      <c r="C68" s="174" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="177"/>
+      <c r="D68" s="174"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="177" t="s">
+      <c r="F68" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="177"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="177"/>
-      <c r="J68" s="177"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="G68" s="174"/>
+      <c r="H68" s="174"/>
+      <c r="I68" s="174"/>
+      <c r="J68" s="174"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -6666,7 +6698,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" s="99">
         <v>1</v>
       </c>
@@ -6695,7 +6727,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" s="99">
         <v>2</v>
       </c>
@@ -6726,7 +6758,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" s="99">
         <v>3</v>
       </c>
@@ -6763,7 +6795,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" s="99">
         <v>4</v>
       </c>
@@ -6794,7 +6826,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" s="99">
         <v>5</v>
       </c>
@@ -6825,7 +6857,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32">
+    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.45">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -6856,7 +6888,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A76" s="99">
         <v>7</v>
       </c>
@@ -6887,7 +6919,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A77" s="99">
         <v>8</v>
       </c>
@@ -6916,7 +6948,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K78" s="78" t="s">
         <v>360</v>
       </c>
@@ -6924,27 +6956,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="176" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A79" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="176"/>
-      <c r="C79" s="177" t="s">
+      <c r="B79" s="173"/>
+      <c r="C79" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="177"/>
+      <c r="D79" s="174"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="177" t="s">
+      <c r="F79" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="177"/>
-      <c r="H79" s="177"/>
-      <c r="I79" s="177"/>
-      <c r="J79" s="177"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="G79" s="174"/>
+      <c r="H79" s="174"/>
+      <c r="I79" s="174"/>
+      <c r="J79" s="174"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A80" s="105" t="s">
         <v>190</v>
       </c>
@@ -6983,7 +7015,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A81" s="96">
         <v>1</v>
       </c>
@@ -7014,7 +7046,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A82" s="99">
         <v>2</v>
       </c>
@@ -7045,7 +7077,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A83" s="99">
         <v>3</v>
       </c>
@@ -7076,7 +7108,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A84" s="99">
         <v>4</v>
       </c>
@@ -7105,7 +7137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K85" s="78" t="s">
         <v>360</v>
       </c>
@@ -7113,27 +7145,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="167" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A86" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="168"/>
-      <c r="C86" s="169" t="s">
+      <c r="B86" s="165"/>
+      <c r="C86" s="166" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="170"/>
+      <c r="D86" s="167"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="169" t="s">
+      <c r="F86" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="171"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="170"/>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="G86" s="168"/>
+      <c r="H86" s="168"/>
+      <c r="I86" s="168"/>
+      <c r="J86" s="167"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A87" s="70" t="s">
         <v>190</v>
       </c>
@@ -7172,7 +7204,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A88" s="97">
         <v>1</v>
       </c>
@@ -7201,7 +7233,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A89" s="73">
         <v>2</v>
       </c>
@@ -7238,7 +7270,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A90" s="54">
         <v>3</v>
       </c>
@@ -7269,7 +7301,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
       <c r="J91" s="108"/>
       <c r="K91" s="78" t="s">
         <v>360</v>
@@ -7278,27 +7310,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="178" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A92" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="178"/>
-      <c r="C92" s="177" t="s">
+      <c r="B92" s="175"/>
+      <c r="C92" s="174" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="177"/>
+      <c r="D92" s="174"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="177" t="s">
+      <c r="F92" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="177"/>
-      <c r="H92" s="177"/>
-      <c r="I92" s="177"/>
-      <c r="J92" s="177"/>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="G92" s="174"/>
+      <c r="H92" s="174"/>
+      <c r="I92" s="174"/>
+      <c r="J92" s="174"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A93" s="98" t="s">
         <v>190</v>
       </c>
@@ -7337,7 +7369,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A94" s="99">
         <v>1</v>
       </c>
@@ -7366,7 +7398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A95" s="93">
         <v>2</v>
       </c>
@@ -7403,7 +7435,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A96" s="93">
         <v>3</v>
       </c>
@@ -7440,7 +7472,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A97" s="99">
         <f>A96+1</f>
         <v>4</v>
@@ -7467,7 +7499,7 @@
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A98" s="99">
         <f t="shared" ref="A98:A99" si="10">A97+1</f>
         <v>5</v>
@@ -7494,7 +7526,7 @@
         <v>ORDERDATE date default sysdate,</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A99" s="99">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -7525,7 +7557,7 @@
         <v>PHONENUM varchar2(30) not null</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K100" s="78" t="s">
         <v>360</v>
       </c>
@@ -7533,27 +7565,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
-      <c r="A101" s="167" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A101" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="168"/>
-      <c r="C101" s="169" t="s">
+      <c r="B101" s="165"/>
+      <c r="C101" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="170"/>
+      <c r="D101" s="167"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="169" t="s">
+      <c r="F101" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="171"/>
-      <c r="H101" s="171"/>
-      <c r="I101" s="171"/>
-      <c r="J101" s="170"/>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="G101" s="168"/>
+      <c r="H101" s="168"/>
+      <c r="I101" s="168"/>
+      <c r="J101" s="167"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A102" s="70" t="s">
         <v>190</v>
       </c>
@@ -7592,7 +7624,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A103" s="54">
         <v>1</v>
       </c>
@@ -7621,7 +7653,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A104" s="54">
         <v>2</v>
       </c>
@@ -7658,7 +7690,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A105" s="54">
         <v>3</v>
       </c>
@@ -7687,7 +7719,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A106" s="54">
         <v>4</v>
       </c>
@@ -7718,7 +7750,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A107" s="54">
         <v>5</v>
       </c>
@@ -7749,7 +7781,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K108" s="78" t="s">
         <v>360</v>
       </c>
@@ -7757,27 +7789,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
-      <c r="A109" s="167" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A109" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="168"/>
-      <c r="C109" s="169" t="s">
+      <c r="B109" s="165"/>
+      <c r="C109" s="166" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="170"/>
+      <c r="D109" s="167"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="169" t="s">
+      <c r="F109" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="171"/>
-      <c r="H109" s="171"/>
-      <c r="I109" s="171"/>
-      <c r="J109" s="170"/>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="G109" s="168"/>
+      <c r="H109" s="168"/>
+      <c r="I109" s="168"/>
+      <c r="J109" s="167"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A110" s="70" t="s">
         <v>190</v>
       </c>
@@ -7816,7 +7848,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A111" s="54">
         <v>1</v>
       </c>
@@ -7845,7 +7877,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A112" s="54">
         <v>2</v>
       </c>
@@ -7878,7 +7910,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A113" s="54">
         <v>3</v>
       </c>
@@ -7911,7 +7943,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A114" s="54">
         <v>4</v>
       </c>
@@ -7942,7 +7974,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A115" s="54">
         <v>5</v>
       </c>
@@ -7971,7 +8003,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K116" s="78" t="s">
         <v>360</v>
       </c>
@@ -7979,27 +8011,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
-      <c r="A117" s="167" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A117" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="168"/>
-      <c r="C117" s="169" t="s">
+      <c r="B117" s="165"/>
+      <c r="C117" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="170"/>
+      <c r="D117" s="167"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="169" t="s">
+      <c r="F117" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="171"/>
-      <c r="H117" s="171"/>
-      <c r="I117" s="171"/>
-      <c r="J117" s="170"/>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="G117" s="168"/>
+      <c r="H117" s="168"/>
+      <c r="I117" s="168"/>
+      <c r="J117" s="167"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A118" s="70" t="s">
         <v>190</v>
       </c>
@@ -8038,7 +8070,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A119" s="54">
         <v>1</v>
       </c>
@@ -8067,7 +8099,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A120" s="54">
         <v>2</v>
       </c>
@@ -8104,7 +8136,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A121" s="97">
         <v>3</v>
       </c>
@@ -8139,7 +8171,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A122" s="54">
         <v>4</v>
       </c>
@@ -8168,7 +8200,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A123" s="54">
         <v>5</v>
       </c>
@@ -8197,7 +8229,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A124" s="54">
         <v>6</v>
       </c>
@@ -8226,7 +8258,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
       <c r="K125" s="78" t="s">
         <v>360</v>
       </c>
@@ -8295,14 +8327,14 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
@@ -8321,76 +8353,76 @@
     <col min="18" max="16384" width="8.6640625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="158" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B1" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="158"/>
-      <c r="D1" s="164" t="s">
+      <c r="C1" s="155"/>
+      <c r="D1" s="161" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="165"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="158" t="s">
+      <c r="E1" s="162"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="155" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="162" t="s">
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="159" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="163"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="78" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M1" s="78" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="B2" s="158" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="B2" s="155" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="159" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="158" t="s">
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="160">
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="157">
         <v>44474</v>
       </c>
-      <c r="K2" s="161"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="K2" s="158"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="169" t="s">
+      <c r="C4" s="165"/>
+      <c r="D4" s="166" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="170"/>
+      <c r="E4" s="167"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="169" t="s">
+      <c r="G4" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="170"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="167"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
         <v>190</v>
       </c>
@@ -8429,7 +8461,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B6" s="54">
         <v>1</v>
       </c>
@@ -8459,12 +8491,12 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B7" s="54">
         <v>2</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D7" s="55" t="s">
         <v>206</v>
@@ -8492,54 +8524,54 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B8" s="54">
         <v>3</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>279</v>
+        <v>209</v>
       </c>
       <c r="E8" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F8" s="54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="54"/>
+      <c r="H8" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
-      <c r="K8" s="107" t="s">
-        <v>280</v>
-      </c>
+      <c r="K8" s="107"/>
       <c r="L8" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>PASSWORD varchar2(50) not null,</v>
+        <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
       <c r="N8" s="78" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B9" s="54">
         <v>4</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E9" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="54">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9" s="54" t="s">
         <v>139</v>
@@ -8547,24 +8579,26 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
-      <c r="K9" s="107"/>
+      <c r="K9" s="107" t="s">
+        <v>280</v>
+      </c>
       <c r="L9" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>NAME varchar2(20) not null,</v>
+        <v>PASSWORD varchar2(50) not null,</v>
       </c>
       <c r="N9" s="78" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B10" s="54">
         <v>5</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>135</v>
@@ -8575,140 +8609,107 @@
       <c r="G10" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H10" s="54" t="s">
-        <v>396</v>
-      </c>
+      <c r="H10" s="54"/>
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
       <c r="K10" s="107"/>
       <c r="L10" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>NICKNAME varchar2(20) not null unique,</v>
+        <v>NAME varchar2(20) not null,</v>
       </c>
       <c r="N10" s="78" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B11" s="54">
         <v>6</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D11" s="55" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="E11" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F11" s="54">
+        <v>10</v>
+      </c>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="54">
-        <v>0</v>
-      </c>
-      <c r="K11" s="107" t="s">
-        <v>285</v>
+      <c r="J11" s="54"/>
+      <c r="K11" s="55" t="s">
+        <v>219</v>
       </c>
       <c r="L11" s="78" t="str">
         <f t="shared" si="0"/>
-        <v>WARNCOUNT number default 0,</v>
+        <v>GENDER varchar2(10),</v>
       </c>
       <c r="N11" s="78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.45">
       <c r="B12" s="54">
         <v>7</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>423</v>
+        <v>222</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>425</v>
+        <v>223</v>
       </c>
       <c r="E12" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="54">
-        <v>100</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
       <c r="K12" s="55" t="s">
-        <v>424</v>
+        <v>290</v>
       </c>
       <c r="L12" s="78" t="str">
-        <f t="shared" si="0"/>
-        <v>SESSIONID varchar2(100),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17">
-      <c r="B13" s="54">
-        <v>8</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>399</v>
-      </c>
-      <c r="E13" s="118" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="118" t="s">
-        <v>398</v>
-      </c>
-      <c r="L13" s="78" t="str">
-        <f>C13&amp;" "&amp;E13&amp;IF(E13="varchar2","("&amp;F13&amp;")","")&amp;IF(J13="",""," default "&amp;J13)&amp;IF(G13="",""," "&amp;G13)&amp;IF(H13="",""," unique")&amp;IF(I13="",""," primary key")</f>
-        <v>OUTDATE date</v>
-      </c>
-      <c r="N13" s="78" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="L14" s="78" t="s">
+        <f>C12&amp;" "&amp;E12&amp;IF(E12="varchar2","("&amp;F12&amp;")","")&amp;IF(J12="",""," default "&amp;J12)&amp;IF(G12="",""," "&amp;G12)&amp;IF(H12="",""," unique")&amp;IF(I12="",""," primary key")</f>
+        <v>STOREDATE date</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="L13" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N14" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="169" t="s">
-        <v>400</v>
-      </c>
-      <c r="E15" s="170"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="166" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="167"/>
       <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="170"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="167"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
@@ -8741,13 +8742,13 @@
       </c>
       <c r="L16" s="78" t="str">
         <f>"create table "&amp;D15&amp;"("</f>
-        <v>create table MEMBER_PLUS(</v>
+        <v>create table MEMBER_AUTO(</v>
       </c>
       <c r="N16" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="54">
         <v>1</v>
       </c>
@@ -8756,7 +8757,7 @@
       </c>
       <c r="D17" s="53" t="str">
         <f>"번호 ("&amp;D15&amp;"_SEQ.nextval)"</f>
-        <v>번호 (MEMBER_PLUS_SEQ.nextval)</v>
+        <v>번호 (MEMBER_AUTO_SEQ.nextval)</v>
       </c>
       <c r="E17" s="53" t="s">
         <v>128</v>
@@ -8770,14 +8771,14 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
       <c r="L17" s="78" t="str">
-        <f t="shared" ref="L17:L19" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L17:L24" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N17" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="54">
         <v>2</v>
       </c>
@@ -8802,7 +8803,7 @@
       <c r="I18" s="73"/>
       <c r="J18" s="73"/>
       <c r="K18" s="74" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L18" s="78" t="str">
         <f t="shared" si="1"/>
@@ -8816,829 +8817,813 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="54">
         <v>3</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D19" s="55" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="54">
-        <v>10</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F19" s="54"/>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
       <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55" t="s">
-        <v>219</v>
+      <c r="J19" s="54">
+        <v>0</v>
+      </c>
+      <c r="K19" s="107" t="s">
+        <v>285</v>
       </c>
       <c r="L19" s="78" t="str">
         <f t="shared" si="1"/>
-        <v>GENDER varchar2(10),</v>
+        <v>WARNCOUNT number default 0,</v>
       </c>
       <c r="N19" s="78" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="54">
         <v>4</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D20" s="55" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="E20" s="55" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F20" s="54"/>
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>289</v>
+      <c r="J20" s="54">
+        <v>0</v>
+      </c>
+      <c r="K20" s="107" t="s">
+        <v>284</v>
       </c>
       <c r="L20" s="78" t="str">
-        <f t="shared" ref="L20" si="2">C20&amp;" "&amp;E20&amp;IF(E20="varchar2","("&amp;F20&amp;")","")&amp;IF(J20="",""," default "&amp;J20)&amp;IF(G20="",""," "&amp;G20)&amp;IF(H20="",""," unique")&amp;IF(I20="",""," primary key")&amp;","</f>
-        <v>INDATE date default sysdate,</v>
+        <f t="shared" si="1"/>
+        <v>POINT number default 0,</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="48">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.45">
       <c r="B21" s="54">
         <v>5</v>
       </c>
-      <c r="C21" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="C21" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="177" t="s">
+        <v>429</v>
+      </c>
+      <c r="E21" s="177" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="55" t="s">
-        <v>290</v>
+      <c r="F21" s="176"/>
+      <c r="G21" s="176"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="177" t="s">
+        <v>430</v>
       </c>
       <c r="L21" s="78" t="str">
-        <f>C21&amp;" "&amp;E21&amp;IF(E21="varchar2","("&amp;F21&amp;")","")&amp;IF(J21="",""," default "&amp;J21)&amp;IF(G21="",""," "&amp;G21)&amp;IF(H21="",""," unique")&amp;IF(I21="",""," primary key")</f>
-        <v>STOREDATE date</v>
+        <f t="shared" si="1"/>
+        <v>REGDATE date,</v>
       </c>
       <c r="N21" s="78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="L22" s="78" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+      <c r="B22" s="54">
+        <v>6</v>
+      </c>
+      <c r="C22" s="177" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="177" t="s">
+        <v>431</v>
+      </c>
+      <c r="E22" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="176" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" s="177" t="s">
+        <v>428</v>
+      </c>
+      <c r="L22" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N22" s="78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="54">
+        <v>7</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="54">
+        <v>100</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="55" t="s">
+        <v>421</v>
+      </c>
+      <c r="L23" s="78" t="str">
+        <f t="shared" si="1"/>
+        <v>SESSIONID varchar2(100),</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+      <c r="B24" s="54">
+        <v>8</v>
+      </c>
+      <c r="C24" s="177" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="E24" s="177" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="177" t="s">
+        <v>434</v>
+      </c>
+      <c r="L24" s="78" t="str">
+        <f>C24&amp;" "&amp;E24&amp;IF(E24="varchar2","("&amp;F24&amp;")","")&amp;IF(J24="",""," default "&amp;J24)&amp;IF(G24="",""," "&amp;G24)&amp;IF(H24="",""," unique")&amp;IF(I24="",""," primary key")</f>
+        <v>LOGINTIME date</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L25" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N22" s="78" t="s">
+      <c r="N25" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="78">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A26" s="78">
         <v>3</v>
       </c>
-      <c r="B23" s="167" t="s">
+      <c r="B26" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="169" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="170"/>
-      <c r="F23" s="70" t="s">
+      <c r="C26" s="165"/>
+      <c r="D26" s="166" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="167"/>
+      <c r="F26" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G23" s="169" t="s">
+      <c r="G26" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="170"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="70" t="s">
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="167"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C27" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D24" s="70" t="s">
+      <c r="D27" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="70" t="s">
+      <c r="E27" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F27" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G24" s="70" t="s">
+      <c r="G27" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H27" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I24" s="70" t="s">
+      <c r="I27" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J24" s="70" t="s">
+      <c r="J27" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K27" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L24" s="78" t="str">
-        <f>"create table "&amp;D23&amp;"("</f>
+      <c r="L27" s="78" t="str">
+        <f>"create table "&amp;D26&amp;"("</f>
         <v>create table MEMBER_ADDR(</v>
       </c>
-      <c r="N24" s="78" t="s">
+      <c r="N27" s="78" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="54">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="54">
         <v>1</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C28" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D25" s="53" t="str">
-        <f>"번호 ("&amp;D23&amp;"_SEQ.nextval)"</f>
+      <c r="D28" s="53" t="str">
+        <f>"번호 ("&amp;D26&amp;"_SEQ.nextval)"</f>
         <v>번호 (MEMBER_ADDR_SEQ.nextval)</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E28" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J25" s="54"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="78" t="str">
-        <f t="shared" ref="L25:L30" si="3">C25&amp;" "&amp;E25&amp;IF(E25="varchar2","("&amp;F25&amp;")","")&amp;IF(J25="",""," default "&amp;J25)&amp;IF(G25="",""," "&amp;G25)&amp;IF(H25="",""," unique")&amp;IF(I25="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N25" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="B26" s="54">
-        <v>2</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="73">
-        <v>20</v>
-      </c>
-      <c r="G26" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="L26" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>NICKNAME varchar2(20) not null unique,</v>
-      </c>
-      <c r="N26" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="O26" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C26&amp;") references "&amp;K26</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="54">
-        <v>3</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" s="54">
-        <v>10</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="107" t="s">
-        <v>404</v>
-      </c>
-      <c r="L27" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>PHONE1 varchar2(10),</v>
-      </c>
-      <c r="N27" s="78" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="B28" s="54">
-        <v>4</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="54">
-        <v>20</v>
-      </c>
+      <c r="F28" s="54"/>
       <c r="G28" s="54"/>
       <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
+      <c r="I28" s="54" t="s">
+        <v>205</v>
+      </c>
       <c r="J28" s="54"/>
-      <c r="K28" s="107" t="s">
-        <v>405</v>
-      </c>
+      <c r="K28" s="55"/>
       <c r="L28" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>PHONE2 varchar2(20),</v>
+        <f t="shared" ref="L28:L33" si="2">C28&amp;" "&amp;E28&amp;IF(E28="varchar2","("&amp;F28&amp;")","")&amp;IF(J28="",""," default "&amp;J28)&amp;IF(G28="",""," "&amp;G28)&amp;IF(H28="",""," unique")&amp;IF(I28="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N28" s="78" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="54">
-        <v>5</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="E29" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="54">
-        <v>10</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="55"/>
+      <c r="F29" s="73">
+        <v>20</v>
+      </c>
+      <c r="G29" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74" t="s">
+        <v>398</v>
+      </c>
       <c r="L29" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>ADDRNUM varchar2(10),</v>
+        <f t="shared" si="2"/>
+        <v>NICKNAME varchar2(20) not null unique,</v>
       </c>
       <c r="N29" s="78" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>310</v>
+      </c>
+      <c r="O29" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C29&amp;") references "&amp;K29</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="E30" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F30" s="54">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G30" s="54"/>
       <c r="H30" s="54"/>
       <c r="I30" s="54"/>
       <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="107" t="s">
+        <v>401</v>
+      </c>
       <c r="L30" s="78" t="str">
-        <f t="shared" si="3"/>
-        <v>ADDR varchar2(100),</v>
+        <f t="shared" si="2"/>
+        <v>PHONE1 varchar2(10),</v>
       </c>
       <c r="N30" s="78" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B31" s="54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F31" s="54">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="54"/>
       <c r="I31" s="54"/>
       <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
+      <c r="K31" s="107" t="s">
+        <v>402</v>
+      </c>
       <c r="L31" s="78" t="str">
-        <f t="shared" ref="L31" si="4">C31&amp;" "&amp;E31&amp;IF(E31="varchar2","("&amp;F31&amp;")","")&amp;IF(J31="",""," default "&amp;J31)&amp;IF(G31="",""," "&amp;G31)&amp;IF(H31="",""," unique")&amp;IF(I31="",""," primary key")&amp;","</f>
-        <v>ADDRSUB varchar2(100),</v>
+        <f t="shared" si="2"/>
+        <v>PHONE2 varchar2(20),</v>
       </c>
       <c r="N31" s="78" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B32" s="54">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F32" s="54">
+        <v>10</v>
+      </c>
       <c r="G32" s="54"/>
       <c r="H32" s="54"/>
       <c r="I32" s="54"/>
-      <c r="J32" s="54">
-        <v>0</v>
-      </c>
-      <c r="K32" s="107" t="s">
-        <v>284</v>
-      </c>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
       <c r="L32" s="78" t="str">
-        <f>C32&amp;" "&amp;E32&amp;IF(E32="varchar2","("&amp;F32&amp;")","")&amp;IF(J32="",""," default "&amp;J32)&amp;IF(G32="",""," "&amp;G32)&amp;IF(H32="",""," unique")&amp;IF(I32="",""," primary key")</f>
-        <v>POINT number default 0</v>
+        <f t="shared" si="2"/>
+        <v>ADDRNUM varchar2(10),</v>
       </c>
       <c r="N32" s="78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="L33" s="78" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="54">
+        <v>6</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" s="54">
+        <v>100</v>
+      </c>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="78" t="str">
+        <f t="shared" si="2"/>
+        <v>ADDR varchar2(100),</v>
+      </c>
+      <c r="N33" s="78" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="54">
+        <v>7</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="54">
+        <v>100</v>
+      </c>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="78" t="str">
+        <f>C34&amp;" "&amp;E34&amp;IF(E34="varchar2","("&amp;F34&amp;")","")&amp;IF(J34="",""," default "&amp;J34)&amp;IF(G34="",""," "&amp;G34)&amp;IF(H34="",""," unique")&amp;IF(I34="",""," primary key")</f>
+        <v>ADDRSUB varchar2(100)</v>
+      </c>
+      <c r="N34" s="78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L35" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N33" s="78" t="s">
+      <c r="N35" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="78">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A36" s="78">
         <v>4</v>
       </c>
-      <c r="B34" s="167" t="s">
+      <c r="B36" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="168"/>
-      <c r="D34" s="169" t="s">
+      <c r="C36" s="165"/>
+      <c r="D36" s="166" t="s">
         <v>196</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="70" t="s">
+      <c r="E36" s="167"/>
+      <c r="F36" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G34" s="169" t="s">
+      <c r="G36" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="170"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="B35" s="70" t="s">
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="167"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C37" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D37" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E37" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F37" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G37" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H37" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I35" s="70" t="s">
+      <c r="I37" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="70" t="s">
+      <c r="J37" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K35" s="70" t="s">
+      <c r="K37" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L35" s="78" t="str">
-        <f>"create table "&amp;D34&amp;"("</f>
+      <c r="L37" s="78" t="str">
+        <f>"create table "&amp;D36&amp;"("</f>
         <v>create table POINT(</v>
       </c>
-      <c r="N35" s="78" t="s">
+      <c r="N37" s="78" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="B36" s="54">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="54">
         <v>1</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C38" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="53" t="str">
-        <f>"번호 ("&amp;D34&amp;"_SEQ.nextval)"</f>
+      <c r="D38" s="53" t="str">
+        <f>"번호 ("&amp;D36&amp;"_SEQ.nextval)"</f>
         <v>번호 (POINT_SEQ.nextval)</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E38" s="53" t="s">
         <v>128</v>
-      </c>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J36" s="54"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="78" t="str">
-        <f t="shared" ref="L36:L39" si="5">C36&amp;" "&amp;E36&amp;IF(E36="varchar2","("&amp;F36&amp;")","")&amp;IF(J36="",""," default "&amp;J36)&amp;IF(G36="",""," "&amp;G36)&amp;IF(H36="",""," unique")&amp;IF(I36="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N36" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="B37" s="54">
-        <v>2</v>
-      </c>
-      <c r="C37" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="D37" s="82" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="83">
-        <v>20</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="82" t="s">
-        <v>388</v>
-      </c>
-      <c r="L37" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N37" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O37" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C37&amp;") references "&amp;K37</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="B38" s="54">
-        <v>3</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>156</v>
       </c>
       <c r="F38" s="54"/>
       <c r="G38" s="54"/>
       <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="I38" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="54"/>
       <c r="K38" s="55"/>
       <c r="L38" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CHANGEDATE date default sysdate,</v>
+        <f t="shared" ref="L38:L41" si="3">C38&amp;" "&amp;E38&amp;IF(E38="varchar2","("&amp;F38&amp;")","")&amp;IF(J38="",""," default "&amp;J38)&amp;IF(G38="",""," "&amp;G38)&amp;IF(H38="",""," unique")&amp;IF(I38="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
       </c>
       <c r="N38" s="78" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="54">
-        <v>4</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>274</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="83">
+        <v>20</v>
+      </c>
+      <c r="G39" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="55" t="s">
-        <v>160</v>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="82" t="s">
+        <v>388</v>
       </c>
       <c r="L39" s="78" t="str">
-        <f t="shared" si="5"/>
-        <v>CHANGEPOINT number not null,</v>
+        <f t="shared" si="3"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N39" s="78" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>303</v>
+      </c>
+      <c r="O39" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C39&amp;") references "&amp;K39</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B40" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" s="54">
-        <v>20</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>139</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
       <c r="H40" s="54"/>
       <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="J40" s="54" t="s">
+        <v>157</v>
+      </c>
       <c r="K40" s="55"/>
       <c r="L40" s="78" t="str">
-        <f>C40&amp;" "&amp;E40&amp;IF(E40="varchar2","("&amp;F40&amp;")","")&amp;IF(J40="",""," default "&amp;J40)&amp;IF(G40="",""," "&amp;G40)&amp;IF(H40="",""," unique")&amp;IF(I40="",""," primary key")</f>
+        <f t="shared" si="3"/>
+        <v>CHANGEDATE date default sysdate,</v>
+      </c>
+      <c r="N40" s="78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="54">
+        <v>4</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="E41" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="78" t="str">
+        <f t="shared" si="3"/>
+        <v>CHANGEPOINT number not null,</v>
+      </c>
+      <c r="N41" s="78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="54">
+        <v>5</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="54">
+        <v>20</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="78" t="str">
+        <f>C42&amp;" "&amp;E42&amp;IF(E42="varchar2","("&amp;F42&amp;")","")&amp;IF(J42="",""," default "&amp;J42)&amp;IF(G42="",""," "&amp;G42)&amp;IF(H42="",""," unique")&amp;IF(I42="",""," primary key")</f>
         <v>CHANGEWHY varchar2(20) not null</v>
       </c>
-      <c r="N40" s="78" t="s">
+      <c r="N42" s="78" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="L41" s="78" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L43" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N41" s="78" t="s">
+      <c r="N43" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="78">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A44" s="78">
         <v>5</v>
       </c>
-      <c r="B42" s="167" t="s">
+      <c r="B44" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="169" t="s">
+      <c r="C44" s="165"/>
+      <c r="D44" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="E42" s="170"/>
-      <c r="F42" s="70" t="s">
+      <c r="E44" s="167"/>
+      <c r="F44" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G42" s="169" t="s">
+      <c r="G44" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="170"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="B43" s="70" t="s">
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="167"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C45" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D45" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E45" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F45" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G43" s="70" t="s">
+      <c r="G45" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H43" s="70" t="s">
+      <c r="H45" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I43" s="70" t="s">
+      <c r="I45" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J45" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K43" s="70" t="s">
+      <c r="K45" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L43" s="78" t="str">
-        <f>"create table "&amp;D42&amp;"("</f>
+      <c r="L45" s="78" t="str">
+        <f>"create table "&amp;D44&amp;"("</f>
         <v>create table BOARD(</v>
       </c>
-      <c r="N43" s="78" t="s">
+      <c r="N45" s="78" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="B44" s="54">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="54">
         <v>1</v>
       </c>
-      <c r="C44" s="53" t="s">
+      <c r="C46" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="53" t="str">
-        <f>"번호 ("&amp;D42&amp;"_SEQ.nextval)"</f>
+      <c r="D46" s="53" t="str">
+        <f>"번호 ("&amp;D44&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_SEQ.nextval)</v>
       </c>
-      <c r="E44" s="53" t="s">
+      <c r="E46" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54" t="s">
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="54"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="78" t="str">
-        <f t="shared" ref="L44:L51" si="6">C44&amp;" "&amp;E44&amp;IF(E44="varchar2","("&amp;F44&amp;")","")&amp;IF(J44="",""," default "&amp;J44)&amp;IF(G44="",""," "&amp;G44)&amp;IF(H44="",""," unique")&amp;IF(I44="",""," primary key")&amp;","</f>
+      <c r="J46" s="54"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="78" t="str">
+        <f t="shared" ref="L46:L53" si="4">C46&amp;" "&amp;E46&amp;IF(E46="varchar2","("&amp;F46&amp;")","")&amp;IF(J46="",""," default "&amp;J46)&amp;IF(G46="",""," "&amp;G46)&amp;IF(H46="",""," unique")&amp;IF(I46="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N44" s="78" t="s">
+      <c r="N46" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="B45" s="54">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="54">
         <v>2</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C47" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D47" s="55" t="s">
         <v>229</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F45" s="54">
-        <v>20</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="55" t="s">
-        <v>230</v>
-      </c>
-      <c r="L45" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>BOARDCODE varchar2(20) not null,</v>
-      </c>
-      <c r="N45" s="78" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="B46" s="73">
-        <v>3</v>
-      </c>
-      <c r="C46" s="74" t="s">
-        <v>367</v>
-      </c>
-      <c r="D46" s="74" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F46" s="73">
-        <v>20</v>
-      </c>
-      <c r="G46" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="54"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="L46" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>WRITER varchar2(20) not null,</v>
-      </c>
-      <c r="N46" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="O46" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C46&amp;") references "&amp;K46</f>
-        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="B47" s="54">
-        <v>4</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>233</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F47" s="54">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>139</v>
@@ -9646,705 +9631,711 @@
       <c r="H47" s="54"/>
       <c r="I47" s="54"/>
       <c r="J47" s="54"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="55" t="s">
+        <v>230</v>
+      </c>
       <c r="L47" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f t="shared" si="4"/>
+        <v>BOARDCODE varchar2(20) not null,</v>
       </c>
       <c r="N47" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="B48" s="54">
-        <v>5</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="73">
+        <v>3</v>
+      </c>
+      <c r="C48" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="E48" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="54">
-        <v>4000</v>
-      </c>
-      <c r="G48" s="54" t="s">
+      <c r="F48" s="73">
+        <v>20</v>
+      </c>
+      <c r="G48" s="73" t="s">
         <v>139</v>
       </c>
       <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="55"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="74" t="s">
+        <v>398</v>
+      </c>
       <c r="L48" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <f t="shared" si="4"/>
+        <v>WRITER varchar2(20) not null,</v>
       </c>
       <c r="N48" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>369</v>
+      </c>
+      <c r="O48" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C48&amp;") references "&amp;K48</f>
+        <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B49" s="54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="55" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E49" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F49" s="54">
+        <v>50</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H49" s="54"/>
       <c r="I49" s="54"/>
-      <c r="J49" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K49" s="55" t="s">
-        <v>292</v>
-      </c>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
       <c r="L49" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>REGDATE date default sysdate,</v>
+        <f t="shared" si="4"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N49" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B50" s="54">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="D50" s="55" t="s">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F50" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H50" s="54"/>
       <c r="I50" s="54"/>
-      <c r="J50" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="K50" s="55" t="s">
-        <v>293</v>
-      </c>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
       <c r="L50" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>MODDATE date default sysdate,</v>
+        <f t="shared" si="4"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N50" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B51" s="54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D51" s="55" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E51" s="55" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F51" s="54"/>
       <c r="G51" s="54"/>
       <c r="H51" s="54"/>
       <c r="I51" s="54"/>
-      <c r="J51" s="54">
-        <v>0</v>
-      </c>
-      <c r="K51" s="55"/>
+      <c r="J51" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K51" s="55" t="s">
+        <v>292</v>
+      </c>
       <c r="L51" s="78" t="str">
-        <f t="shared" si="6"/>
-        <v>HIT number default 0,</v>
+        <f t="shared" si="4"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N51" s="78" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B52" s="54">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D52" s="55" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E52" s="55" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F52" s="54"/>
       <c r="G52" s="54"/>
       <c r="H52" s="54"/>
       <c r="I52" s="54"/>
-      <c r="J52" s="54">
+      <c r="J52" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="L52" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N52" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B53" s="54">
+        <v>8</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54">
         <v>0</v>
       </c>
-      <c r="K52" s="55"/>
-      <c r="L52" s="78" t="str">
-        <f>C52&amp;" "&amp;E52&amp;IF(E52="varchar2","("&amp;F52&amp;")","")&amp;IF(J52="",""," default "&amp;J52)&amp;IF(G52="",""," "&amp;G52)&amp;IF(H52="",""," unique")&amp;IF(I52="",""," primary key")</f>
+      <c r="K53" s="55"/>
+      <c r="L53" s="78" t="str">
+        <f t="shared" si="4"/>
+        <v>HIT number default 0,</v>
+      </c>
+      <c r="N53" s="78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B54" s="54">
+        <v>9</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54">
+        <v>0</v>
+      </c>
+      <c r="K54" s="55"/>
+      <c r="L54" s="78" t="str">
+        <f>C54&amp;" "&amp;E54&amp;IF(E54="varchar2","("&amp;F54&amp;")","")&amp;IF(J54="",""," default "&amp;J54)&amp;IF(G54="",""," "&amp;G54)&amp;IF(H54="",""," unique")&amp;IF(I54="",""," primary key")</f>
         <v>HEART number default 0</v>
       </c>
-      <c r="N52" s="78" t="s">
+      <c r="N54" s="78" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="L53" s="78" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L55" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N53" s="78" t="s">
+      <c r="N55" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="78">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A56" s="78">
         <v>6</v>
       </c>
-      <c r="B54" s="167" t="s">
+      <c r="B56" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="172"/>
-      <c r="D54" s="173" t="s">
+      <c r="C56" s="169"/>
+      <c r="D56" s="170" t="s">
         <v>241</v>
       </c>
-      <c r="E54" s="174"/>
-      <c r="F54" s="89" t="s">
+      <c r="E56" s="171"/>
+      <c r="F56" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G54" s="173" t="s">
+      <c r="G56" s="170" t="s">
         <v>389</v>
       </c>
-      <c r="H54" s="175"/>
-      <c r="I54" s="175"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="174"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="B55" s="111" t="s">
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="171"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B57" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="C55" s="115" t="s">
+      <c r="C57" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D57" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E57" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F55" s="115" t="s">
+      <c r="F57" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G55" s="115" t="s">
+      <c r="G57" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H55" s="70" t="s">
+      <c r="H57" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I55" s="115" t="s">
+      <c r="I57" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J55" s="115" t="s">
+      <c r="J57" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K55" s="115" t="s">
+      <c r="K57" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L55" s="78" t="str">
-        <f>"create table "&amp;D54&amp;"("</f>
+      <c r="L57" s="78" t="str">
+        <f>"create table "&amp;D56&amp;"("</f>
         <v>create table BOARD_REF(</v>
       </c>
-      <c r="N55" s="78" t="s">
+      <c r="N57" s="78" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="116">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B58" s="116">
         <v>1</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C58" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D56" s="53" t="str">
-        <f>"번호 ("&amp;D54&amp;"_SEQ.nextval)"</f>
+      <c r="D58" s="53" t="str">
+        <f>"번호 ("&amp;D56&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_REF_SEQ.nextval)</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E58" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114" t="s">
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J56" s="114"/>
-      <c r="K56" s="91"/>
-      <c r="L56" s="78" t="str">
-        <f t="shared" ref="L56:L62" si="7">C56&amp;" "&amp;E56&amp;IF(E56="varchar2","("&amp;F56&amp;")","")&amp;IF(J56="",""," default "&amp;J56)&amp;IF(G56="",""," "&amp;G56)&amp;IF(H56="",""," unique")&amp;IF(I56="",""," primary key")&amp;","</f>
+      <c r="J58" s="114"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="78" t="str">
+        <f t="shared" ref="L58:L64" si="5">C58&amp;" "&amp;E58&amp;IF(E58="varchar2","("&amp;F58&amp;")","")&amp;IF(J58="",""," default "&amp;J58)&amp;IF(G58="",""," "&amp;G58)&amp;IF(H58="",""," unique")&amp;IF(I58="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N56" s="78" t="s">
+      <c r="N58" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="32">
-      <c r="B57" s="87">
+    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B59" s="87">
         <v>2</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C59" s="92" t="s">
         <v>182</v>
       </c>
-      <c r="D57" s="92" t="s">
+      <c r="D59" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="E57" s="92" t="s">
+      <c r="E59" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="93"/>
-      <c r="G57" s="93" t="s">
+      <c r="F59" s="93"/>
+      <c r="G59" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H57" s="93"/>
-      <c r="I57" s="93"/>
-      <c r="J57" s="93"/>
-      <c r="K57" s="92" t="s">
+      <c r="H59" s="93"/>
+      <c r="I59" s="93"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="92" t="s">
         <v>362</v>
       </c>
-      <c r="L57" s="78" t="str">
-        <f t="shared" si="7"/>
+      <c r="L59" s="78" t="str">
+        <f t="shared" si="5"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N57" s="78" t="s">
+      <c r="N59" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O57" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C57&amp;") references "&amp;K57</f>
+      <c r="O59" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C59&amp;") references "&amp;K59</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="88">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B60" s="88">
         <v>3</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C60" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="D58" s="92" t="s">
+      <c r="D60" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="92" t="s">
+      <c r="E60" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="93">
+      <c r="F60" s="93">
         <v>20</v>
       </c>
-      <c r="G58" s="93" t="s">
+      <c r="G60" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="L58" s="78" t="str">
-        <f t="shared" si="7"/>
+      <c r="H60" s="93"/>
+      <c r="I60" s="93"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="L60" s="78" t="str">
+        <f t="shared" si="5"/>
         <v>WRITER varchar2(20) not null,</v>
       </c>
-      <c r="N58" s="78" t="s">
+      <c r="N60" s="78" t="s">
         <v>369</v>
       </c>
-      <c r="O58" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C58&amp;") references "&amp;K58</f>
+      <c r="O60" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C60&amp;") references "&amp;K60</f>
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="B59" s="112">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B61" s="112">
         <v>4</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C61" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="D59" s="91" t="s">
+      <c r="D61" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E59" s="91" t="s">
+      <c r="E61" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="114">
+      <c r="F61" s="114">
         <v>1000</v>
       </c>
-      <c r="G59" s="114" t="s">
+      <c r="G61" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="114"/>
-      <c r="K59" s="91"/>
-      <c r="L59" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>CONTENT varchar2(1000) not null,</v>
-      </c>
-      <c r="N59" s="78" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="B60" s="112">
-        <v>5</v>
-      </c>
-      <c r="C60" s="91" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60" s="91" t="s">
-        <v>292</v>
-      </c>
-      <c r="L60" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>REGDATE date default sysdate,</v>
-      </c>
-      <c r="N60" s="78" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="B61" s="112">
-        <v>6</v>
-      </c>
-      <c r="C61" s="91" t="s">
-        <v>236</v>
-      </c>
-      <c r="D61" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="E61" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F61" s="114"/>
-      <c r="G61" s="114"/>
       <c r="H61" s="114"/>
       <c r="I61" s="114"/>
-      <c r="J61" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K61" s="91" t="s">
-        <v>293</v>
-      </c>
+      <c r="J61" s="114"/>
+      <c r="K61" s="91"/>
       <c r="L61" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>MODDATE date default sysdate,</v>
+        <f t="shared" si="5"/>
+        <v>CONTENT varchar2(1000) not null,</v>
       </c>
       <c r="N61" s="78" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B62" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" s="91" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D62" s="91" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="E62" s="91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F62" s="114"/>
       <c r="G62" s="114"/>
       <c r="H62" s="114"/>
       <c r="I62" s="114"/>
-      <c r="J62" s="114">
-        <v>0</v>
-      </c>
-      <c r="K62" s="91"/>
+      <c r="J62" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K62" s="91" t="s">
+        <v>292</v>
+      </c>
       <c r="L62" s="78" t="str">
-        <f t="shared" si="7"/>
-        <v>DEPTH number default 0,</v>
+        <f t="shared" si="5"/>
+        <v>REGDATE date default sysdate,</v>
       </c>
       <c r="N62" s="78" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="32">
-      <c r="B63" s="116">
-        <v>8</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B63" s="112">
+        <v>6</v>
       </c>
       <c r="C63" s="91" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D63" s="91" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="F63" s="114"/>
       <c r="G63" s="114"/>
       <c r="H63" s="114"/>
       <c r="I63" s="114"/>
-      <c r="J63" s="114">
+      <c r="J63" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="L63" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>MODDATE date default sysdate,</v>
+      </c>
+      <c r="N63" s="78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B64" s="112">
+        <v>7</v>
+      </c>
+      <c r="C64" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="114">
         <v>0</v>
       </c>
-      <c r="K63" s="91" t="s">
+      <c r="K64" s="91"/>
+      <c r="L64" s="78" t="str">
+        <f t="shared" si="5"/>
+        <v>DEPTH number default 0,</v>
+      </c>
+      <c r="N64" s="78" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B65" s="116">
+        <v>8</v>
+      </c>
+      <c r="C65" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114">
+        <v>0</v>
+      </c>
+      <c r="K65" s="91" t="s">
         <v>364</v>
       </c>
-      <c r="L63" s="78" t="str">
-        <f>C63&amp;" "&amp;E63&amp;IF(E63="varchar2","("&amp;F63&amp;")","")&amp;IF(J63="",""," default "&amp;J63)&amp;IF(G63="",""," "&amp;G63)&amp;IF(H63="",""," unique")&amp;IF(I63="",""," primary key")</f>
+      <c r="L65" s="78" t="str">
+        <f>C65&amp;" "&amp;E65&amp;IF(E65="varchar2","("&amp;F65&amp;")","")&amp;IF(J65="",""," default "&amp;J65)&amp;IF(G65="",""," "&amp;G65)&amp;IF(H65="",""," unique")&amp;IF(I65="",""," primary key")</f>
         <v>REFNUM number default 0</v>
       </c>
-      <c r="N63" s="78" t="s">
+      <c r="N65" s="78" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="L64" s="78" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L66" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N64" s="78" t="s">
+      <c r="N66" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="78">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A67" s="78">
         <v>7</v>
       </c>
-      <c r="B65" s="167" t="s">
+      <c r="B67" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="168"/>
-      <c r="D65" s="169" t="s">
+      <c r="C67" s="165"/>
+      <c r="D67" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="E65" s="170"/>
-      <c r="F65" s="70" t="s">
+      <c r="E67" s="167"/>
+      <c r="F67" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G65" s="169" t="s">
+      <c r="G67" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="170"/>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="B66" s="70" t="s">
+      <c r="H67" s="168"/>
+      <c r="I67" s="168"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="167"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B68" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="70" t="s">
+      <c r="C68" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D68" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="70" t="s">
+      <c r="E68" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F66" s="70" t="s">
+      <c r="F68" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G66" s="70" t="s">
+      <c r="G68" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H66" s="70" t="s">
+      <c r="H68" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I66" s="70" t="s">
+      <c r="I68" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J66" s="70" t="s">
+      <c r="J68" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K66" s="70" t="s">
+      <c r="K68" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L66" s="78" t="str">
-        <f>"create table "&amp;D65&amp;"("</f>
+      <c r="L68" s="78" t="str">
+        <f>"create table "&amp;D67&amp;"("</f>
         <v>create table BOARD_IMAGE(</v>
       </c>
-      <c r="N66" s="78" t="s">
+      <c r="N68" s="78" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="B67" s="110">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B69" s="110">
         <v>1</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C69" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="53" t="str">
-        <f>"번호 ("&amp;D65&amp;"_SEQ.nextval)"</f>
+      <c r="D69" s="53" t="str">
+        <f>"번호 ("&amp;D67&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E67" s="75" t="s">
+      <c r="E69" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110" t="s">
+      <c r="F69" s="110"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J67" s="110"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="78" t="str">
-        <f t="shared" ref="L67:L70" si="8">C67&amp;" "&amp;E67&amp;IF(E67="varchar2","("&amp;F67&amp;")","")&amp;IF(J67="",""," default "&amp;J67)&amp;IF(G67="",""," "&amp;G67)&amp;IF(H67="",""," unique")&amp;IF(I67="",""," primary key")&amp;","</f>
+      <c r="J69" s="110"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="78" t="str">
+        <f t="shared" ref="L69:L72" si="6">C69&amp;" "&amp;E69&amp;IF(E69="varchar2","("&amp;F69&amp;")","")&amp;IF(J69="",""," default "&amp;J69)&amp;IF(G69="",""," "&amp;G69)&amp;IF(H69="",""," unique")&amp;IF(I69="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N67" s="78" t="s">
+      <c r="N69" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="32">
-      <c r="B68" s="110">
+    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B70" s="110">
         <v>2</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C70" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D68" s="77" t="s">
+      <c r="D70" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E68" s="77" t="s">
+      <c r="E70" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76" t="s">
+      <c r="F70" s="76"/>
+      <c r="G70" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
-      <c r="J68" s="76"/>
-      <c r="K68" s="77" t="s">
+      <c r="H70" s="76"/>
+      <c r="I70" s="76"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L68" s="78" t="str">
-        <f t="shared" si="8"/>
+      <c r="L70" s="78" t="str">
+        <f t="shared" si="6"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N68" s="78" t="s">
+      <c r="N70" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O68" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C68&amp;") references "&amp;K68</f>
+      <c r="O70" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C70&amp;") references "&amp;K70</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="B69" s="54">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B71" s="54">
         <v>3</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C71" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D71" s="55" t="s">
         <v>249</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F69" s="54">
-        <v>50</v>
-      </c>
-      <c r="G69" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>ORIGINNAME varchar2(50) not null,</v>
-      </c>
-      <c r="N69" s="78" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="B70" s="54">
-        <v>4</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D70" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E70" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F70" s="54">
-        <v>100</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="55" t="s">
-        <v>294</v>
-      </c>
-      <c r="L70" s="78" t="str">
-        <f t="shared" si="8"/>
-        <v>SAVENAME varchar2(100) not null,</v>
-      </c>
-      <c r="N70" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="B71" s="54">
-        <v>5</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="D71" s="55" t="s">
-        <v>251</v>
       </c>
       <c r="E71" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F71" s="54">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G71" s="54" t="s">
         <v>139</v>
@@ -10354,1062 +10345,1060 @@
       <c r="J71" s="54"/>
       <c r="K71" s="55"/>
       <c r="L71" s="78" t="str">
-        <f>C71&amp;" "&amp;E71&amp;IF(E71="varchar2","("&amp;F71&amp;")","")&amp;IF(J71="",""," default "&amp;J71)&amp;IF(G71="",""," "&amp;G71)&amp;IF(H71="",""," unique")&amp;IF(I71="",""," primary key")</f>
+        <f t="shared" si="6"/>
+        <v>ORIGINNAME varchar2(50) not null,</v>
+      </c>
+      <c r="N71" s="78" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B72" s="54">
+        <v>4</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F72" s="54">
+        <v>100</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="L72" s="78" t="str">
+        <f t="shared" si="6"/>
+        <v>SAVENAME varchar2(100) not null,</v>
+      </c>
+      <c r="N72" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B73" s="54">
+        <v>5</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73" s="54">
+        <v>10</v>
+      </c>
+      <c r="G73" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="78" t="str">
+        <f>C73&amp;" "&amp;E73&amp;IF(E73="varchar2","("&amp;F73&amp;")","")&amp;IF(J73="",""," default "&amp;J73)&amp;IF(G73="",""," "&amp;G73)&amp;IF(H73="",""," unique")&amp;IF(I73="",""," primary key")</f>
         <v>FILETYPE varchar2(10) not null</v>
       </c>
-      <c r="N71" s="78" t="s">
+      <c r="N73" s="78" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="L72" s="78" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L74" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N72" s="78" t="s">
+      <c r="N74" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="78">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A75" s="78">
         <v>8</v>
       </c>
-      <c r="B73" s="167" t="s">
+      <c r="B75" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C73" s="168"/>
-      <c r="D73" s="169" t="s">
+      <c r="C75" s="165"/>
+      <c r="D75" s="166" t="s">
         <v>252</v>
       </c>
-      <c r="E73" s="170"/>
-      <c r="F73" s="70" t="s">
+      <c r="E75" s="167"/>
+      <c r="F75" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G73" s="169" t="s">
+      <c r="G75" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H73" s="171"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="171"/>
-      <c r="K73" s="170"/>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="B74" s="70" t="s">
+      <c r="H75" s="168"/>
+      <c r="I75" s="168"/>
+      <c r="J75" s="168"/>
+      <c r="K75" s="167"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B76" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="70" t="s">
+      <c r="C76" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="D76" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E74" s="70" t="s">
+      <c r="E76" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F74" s="70" t="s">
+      <c r="F76" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G74" s="70" t="s">
+      <c r="G76" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H74" s="70" t="s">
+      <c r="H76" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I74" s="70" t="s">
+      <c r="I76" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J74" s="70" t="s">
+      <c r="J76" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K74" s="70" t="s">
+      <c r="K76" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L74" s="78" t="str">
-        <f>"create table "&amp;D73&amp;"("</f>
+      <c r="L76" s="78" t="str">
+        <f>"create table "&amp;D75&amp;"("</f>
         <v>create table BOARD_TERM(</v>
       </c>
-      <c r="N74" s="78" t="s">
+      <c r="N76" s="78" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="B75" s="54">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B77" s="54">
         <v>1</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C77" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D75" s="53" t="str">
-        <f>"번호 ("&amp;D73&amp;"_SEQ.nextval)"</f>
+      <c r="D77" s="53" t="str">
+        <f>"번호 ("&amp;D75&amp;"_SEQ.nextval)"</f>
         <v>번호 (BOARD_TERM_SEQ.nextval)</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E77" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54" t="s">
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="54"/>
+      <c r="I77" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J75" s="54"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="78" t="str">
-        <f t="shared" ref="L75:L77" si="9">C75&amp;" "&amp;E75&amp;IF(E75="varchar2","("&amp;F75&amp;")","")&amp;IF(J75="",""," default "&amp;J75)&amp;IF(G75="",""," "&amp;G75)&amp;IF(H75="",""," unique")&amp;IF(I75="",""," primary key")&amp;","</f>
+      <c r="J77" s="54"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="78" t="str">
+        <f t="shared" ref="L77:L79" si="7">C77&amp;" "&amp;E77&amp;IF(E77="varchar2","("&amp;F77&amp;")","")&amp;IF(J77="",""," default "&amp;J77)&amp;IF(G77="",""," "&amp;G77)&amp;IF(H77="",""," unique")&amp;IF(I77="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N75" s="78" t="s">
+      <c r="N77" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="32">
-      <c r="B76" s="110">
+    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B78" s="110">
         <v>2</v>
       </c>
-      <c r="C76" s="77" t="s">
+      <c r="C78" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D78" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="E76" s="77" t="s">
+      <c r="E78" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76" t="s">
+      <c r="F78" s="76"/>
+      <c r="G78" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="77" t="s">
+      <c r="H78" s="76"/>
+      <c r="I78" s="76"/>
+      <c r="J78" s="76"/>
+      <c r="K78" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="L76" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="L78" s="78" t="str">
+        <f t="shared" si="7"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N76" s="78" t="s">
+      <c r="N78" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O76" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C76&amp;") references "&amp;K76</f>
+      <c r="O78" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C78&amp;") references "&amp;K78</f>
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="B77" s="54">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B79" s="54">
         <v>3</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C79" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D79" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="E77" s="55" t="s">
+      <c r="E79" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F77" s="54"/>
-      <c r="G77" s="54" t="s">
+      <c r="F79" s="54"/>
+      <c r="G79" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="54"/>
-      <c r="K77" s="55" t="s">
+      <c r="H79" s="54"/>
+      <c r="I79" s="54"/>
+      <c r="J79" s="54"/>
+      <c r="K79" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="L77" s="78" t="str">
-        <f t="shared" si="9"/>
+      <c r="L79" s="78" t="str">
+        <f t="shared" si="7"/>
         <v>STARTDATE date not null,</v>
       </c>
-      <c r="N77" s="78" t="s">
+      <c r="N79" s="78" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
-      <c r="B78" s="54">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B80" s="54">
         <v>4</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C80" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D80" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E80" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="F78" s="54"/>
-      <c r="G78" s="54" t="s">
+      <c r="F80" s="54"/>
+      <c r="G80" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="54"/>
-      <c r="K78" s="55" t="s">
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="L78" s="78" t="str">
-        <f>C78&amp;" "&amp;E78&amp;IF(E78="varchar2","("&amp;F78&amp;")","")&amp;IF(J78="",""," default "&amp;J78)&amp;IF(G78="",""," "&amp;G78)&amp;IF(H78="",""," unique")&amp;IF(I78="",""," primary key")</f>
+      <c r="L80" s="78" t="str">
+        <f>C80&amp;" "&amp;E80&amp;IF(E80="varchar2","("&amp;F80&amp;")","")&amp;IF(J80="",""," default "&amp;J80)&amp;IF(G80="",""," "&amp;G80)&amp;IF(H80="",""," unique")&amp;IF(I80="",""," primary key")</f>
         <v>ENDDATE date not null</v>
       </c>
-      <c r="N78" s="78" t="s">
+      <c r="N80" s="78" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
-      <c r="K79" s="108"/>
-      <c r="L79" s="78" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K81" s="108"/>
+      <c r="L81" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N79" s="78" t="s">
+      <c r="N81" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="78">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A82" s="78">
         <v>9</v>
       </c>
-      <c r="B80" s="176" t="s">
+      <c r="B82" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="176"/>
-      <c r="D80" s="177" t="s">
+      <c r="C82" s="173"/>
+      <c r="D82" s="174" t="s">
         <v>138</v>
       </c>
-      <c r="E80" s="177"/>
-      <c r="F80" s="115" t="s">
+      <c r="E82" s="174"/>
+      <c r="F82" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G80" s="177" t="s">
+      <c r="G82" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="H80" s="177"/>
-      <c r="I80" s="177"/>
-      <c r="J80" s="177"/>
-      <c r="K80" s="177"/>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="B81" s="115" t="s">
+      <c r="H82" s="174"/>
+      <c r="I82" s="174"/>
+      <c r="J82" s="174"/>
+      <c r="K82" s="174"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B83" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C81" s="115" t="s">
+      <c r="C83" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D81" s="115" t="s">
+      <c r="D83" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E81" s="115" t="s">
+      <c r="E83" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F81" s="115" t="s">
+      <c r="F83" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G81" s="115" t="s">
+      <c r="G83" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H81" s="70" t="s">
+      <c r="H83" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I81" s="115" t="s">
+      <c r="I83" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J81" s="115" t="s">
+      <c r="J83" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K81" s="115" t="s">
+      <c r="K83" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L81" s="78" t="str">
-        <f>"create table "&amp;D80&amp;"("</f>
+      <c r="L83" s="78" t="str">
+        <f>"create table "&amp;D82&amp;"("</f>
         <v>create table GOODS(</v>
       </c>
-      <c r="N81" s="78" t="s">
+      <c r="N83" s="78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
-      <c r="B82" s="96">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B84" s="96">
         <v>1</v>
       </c>
-      <c r="C82" s="90" t="s">
+      <c r="C84" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="D82" s="53" t="str">
-        <f>"번호 ("&amp;D80&amp;"_SEQ.nextval)"</f>
+      <c r="D84" s="53" t="str">
+        <f>"번호 ("&amp;D82&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SEQ.nextval)</v>
       </c>
-      <c r="E82" s="90" t="s">
+      <c r="E84" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="F82" s="96"/>
-      <c r="G82" s="96"/>
-      <c r="H82" s="96"/>
-      <c r="I82" s="96" t="s">
+      <c r="F84" s="96"/>
+      <c r="G84" s="96"/>
+      <c r="H84" s="96"/>
+      <c r="I84" s="96" t="s">
         <v>205</v>
       </c>
-      <c r="J82" s="96"/>
-      <c r="K82" s="96"/>
-      <c r="L82" s="78" t="str">
-        <f t="shared" ref="L82:L87" si="10">C82&amp;" "&amp;E82&amp;IF(E82="varchar2","("&amp;F82&amp;")","")&amp;IF(J82="",""," default "&amp;J82)&amp;IF(G82="",""," "&amp;G82)&amp;IF(H82="",""," unique")&amp;IF(I82="",""," primary key")&amp;","</f>
+      <c r="J84" s="96"/>
+      <c r="K84" s="96"/>
+      <c r="L84" s="78" t="str">
+        <f t="shared" ref="L84:L89" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N82" s="78" t="s">
+      <c r="N84" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="121" customFormat="1">
-      <c r="B83" s="122">
+    <row r="85" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="119">
         <v>2</v>
       </c>
-      <c r="C83" s="123" t="s">
+      <c r="C85" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="D83" s="123" t="s">
+      <c r="D85" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="E83" s="123" t="s">
+      <c r="E85" s="120" t="s">
         <v>135</v>
       </c>
-      <c r="F83" s="122">
+      <c r="F85" s="119">
         <v>100</v>
       </c>
-      <c r="G83" s="122"/>
-      <c r="H83" s="122"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="122"/>
-      <c r="L83" s="78" t="str">
-        <f t="shared" si="10"/>
+      <c r="G85" s="119"/>
+      <c r="H85" s="119"/>
+      <c r="I85" s="119"/>
+      <c r="J85" s="119"/>
+      <c r="K85" s="119"/>
+      <c r="L85" s="78" t="str">
+        <f t="shared" si="8"/>
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
-      <c r="B84" s="122">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B86" s="119">
         <v>3</v>
       </c>
-      <c r="C84" s="91" t="s">
-        <v>420</v>
-      </c>
-      <c r="D84" s="91" t="s">
+      <c r="C86" s="91" t="s">
+        <v>417</v>
+      </c>
+      <c r="D86" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="E84" s="91" t="s">
+      <c r="E86" s="91" t="s">
         <v>135</v>
       </c>
-      <c r="F84" s="114">
+      <c r="F86" s="114">
         <v>100</v>
       </c>
-      <c r="G84" s="114" t="s">
+      <c r="G86" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="H84" s="114"/>
-      <c r="I84" s="114"/>
-      <c r="J84" s="114"/>
-      <c r="K84" s="114"/>
-      <c r="L84" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODSNAME varchar2(100) not null,</v>
-      </c>
-      <c r="N84" s="78" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="B85" s="122">
-        <v>4</v>
-      </c>
-      <c r="C85" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F85" s="114">
-        <v>100</v>
-      </c>
-      <c r="G85" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H85" s="114"/>
-      <c r="I85" s="114"/>
-      <c r="J85" s="114"/>
-      <c r="K85" s="114"/>
-      <c r="L85" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>CONTENT varchar2(100) not null,</v>
-      </c>
-      <c r="N85" s="78" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="B86" s="122">
-        <v>5</v>
-      </c>
-      <c r="C86" s="91" t="s">
-        <v>143</v>
-      </c>
-      <c r="D86" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E86" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" s="114"/>
-      <c r="G86" s="114"/>
       <c r="H86" s="114"/>
       <c r="I86" s="114"/>
-      <c r="J86" s="114">
-        <v>0</v>
-      </c>
+      <c r="J86" s="114"/>
       <c r="K86" s="114"/>
       <c r="L86" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>GOODSNAME varchar2(100) not null,</v>
+      </c>
+      <c r="N86" s="78" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B87" s="119">
+        <v>4</v>
+      </c>
+      <c r="C87" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="114">
+        <v>100</v>
+      </c>
+      <c r="G87" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="114"/>
+      <c r="I87" s="114"/>
+      <c r="J87" s="114"/>
+      <c r="K87" s="114"/>
+      <c r="L87" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>CONTENT varchar2(100) not null,</v>
+      </c>
+      <c r="N87" s="78" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B88" s="119">
+        <v>5</v>
+      </c>
+      <c r="C88" s="91" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114">
+        <v>0</v>
+      </c>
+      <c r="K88" s="114"/>
+      <c r="L88" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>PRICE number default 0,</v>
+      </c>
+      <c r="N88" s="78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B89" s="119">
+        <v>6</v>
+      </c>
+      <c r="C89" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E89" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="121">
+        <v>10</v>
+      </c>
+      <c r="G89" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="121"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K89" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L89" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B90" s="119">
+        <v>7</v>
+      </c>
+      <c r="C90" s="91" t="s">
+        <v>424</v>
+      </c>
+      <c r="D90" s="91" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="123"/>
+      <c r="G90" s="123"/>
+      <c r="H90" s="123"/>
+      <c r="I90" s="123"/>
+      <c r="J90" s="122">
+        <v>20</v>
+      </c>
+      <c r="K90" s="123"/>
+      <c r="L90" s="78" t="str">
+        <f>C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")</f>
+        <v>STOCK number default 20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L91" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N91" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A92" s="78">
+        <v>10</v>
+      </c>
+      <c r="B92" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="165"/>
+      <c r="D92" s="166" t="s">
+        <v>270</v>
+      </c>
+      <c r="E92" s="167"/>
+      <c r="F92" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" s="166" t="s">
+        <v>389</v>
+      </c>
+      <c r="H92" s="168"/>
+      <c r="I92" s="168"/>
+      <c r="J92" s="168"/>
+      <c r="K92" s="167"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B93" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E93" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H93" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I93" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J93" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K93" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L93" s="78" t="str">
+        <f>"create table "&amp;D92&amp;"("</f>
+        <v>create table GOODS_IMAGE(</v>
+      </c>
+      <c r="N93" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B94" s="110">
+        <v>1</v>
+      </c>
+      <c r="C94" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D94" s="53" t="str">
+        <f>"번호 ("&amp;D92&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="F94" s="110"/>
+      <c r="G94" s="110"/>
+      <c r="H94" s="110"/>
+      <c r="I94" s="110" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" s="110"/>
+      <c r="K94" s="67"/>
+      <c r="L94" s="78" t="str">
+        <f t="shared" ref="L94:L95" si="9">C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N94" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B95" s="73">
+        <v>2</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="E95" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="73">
+        <v>100</v>
+      </c>
+      <c r="G95" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="H95" s="73"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="73"/>
+      <c r="K95" s="74" t="s">
+        <v>271</v>
+      </c>
+      <c r="L95" s="78" t="str">
+        <f t="shared" si="9"/>
+        <v>GOODSCODE varchar2(100) not null,</v>
+      </c>
+      <c r="N95" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O95" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C95&amp;") references "&amp;K95</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B96" s="54">
+        <v>3</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="E96" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F96" s="54">
+        <v>100</v>
+      </c>
+      <c r="G96" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="54"/>
+      <c r="K96" s="55"/>
+      <c r="L96" s="78" t="str">
+        <f>C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")</f>
+        <v>SAVENAME varchar2(100) not null</v>
+      </c>
+      <c r="N96" s="78" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K97" s="108"/>
+      <c r="L97" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N97" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A98" s="78">
+        <v>11</v>
+      </c>
+      <c r="B98" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="175"/>
+      <c r="D98" s="174" t="s">
+        <v>411</v>
+      </c>
+      <c r="E98" s="174"/>
+      <c r="F98" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="G98" s="174" t="s">
+        <v>389</v>
+      </c>
+      <c r="H98" s="174"/>
+      <c r="I98" s="174"/>
+      <c r="J98" s="174"/>
+      <c r="K98" s="174"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B99" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C99" s="113" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F99" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="G99" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" s="113" t="s">
+        <v>395</v>
+      </c>
+      <c r="I99" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="J99" s="113" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="78" t="str">
+        <f>"create table "&amp;D98&amp;"("</f>
+        <v>create table GOODS_SALES(</v>
+      </c>
+      <c r="N99" s="78" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B100" s="114">
+        <v>1</v>
+      </c>
+      <c r="C100" s="90" t="s">
+        <v>131</v>
+      </c>
+      <c r="D100" s="53" t="str">
+        <f>"번호 ("&amp;D98&amp;"_SEQ.nextval)"</f>
+        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
+      </c>
+      <c r="E100" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="F100" s="114"/>
+      <c r="G100" s="114"/>
+      <c r="H100" s="114"/>
+      <c r="I100" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="114"/>
+      <c r="K100" s="91"/>
+      <c r="L100" s="78" t="str">
+        <f t="shared" ref="L100:L103" si="10">C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N100" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B101" s="93">
+        <v>2</v>
+      </c>
+      <c r="C101" s="92" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E101" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="93">
+        <v>100</v>
+      </c>
+      <c r="G101" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H101" s="93"/>
+      <c r="I101" s="93"/>
+      <c r="J101" s="93"/>
+      <c r="K101" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="L101" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>PRICE number default 0,</v>
-      </c>
-      <c r="N86" s="78" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="B87" s="122">
-        <v>6</v>
-      </c>
-      <c r="C87" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="91" t="s">
-        <v>419</v>
-      </c>
-      <c r="E87" s="91" t="s">
+        <v>GOODSCODE varchar2(100) not null,</v>
+      </c>
+      <c r="N101" s="78" t="s">
+        <v>345</v>
+      </c>
+      <c r="O101" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C101&amp;") references "&amp;K101</f>
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B102" s="93">
+        <v>3</v>
+      </c>
+      <c r="C102" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D102" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E102" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="93">
+        <v>20</v>
+      </c>
+      <c r="G102" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H102" s="93"/>
+      <c r="I102" s="93"/>
+      <c r="J102" s="93"/>
+      <c r="K102" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="L102" s="78" t="str">
+        <f t="shared" si="10"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N102" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O102" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C102&amp;") references "&amp;K102</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B103" s="114">
         <v>4</v>
       </c>
-      <c r="F87" s="124">
-        <v>10</v>
-      </c>
-      <c r="G87" s="124" t="s">
+      <c r="C103" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E103" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="117"/>
+      <c r="G103" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H87" s="124"/>
-      <c r="I87" s="124"/>
-      <c r="J87" s="125" t="s">
-        <v>421</v>
-      </c>
-      <c r="K87" s="124" t="s">
-        <v>422</v>
-      </c>
-      <c r="L87" s="78" t="str">
+      <c r="H103" s="104"/>
+      <c r="I103" s="117"/>
+      <c r="J103" s="117"/>
+      <c r="K103" s="109"/>
+      <c r="L103" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>HEART varchar2(10) default 'NO' not null,</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="B88" s="122">
-        <v>7</v>
-      </c>
-      <c r="C88" s="91" t="s">
-        <v>426</v>
-      </c>
-      <c r="D88" s="91" t="s">
-        <v>427</v>
-      </c>
-      <c r="E88" s="91" t="s">
+        <v>SALES number not null,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B104" s="114">
+        <v>5</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="E104" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" s="114"/>
+      <c r="G104" s="104"/>
+      <c r="H104" s="104"/>
+      <c r="I104" s="114"/>
+      <c r="J104" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="91"/>
+      <c r="L104" s="78" t="str">
+        <f>C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")</f>
+        <v>ORDERDATE date default sysdate</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L105" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="N105" s="78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A106" s="78">
+        <v>12</v>
+      </c>
+      <c r="B106" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C106" s="165"/>
+      <c r="D106" s="166" t="s">
+        <v>276</v>
+      </c>
+      <c r="E106" s="167"/>
+      <c r="F106" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G106" s="166" t="s">
+        <v>389</v>
+      </c>
+      <c r="H106" s="168"/>
+      <c r="I106" s="168"/>
+      <c r="J106" s="168"/>
+      <c r="K106" s="167"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B107" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C107" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F107" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>288</v>
+      </c>
+      <c r="H107" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="I107" s="70" t="s">
+        <v>201</v>
+      </c>
+      <c r="J107" s="70" t="s">
+        <v>202</v>
+      </c>
+      <c r="K107" s="70" t="s">
+        <v>203</v>
+      </c>
+      <c r="L107" s="78" t="str">
+        <f>"create table "&amp;D106&amp;"("</f>
+        <v>create table ASSATALK(</v>
+      </c>
+      <c r="N107" s="78" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B108" s="54">
+        <v>1</v>
+      </c>
+      <c r="C108" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="53" t="str">
+        <f>"번호 ("&amp;D106&amp;"_SEQ.nextval)"</f>
+        <v>번호 (ASSATALK_SEQ.nextval)</v>
+      </c>
+      <c r="E108" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="54"/>
+      <c r="I108" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" s="54"/>
+      <c r="K108" s="55"/>
+      <c r="L108" s="78" t="str">
+        <f t="shared" ref="L108:L111" si="11">C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N108" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B109" s="54">
         <v>2</v>
       </c>
-      <c r="F88" s="126"/>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="125">
-        <v>20</v>
-      </c>
-      <c r="K88" s="126"/>
-      <c r="L88" s="78" t="str">
-        <f>C88&amp;" "&amp;E88&amp;IF(E88="varchar2","("&amp;F88&amp;")","")&amp;IF(J88="",""," default "&amp;J88)&amp;IF(G88="",""," "&amp;G88)&amp;IF(H88="",""," unique")&amp;IF(I88="",""," primary key")</f>
-        <v>STORAGE number default 20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="L89" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N89" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="78">
-        <v>10</v>
-      </c>
-      <c r="B90" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="C90" s="168"/>
-      <c r="D90" s="169" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" s="170"/>
-      <c r="F90" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G90" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="171"/>
-      <c r="K90" s="170"/>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="B91" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C91" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D91" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F91" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H91" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I91" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J91" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K91" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L91" s="78" t="str">
-        <f>"create table "&amp;D90&amp;"("</f>
-        <v>create table GOODS_IMAGE(</v>
-      </c>
-      <c r="N91" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="B92" s="110">
-        <v>1</v>
-      </c>
-      <c r="C92" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="53" t="str">
-        <f>"번호 ("&amp;D90&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
-      </c>
-      <c r="E92" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="110"/>
-      <c r="G92" s="110"/>
-      <c r="H92" s="110"/>
-      <c r="I92" s="110" t="s">
-        <v>205</v>
-      </c>
-      <c r="J92" s="110"/>
-      <c r="K92" s="67"/>
-      <c r="L92" s="78" t="str">
-        <f t="shared" ref="L92:L93" si="11">C92&amp;" "&amp;E92&amp;IF(E92="varchar2","("&amp;F92&amp;")","")&amp;IF(J92="",""," default "&amp;J92)&amp;IF(G92="",""," "&amp;G92)&amp;IF(H92="",""," unique")&amp;IF(I92="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N92" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="B93" s="73">
-        <v>2</v>
-      </c>
-      <c r="C93" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="D93" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F93" s="73">
-        <v>100</v>
-      </c>
-      <c r="G93" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="H93" s="73"/>
-      <c r="I93" s="73"/>
-      <c r="J93" s="73"/>
-      <c r="K93" s="74" t="s">
-        <v>271</v>
-      </c>
-      <c r="L93" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N93" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O93" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C93&amp;") references "&amp;K93</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="B94" s="54">
-        <v>3</v>
-      </c>
-      <c r="C94" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F94" s="54">
-        <v>100</v>
-      </c>
-      <c r="G94" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="55"/>
-      <c r="L94" s="78" t="str">
-        <f>C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")</f>
-        <v>SAVENAME varchar2(100) not null</v>
-      </c>
-      <c r="N94" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
-      <c r="K95" s="108"/>
-      <c r="L95" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N95" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="78">
-        <v>11</v>
-      </c>
-      <c r="B96" s="178" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="178"/>
-      <c r="D96" s="177" t="s">
-        <v>414</v>
-      </c>
-      <c r="E96" s="177"/>
-      <c r="F96" s="113" t="s">
-        <v>286</v>
-      </c>
-      <c r="G96" s="177" t="s">
-        <v>389</v>
-      </c>
-      <c r="H96" s="177"/>
-      <c r="I96" s="177"/>
-      <c r="J96" s="177"/>
-      <c r="K96" s="177"/>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="B97" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="113" t="s">
-        <v>287</v>
-      </c>
-      <c r="D97" s="113" t="s">
-        <v>198</v>
-      </c>
-      <c r="E97" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F97" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="G97" s="113" t="s">
-        <v>288</v>
-      </c>
-      <c r="H97" s="113" t="s">
-        <v>395</v>
-      </c>
-      <c r="I97" s="113" t="s">
-        <v>201</v>
-      </c>
-      <c r="J97" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="K97" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="L97" s="78" t="str">
-        <f>"create table "&amp;D96&amp;"("</f>
-        <v>create table GOODS_SALES(</v>
-      </c>
-      <c r="N97" s="78" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="B98" s="114">
-        <v>1</v>
-      </c>
-      <c r="C98" s="90" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="53" t="str">
-        <f>"번호 ("&amp;D96&amp;"_SEQ.nextval)"</f>
-        <v>번호 (GOODS_SALES_SEQ.nextval)</v>
-      </c>
-      <c r="E98" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F98" s="114"/>
-      <c r="G98" s="114"/>
-      <c r="H98" s="114"/>
-      <c r="I98" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="J98" s="114"/>
-      <c r="K98" s="91"/>
-      <c r="L98" s="78" t="str">
-        <f t="shared" ref="L98:L101" si="12">C98&amp;" "&amp;E98&amp;IF(E98="varchar2","("&amp;F98&amp;")","")&amp;IF(J98="",""," default "&amp;J98)&amp;IF(G98="",""," "&amp;G98)&amp;IF(H98="",""," unique")&amp;IF(I98="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N98" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="B99" s="93">
-        <v>2</v>
-      </c>
-      <c r="C99" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E99" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F99" s="93">
-        <v>100</v>
-      </c>
-      <c r="G99" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H99" s="93"/>
-      <c r="I99" s="93"/>
-      <c r="J99" s="93"/>
-      <c r="K99" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L99" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N99" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O99" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C99&amp;") references "&amp;K99</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="B100" s="93">
-        <v>3</v>
-      </c>
-      <c r="C100" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D100" s="92" t="s">
-        <v>379</v>
-      </c>
-      <c r="E100" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F100" s="93">
-        <v>20</v>
-      </c>
-      <c r="G100" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H100" s="93"/>
-      <c r="I100" s="93"/>
-      <c r="J100" s="93"/>
-      <c r="K100" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="L100" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N100" s="78" t="s">
-        <v>332</v>
-      </c>
-      <c r="O100" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C100&amp;") references "&amp;K100</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="B101" s="114">
-        <v>4</v>
-      </c>
-      <c r="C101" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E101" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F101" s="117"/>
-      <c r="G101" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="104"/>
-      <c r="I101" s="117"/>
-      <c r="J101" s="117"/>
-      <c r="K101" s="109"/>
-      <c r="L101" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>SALES number not null,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="B102" s="114">
-        <v>5</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>383</v>
-      </c>
-      <c r="D102" s="91" t="s">
-        <v>381</v>
-      </c>
-      <c r="E102" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="F102" s="114"/>
-      <c r="G102" s="104"/>
-      <c r="H102" s="104"/>
-      <c r="I102" s="114"/>
-      <c r="J102" s="114" t="s">
-        <v>27</v>
-      </c>
-      <c r="K102" s="91"/>
-      <c r="L102" s="78" t="str">
-        <f>C102&amp;" "&amp;E102&amp;IF(E102="varchar2","("&amp;F102&amp;")","")&amp;IF(J102="",""," default "&amp;J102)&amp;IF(G102="",""," "&amp;G102)&amp;IF(H102="",""," unique")&amp;IF(I102="",""," primary key")</f>
-        <v>ORDERDATE date default sysdate</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="L103" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="N103" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="78">
-        <v>12</v>
-      </c>
-      <c r="B104" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="C104" s="168"/>
-      <c r="D104" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="170"/>
-      <c r="F104" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="G104" s="169" t="s">
-        <v>389</v>
-      </c>
-      <c r="H104" s="171"/>
-      <c r="I104" s="171"/>
-      <c r="J104" s="171"/>
-      <c r="K104" s="170"/>
-    </row>
-    <row r="105" spans="1:15">
-      <c r="B105" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>287</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="E105" s="70" t="s">
-        <v>199</v>
-      </c>
-      <c r="F105" s="70" t="s">
-        <v>200</v>
-      </c>
-      <c r="G105" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="H105" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="I105" s="70" t="s">
-        <v>201</v>
-      </c>
-      <c r="J105" s="70" t="s">
-        <v>202</v>
-      </c>
-      <c r="K105" s="70" t="s">
-        <v>203</v>
-      </c>
-      <c r="L105" s="78" t="str">
-        <f>"create table "&amp;D104&amp;"("</f>
-        <v>create table ASSATALK(</v>
-      </c>
-      <c r="N105" s="78" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
-      <c r="B106" s="54">
-        <v>1</v>
-      </c>
-      <c r="C106" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D106" s="53" t="str">
-        <f>"번호 ("&amp;D104&amp;"_SEQ.nextval)"</f>
-        <v>번호 (ASSATALK_SEQ.nextval)</v>
-      </c>
-      <c r="E106" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="J106" s="54"/>
-      <c r="K106" s="55"/>
-      <c r="L106" s="78" t="str">
-        <f t="shared" ref="L106:L109" si="13">C106&amp;" "&amp;E106&amp;IF(E106="varchar2","("&amp;F106&amp;")","")&amp;IF(J106="",""," default "&amp;J106)&amp;IF(G106="",""," "&amp;G106)&amp;IF(H106="",""," unique")&amp;IF(I106="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N106" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
-      <c r="B107" s="54">
-        <v>2</v>
-      </c>
-      <c r="C107" s="55" t="s">
+      <c r="C109" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D109" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="E107" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F107" s="54">
-        <v>20</v>
-      </c>
-      <c r="G107" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H107" s="54"/>
-      <c r="I107" s="54"/>
-      <c r="J107" s="54"/>
-      <c r="K107" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L107" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>SPEAKER varchar2(20) not null,</v>
-      </c>
-      <c r="N107" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
-      <c r="B108" s="54">
-        <v>3</v>
-      </c>
-      <c r="C108" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D108" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E108" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F108" s="54">
-        <v>20</v>
-      </c>
-      <c r="G108" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54"/>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L108" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>LISTENER varchar2(20) not null,</v>
-      </c>
-      <c r="N108" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
-      <c r="B109" s="54">
-        <v>4</v>
-      </c>
-      <c r="C109" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>140</v>
       </c>
       <c r="E109" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F109" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G109" s="54" t="s">
         <v>139</v>
@@ -11417,424 +11406,422 @@
       <c r="H109" s="54"/>
       <c r="I109" s="54"/>
       <c r="J109" s="54"/>
-      <c r="K109" s="55"/>
+      <c r="K109" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L109" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <f t="shared" si="11"/>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N109" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B110" s="54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C110" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" s="55" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="E110" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F110" s="54"/>
-      <c r="G110" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F110" s="54">
+        <v>20</v>
+      </c>
+      <c r="G110" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H110" s="54"/>
       <c r="I110" s="54"/>
-      <c r="J110" s="54" t="s">
+      <c r="J110" s="54"/>
+      <c r="K110" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="L110" s="78" t="str">
+        <f t="shared" si="11"/>
+        <v>LISTENER varchar2(20) not null,</v>
+      </c>
+      <c r="N110" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B111" s="54">
+        <v>4</v>
+      </c>
+      <c r="C111" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="E111" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F111" s="54">
+        <v>200</v>
+      </c>
+      <c r="G111" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="55"/>
+      <c r="L111" s="78" t="str">
+        <f t="shared" si="11"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N111" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B112" s="54">
+        <v>5</v>
+      </c>
+      <c r="C112" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D112" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E112" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F112" s="54"/>
+      <c r="G112" s="54"/>
+      <c r="H112" s="54"/>
+      <c r="I112" s="54"/>
+      <c r="J112" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="K110" s="55"/>
-      <c r="L110" s="78" t="str">
-        <f>C110&amp;" "&amp;E110&amp;IF(E110="varchar2","("&amp;F110&amp;")","")&amp;IF(J110="",""," default "&amp;J110)&amp;IF(G110="",""," "&amp;G110)&amp;IF(H110="",""," unique")&amp;IF(I110="",""," primary key")</f>
+      <c r="K112" s="55"/>
+      <c r="L112" s="78" t="str">
+        <f>C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N110" s="78" t="s">
+      <c r="N112" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
-      <c r="L111" s="78" t="s">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L113" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N111" s="78" t="s">
+      <c r="N113" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
-      <c r="A112" s="78">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A114" s="78">
         <v>13</v>
       </c>
-      <c r="B112" s="167" t="s">
+      <c r="B114" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C112" s="168"/>
-      <c r="D112" s="169" t="s">
-        <v>407</v>
-      </c>
-      <c r="E112" s="170"/>
-      <c r="F112" s="70" t="s">
+      <c r="C114" s="165"/>
+      <c r="D114" s="166" t="s">
+        <v>404</v>
+      </c>
+      <c r="E114" s="167"/>
+      <c r="F114" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G112" s="169" t="s">
+      <c r="G114" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H112" s="171"/>
-      <c r="I112" s="171"/>
-      <c r="J112" s="171"/>
-      <c r="K112" s="170"/>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="B113" s="70" t="s">
+      <c r="H114" s="168"/>
+      <c r="I114" s="168"/>
+      <c r="J114" s="168"/>
+      <c r="K114" s="167"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B115" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C113" s="70" t="s">
+      <c r="C115" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D113" s="70" t="s">
+      <c r="D115" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E113" s="70" t="s">
+      <c r="E115" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F113" s="70" t="s">
+      <c r="F115" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="70" t="s">
+      <c r="G115" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H113" s="70" t="s">
+      <c r="H115" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I113" s="70" t="s">
+      <c r="I115" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J113" s="70" t="s">
+      <c r="J115" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K113" s="70" t="s">
+      <c r="K115" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L113" s="78" t="str">
-        <f>"create table "&amp;D112&amp;"("</f>
+      <c r="L115" s="78" t="str">
+        <f>"create table "&amp;D114&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N113" s="78" t="s">
+      <c r="N115" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
-      <c r="B114" s="54">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B116" s="54">
         <v>1</v>
       </c>
-      <c r="C114" s="53" t="s">
+      <c r="C116" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D114" s="53" t="str">
-        <f>"번호 ("&amp;D112&amp;"_SEQ.nextval)"</f>
+      <c r="D116" s="53" t="str">
+        <f>"번호 ("&amp;D114&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
       </c>
-      <c r="E114" s="53" t="s">
+      <c r="E116" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F114" s="54"/>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54" t="s">
+      <c r="F116" s="54"/>
+      <c r="G116" s="54"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J114" s="54"/>
-      <c r="K114" s="55"/>
-      <c r="L114" s="78" t="str">
-        <f t="shared" ref="L114:L116" si="14">C114&amp;" "&amp;E114&amp;IF(E114="varchar2","("&amp;F114&amp;")","")&amp;IF(J114="",""," default "&amp;J114)&amp;IF(G114="",""," "&amp;G114)&amp;IF(H114="",""," unique")&amp;IF(I114="",""," primary key")&amp;","</f>
+      <c r="J116" s="54"/>
+      <c r="K116" s="55"/>
+      <c r="L116" s="78" t="str">
+        <f t="shared" ref="L116:L118" si="12">C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N114" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
-      <c r="B115" s="54">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B117" s="54">
         <v>2</v>
       </c>
-      <c r="C115" s="55" t="s">
-        <v>411</v>
-      </c>
-      <c r="D115" s="55" t="s">
+      <c r="C117" s="55" t="s">
         <v>408</v>
       </c>
-      <c r="E115" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" s="54">
-        <v>20</v>
-      </c>
-      <c r="G115" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="55"/>
-      <c r="L115" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>KEYWORD varchar2(20) not null unique,</v>
-      </c>
-      <c r="N115" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="32">
-      <c r="B116" s="54">
-        <v>3</v>
-      </c>
-      <c r="C116" s="55" t="s">
-        <v>412</v>
-      </c>
-      <c r="D116" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="E116" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F116" s="54">
-        <v>20</v>
-      </c>
-      <c r="G116" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55" t="s">
-        <v>413</v>
-      </c>
-      <c r="L116" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="B117" s="54">
-        <v>5</v>
-      </c>
-      <c r="C117" s="55" t="s">
-        <v>122</v>
-      </c>
       <c r="D117" s="55" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E117" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G117" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="H117" s="54"/>
+      <c r="H117" s="54" t="s">
+        <v>396</v>
+      </c>
       <c r="I117" s="54"/>
       <c r="J117" s="54"/>
       <c r="K117" s="55"/>
       <c r="L117" s="78" t="str">
-        <f>C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")</f>
+        <f t="shared" si="12"/>
+        <v>KEYWORD varchar2(20) not null unique,</v>
+      </c>
+      <c r="N117" s="78" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+      <c r="B118" s="54">
+        <v>3</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>409</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>406</v>
+      </c>
+      <c r="E118" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="54">
+        <v>20</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="55" t="s">
+        <v>410</v>
+      </c>
+      <c r="L118" s="78" t="str">
+        <f t="shared" si="12"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N118" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B119" s="54">
+        <v>5</v>
+      </c>
+      <c r="C119" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E119" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G119" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="55"/>
+      <c r="L119" s="78" t="str">
+        <f>C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N119" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
-      <c r="L118" s="78" t="s">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L120" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N118" s="78" t="s">
+      <c r="N120" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="78">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A121" s="78">
         <v>14</v>
       </c>
-      <c r="B119" s="176" t="s">
+      <c r="B121" s="173" t="s">
         <v>189</v>
       </c>
-      <c r="C119" s="176"/>
-      <c r="D119" s="177" t="s">
+      <c r="C121" s="173"/>
+      <c r="D121" s="174" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="177"/>
-      <c r="F119" s="115" t="s">
+      <c r="E121" s="174"/>
+      <c r="F121" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G119" s="177" t="s">
+      <c r="G121" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="H119" s="177"/>
-      <c r="I119" s="177"/>
-      <c r="J119" s="177"/>
-      <c r="K119" s="177"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="B120" s="115" t="s">
+      <c r="H121" s="174"/>
+      <c r="I121" s="174"/>
+      <c r="J121" s="174"/>
+      <c r="K121" s="174"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B122" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C120" s="115" t="s">
+      <c r="C122" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D120" s="115" t="s">
+      <c r="D122" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E120" s="115" t="s">
+      <c r="E122" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F120" s="115" t="s">
+      <c r="F122" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G120" s="115" t="s">
+      <c r="G122" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H120" s="70" t="s">
+      <c r="H122" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I120" s="115" t="s">
+      <c r="I122" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J120" s="115" t="s">
+      <c r="J122" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K120" s="115" t="s">
+      <c r="K122" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L120" s="78" t="str">
-        <f>"create table "&amp;D119&amp;"("</f>
+      <c r="L122" s="78" t="str">
+        <f>"create table "&amp;D121&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N120" s="78" t="s">
+      <c r="N122" s="78" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
-      <c r="B121" s="114">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B123" s="114">
         <v>1</v>
       </c>
-      <c r="C121" s="90" t="s">
+      <c r="C123" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="53" t="str">
-        <f>"번호 ("&amp;D119&amp;"_SEQ.nextval)"</f>
+      <c r="D123" s="53" t="str">
+        <f>"번호 ("&amp;D121&amp;"_SEQ.nextval)"</f>
         <v>번호 (QUESTION_SEQ.nextval)</v>
       </c>
-      <c r="E121" s="90" t="s">
+      <c r="E123" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F121" s="114"/>
-      <c r="G121" s="114"/>
-      <c r="H121" s="114"/>
-      <c r="I121" s="114" t="s">
+      <c r="F123" s="114"/>
+      <c r="G123" s="114"/>
+      <c r="H123" s="114"/>
+      <c r="I123" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J121" s="114"/>
-      <c r="K121" s="91"/>
-      <c r="L121" s="78" t="str">
-        <f t="shared" ref="L121:L127" si="15">C121&amp;" "&amp;E121&amp;IF(E121="varchar2","("&amp;F121&amp;")","")&amp;IF(J121="",""," default "&amp;J121)&amp;IF(G121="",""," "&amp;G121)&amp;IF(H121="",""," unique")&amp;IF(I121="",""," primary key")&amp;","</f>
+      <c r="J123" s="114"/>
+      <c r="K123" s="91"/>
+      <c r="L123" s="78" t="str">
+        <f t="shared" ref="L123:L129" si="13">C123&amp;" "&amp;E123&amp;IF(E123="varchar2","("&amp;F123&amp;")","")&amp;IF(J123="",""," default "&amp;J123)&amp;IF(G123="",""," "&amp;G123)&amp;IF(H123="",""," unique")&amp;IF(I123="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N121" s="78" t="s">
+      <c r="N123" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
-      <c r="B122" s="114">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B124" s="114">
         <v>2</v>
       </c>
-      <c r="C122" s="91" t="s">
+      <c r="C124" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="D122" s="91" t="s">
-        <v>260</v>
-      </c>
-      <c r="E122" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F122" s="114">
-        <v>20</v>
-      </c>
-      <c r="G122" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H122" s="114"/>
-      <c r="I122" s="114"/>
-      <c r="J122" s="114"/>
-      <c r="K122" s="91"/>
-      <c r="L122" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ASKTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N122" s="78" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="B123" s="114">
-        <v>3</v>
-      </c>
-      <c r="C123" s="94" t="s">
-        <v>153</v>
-      </c>
-      <c r="D123" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="E123" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F123" s="95">
-        <v>20</v>
-      </c>
-      <c r="G123" s="95" t="s">
-        <v>139</v>
-      </c>
-      <c r="H123" s="95"/>
-      <c r="I123" s="95"/>
-      <c r="J123" s="95"/>
-      <c r="K123" s="94" t="s">
-        <v>388</v>
-      </c>
-      <c r="L123" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>NICKNAME varchar2(20) not null,</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="O123" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C123&amp;") references "&amp;K123</f>
-        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="B124" s="114">
-        <v>4</v>
-      </c>
-      <c r="C124" s="91" t="s">
-        <v>232</v>
-      </c>
       <c r="D124" s="91" t="s">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="E124" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F124" s="114">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G124" s="114" t="s">
         <v>139</v>
@@ -11844,443 +11831,511 @@
       <c r="J124" s="114"/>
       <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>TITLE varchar2(50) not null,</v>
+        <f t="shared" si="13"/>
+        <v>ASKTYPE varchar2(20) not null,</v>
       </c>
       <c r="N124" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B125" s="114">
-        <v>5</v>
-      </c>
-      <c r="C125" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D125" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="94" t="s">
+        <v>153</v>
+      </c>
+      <c r="D125" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="E125" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G125" s="114" t="s">
+      <c r="F125" s="95">
+        <v>20</v>
+      </c>
+      <c r="G125" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="114"/>
-      <c r="I125" s="114"/>
-      <c r="J125" s="114"/>
-      <c r="K125" s="91"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="95"/>
+      <c r="J125" s="95"/>
+      <c r="K125" s="94" t="s">
+        <v>388</v>
+      </c>
       <c r="L125" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <f t="shared" si="13"/>
+        <v>NICKNAME varchar2(20) not null,</v>
       </c>
       <c r="N125" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="32">
+        <v>303</v>
+      </c>
+      <c r="O125" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C125&amp;") references "&amp;K125</f>
+        <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B126" s="114">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126" s="91" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="E126" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F126" s="114">
-        <v>4000</v>
-      </c>
-      <c r="G126" s="114"/>
+        <v>50</v>
+      </c>
+      <c r="G126" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H126" s="114"/>
       <c r="I126" s="114"/>
       <c r="J126" s="114"/>
-      <c r="K126" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K126" s="91"/>
       <c r="L126" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ANSWER varchar2(4000),</v>
+        <f t="shared" si="13"/>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N126" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B127" s="114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" s="91" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="D127" s="91" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="E127" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F127" s="114"/>
-      <c r="G127" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F127" s="114">
+        <v>4000</v>
+      </c>
+      <c r="G127" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H127" s="114"/>
       <c r="I127" s="114"/>
-      <c r="J127" s="114" t="s">
-        <v>157</v>
-      </c>
-      <c r="K127" s="91" t="s">
-        <v>266</v>
-      </c>
+      <c r="J127" s="114"/>
+      <c r="K127" s="91"/>
       <c r="L127" s="78" t="str">
-        <f t="shared" si="15"/>
-        <v>ASKDATE date default sysdate,</v>
+        <f t="shared" si="13"/>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N127" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.45">
       <c r="B128" s="114">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" s="91" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E128" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F128" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F128" s="114">
+        <v>4000</v>
+      </c>
       <c r="G128" s="114"/>
       <c r="H128" s="114"/>
       <c r="I128" s="114"/>
       <c r="J128" s="114"/>
       <c r="K128" s="91" t="s">
+        <v>365</v>
+      </c>
+      <c r="L128" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ANSWER varchar2(4000),</v>
+      </c>
+      <c r="N128" s="78" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B129" s="114">
+        <v>7</v>
+      </c>
+      <c r="C129" s="91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D129" s="91" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F129" s="114"/>
+      <c r="G129" s="114"/>
+      <c r="H129" s="114"/>
+      <c r="I129" s="114"/>
+      <c r="J129" s="114" t="s">
+        <v>157</v>
+      </c>
+      <c r="K129" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L129" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N129" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B130" s="114">
+        <v>8</v>
+      </c>
+      <c r="C130" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D130" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E130" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F130" s="114"/>
+      <c r="G130" s="114"/>
+      <c r="H130" s="114"/>
+      <c r="I130" s="114"/>
+      <c r="J130" s="114"/>
+      <c r="K130" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L128" s="78" t="str">
-        <f>C128&amp;" "&amp;E128&amp;IF(E128="varchar2","("&amp;F128&amp;")","")&amp;IF(J128="",""," default "&amp;J128)&amp;IF(G128="",""," "&amp;G128)&amp;IF(H128="",""," unique")&amp;IF(I128="",""," primary key")</f>
+      <c r="L130" s="78" t="str">
+        <f>C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N128" s="78" t="s">
+      <c r="N130" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
-      <c r="L129" s="78" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L131" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N129" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="78">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A132" s="78">
         <v>15</v>
       </c>
-      <c r="B130" s="167" t="s">
+      <c r="B132" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="168"/>
-      <c r="D130" s="169" t="s">
+      <c r="C132" s="165"/>
+      <c r="D132" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="E130" s="170"/>
-      <c r="F130" s="70" t="s">
+      <c r="E132" s="167"/>
+      <c r="F132" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G130" s="169" t="s">
+      <c r="G132" s="166" t="s">
         <v>389</v>
       </c>
-      <c r="H130" s="171"/>
-      <c r="I130" s="171"/>
-      <c r="J130" s="171"/>
-      <c r="K130" s="170"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="B131" s="70" t="s">
+      <c r="H132" s="168"/>
+      <c r="I132" s="168"/>
+      <c r="J132" s="168"/>
+      <c r="K132" s="167"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B133" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C131" s="70" t="s">
+      <c r="C133" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D131" s="70" t="s">
+      <c r="D133" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E131" s="70" t="s">
+      <c r="E133" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F131" s="70" t="s">
+      <c r="F133" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G133" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H131" s="70" t="s">
+      <c r="H133" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I131" s="70" t="s">
+      <c r="I133" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J131" s="70" t="s">
+      <c r="J133" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K131" s="70" t="s">
+      <c r="K133" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L131" s="78" t="str">
-        <f>"create table "&amp;D130&amp;"("</f>
+      <c r="L133" s="78" t="str">
+        <f>"create table "&amp;D132&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N133" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
-      <c r="B132" s="54">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B134" s="54">
         <v>1</v>
       </c>
-      <c r="C132" s="53" t="s">
+      <c r="C134" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D132" s="53" t="str">
-        <f>"번호 ("&amp;D130&amp;"_SEQ.nextval)"</f>
+      <c r="D134" s="53" t="str">
+        <f>"번호 ("&amp;D132&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E132" s="53" t="s">
+      <c r="E134" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54" t="s">
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J132" s="54"/>
-      <c r="K132" s="55"/>
-      <c r="L132" s="78" t="str">
-        <f t="shared" ref="L132:L136" si="16">C132&amp;" "&amp;E132&amp;IF(E132="varchar2","("&amp;F132&amp;")","")&amp;IF(J132="",""," default "&amp;J132)&amp;IF(G132="",""," "&amp;G132)&amp;IF(H132="",""," unique")&amp;IF(I132="",""," primary key")&amp;","</f>
+      <c r="J134" s="54"/>
+      <c r="K134" s="55"/>
+      <c r="L134" s="78" t="str">
+        <f t="shared" ref="L134:L138" si="14">C134&amp;" "&amp;E134&amp;IF(E134="varchar2","("&amp;F134&amp;")","")&amp;IF(J134="",""," default "&amp;J134)&amp;IF(G134="",""," "&amp;G134)&amp;IF(H134="",""," unique")&amp;IF(I134="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N132" s="78" t="s">
+      <c r="N134" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
-      <c r="B133" s="54">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B135" s="54">
         <v>2</v>
       </c>
-      <c r="C133" s="82" t="s">
+      <c r="C135" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D133" s="82" t="s">
+      <c r="D135" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E133" s="82" t="s">
+      <c r="E135" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F133" s="83">
+      <c r="F135" s="83">
         <v>20</v>
       </c>
-      <c r="G133" s="83" t="s">
+      <c r="G135" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="85" t="s">
+      <c r="H135" s="83"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="83"/>
+      <c r="K135" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L133" s="78" t="str">
-        <f t="shared" si="16"/>
+      <c r="L135" s="78" t="str">
+        <f t="shared" si="14"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N133" s="78" t="s">
+      <c r="N135" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O133" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C133&amp;") references "&amp;K133</f>
+      <c r="O135" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C135&amp;") references "&amp;K135</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
-      <c r="B134" s="110">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B136" s="110">
         <v>3</v>
       </c>
-      <c r="C134" s="85" t="s">
+      <c r="C136" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D134" s="85" t="s">
+      <c r="D136" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E134" s="85" t="s">
+      <c r="E136" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="84"/>
-      <c r="G134" s="84" t="s">
+      <c r="F136" s="84"/>
+      <c r="G136" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H134" s="84"/>
-      <c r="I134" s="84"/>
-      <c r="J134" s="84"/>
-      <c r="K134" s="85" t="s">
+      <c r="H136" s="84"/>
+      <c r="I136" s="84"/>
+      <c r="J136" s="84"/>
+      <c r="K136" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L134" s="78" t="str">
-        <f t="shared" si="16"/>
+      <c r="L136" s="78" t="str">
+        <f t="shared" si="14"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N134" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O134" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C134&amp;") references "&amp;K134</f>
+      <c r="O136" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
-      <c r="B135" s="54">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B137" s="54">
         <v>4</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C137" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D135" s="55" t="s">
+      <c r="D137" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="55" t="s">
+      <c r="E137" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="54">
+      <c r="F137" s="54">
         <v>30</v>
       </c>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="54"/>
-      <c r="J135" s="54"/>
-      <c r="K135" s="55"/>
-      <c r="L135" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N135" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="B136" s="54">
-        <v>5</v>
-      </c>
-      <c r="C136" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D136" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="E136" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F136" s="54">
-        <v>300</v>
-      </c>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="55"/>
-      <c r="L136" s="78" t="str">
-        <f t="shared" si="16"/>
-        <v>WARNWHY varchar2(300),</v>
-      </c>
-      <c r="N136" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="B137" s="54">
-        <v>6</v>
-      </c>
-      <c r="C137" s="55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D137" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="E137" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
-      <c r="J137" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J137" s="54"/>
       <c r="K137" s="55"/>
       <c r="L137" s="78" t="str">
-        <f>C137&amp;" "&amp;E137&amp;IF(E137="varchar2","("&amp;F137&amp;")","")&amp;IF(J137="",""," default "&amp;J137)&amp;IF(G137="",""," "&amp;G137)&amp;IF(H137="",""," unique")&amp;IF(I137="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>WARNTYPE varchar2(30),</v>
+      </c>
+      <c r="N137" s="78" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B138" s="54">
+        <v>5</v>
+      </c>
+      <c r="C138" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D138" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="E138" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="F138" s="54">
+        <v>300</v>
+      </c>
+      <c r="G138" s="54"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="55"/>
+      <c r="L138" s="78" t="str">
+        <f t="shared" si="14"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N138" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B139" s="54">
+        <v>6</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D139" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F139" s="54"/>
+      <c r="G139" s="54"/>
+      <c r="H139" s="54"/>
+      <c r="I139" s="54"/>
+      <c r="J139" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K139" s="55"/>
+      <c r="L139" s="78" t="str">
+        <f>C139&amp;" "&amp;E139&amp;IF(E139="varchar2","("&amp;F139&amp;")","")&amp;IF(J139="",""," default "&amp;J139)&amp;IF(G139="",""," "&amp;G139)&amp;IF(H139="",""," unique")&amp;IF(I139="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N137" s="78" t="s">
+      <c r="N139" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
-      <c r="L138" s="78" t="s">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="L140" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N138" s="78" t="s">
+      <c r="N140" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:K112"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:K104"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:K80"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:K96"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:K54"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:K132"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:K106"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:K121"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:K98"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:K56"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:K4"/>
@@ -12310,7 +12365,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -12320,19 +12375,19 @@
     <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1">
+    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -12341,11 +12396,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
-        <v>MEMBER_PLUS</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1">
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <v>MEMBER_AUTO</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -12354,136 +12409,136 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$137,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1"/>
-    <row r="17" spans="2:3" hidden="1"/>
-    <row r="18" spans="2:3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12492,53 +12547,53 @@
         <v>create sequence MEMBER_SEQ</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C19" t="str">
         <f>$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C20" t="str">
         <f>$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C21" t="str">
         <f>$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22">
         <f>B18+1</f>
         <v>2</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ref="C22" si="1">$A$1&amp;VLOOKUP(B22,$B$1:$C$15,2,FALSE)&amp;"_SEQ"</f>
-        <v>create sequence MEMBER_PLUS_SEQ</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
+        <v>create sequence MEMBER_AUTO_SEQ</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="str">
         <f t="shared" ref="C24" si="3">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="str">
         <f t="shared" ref="C25" si="4">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" ref="B26" si="5">B22+1</f>
         <v>3</v>
@@ -12548,25 +12603,25 @@
         <v>create sequence MEMBER_ADDR_SEQ</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="str">
         <f t="shared" ref="C27" si="7">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="8">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="str">
         <f t="shared" ref="C29" si="9">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B30">
         <f t="shared" ref="B30" si="10">B26+1</f>
         <v>4</v>
@@ -12576,25 +12631,25 @@
         <v>create sequence POINT_SEQ</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C31" t="str">
         <f t="shared" ref="C31" si="12">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C32" t="str">
         <f t="shared" ref="C32" si="13">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="14">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
         <v>5</v>
@@ -12604,25 +12659,25 @@
         <v>create sequence BOARD_SEQ</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C35" t="str">
         <f t="shared" ref="C35" si="17">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="18">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="19">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38">
         <f t="shared" ref="B38" si="20">B34+1</f>
         <v>6</v>
@@ -12632,25 +12687,25 @@
         <v>create sequence BOARD_REF_SEQ</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" t="str">
         <f t="shared" ref="C39" si="22">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="str">
         <f t="shared" ref="C40" si="23">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="str">
         <f t="shared" ref="C41" si="24">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B42">
         <f t="shared" ref="B42" si="25">B38+1</f>
         <v>7</v>
@@ -12660,25 +12715,25 @@
         <v>create sequence BOARD_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="str">
         <f t="shared" ref="C43" si="27">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C44" t="str">
         <f t="shared" ref="C44" si="28">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="29">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B46">
         <f t="shared" ref="B46" si="30">B42+1</f>
         <v>8</v>
@@ -12688,25 +12743,25 @@
         <v>create sequence BOARD_TERM_SEQ</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="32">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="33">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C49" t="str">
         <f t="shared" ref="C49" si="34">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B50">
         <f t="shared" ref="B50" si="35">B46+1</f>
         <v>9</v>
@@ -12716,25 +12771,25 @@
         <v>create sequence GOODS_SEQ</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C51" t="str">
         <f t="shared" ref="C51" si="37">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C52" t="str">
         <f t="shared" ref="C52" si="38">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C53" t="str">
         <f t="shared" ref="C53" si="39">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B54">
         <f t="shared" ref="B54" si="40">B50+1</f>
         <v>10</v>
@@ -12744,25 +12799,25 @@
         <v>create sequence GOODS_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C55" t="str">
         <f t="shared" ref="C55" si="42">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C56" t="str">
         <f t="shared" ref="C56" si="43">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C57" t="str">
         <f t="shared" ref="C57" si="44">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B58">
         <f t="shared" ref="B58:B74" si="45">B54+1</f>
         <v>11</v>
@@ -12772,25 +12827,25 @@
         <v>create sequence GOODS_SALES_SEQ</v>
       </c>
     </row>
-    <row r="59" spans="2:3">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C59" t="str">
         <f t="shared" ref="C59" si="47">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C60" t="str">
         <f t="shared" ref="C60" si="48">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C61" t="str">
         <f t="shared" ref="C61" si="49">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B62">
         <f t="shared" si="45"/>
         <v>12</v>
@@ -12800,25 +12855,25 @@
         <v>create sequence ASSATALK_SEQ</v>
       </c>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C63" t="str">
         <f t="shared" ref="C63" si="51">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="64" spans="2:3">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C64" t="str">
         <f t="shared" ref="C64" si="52">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C65" t="str">
         <f t="shared" ref="C65" si="53">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B66">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -12828,25 +12883,25 @@
         <v>create sequence ASSATALK_KEYWORD_SEQ</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C67" t="str">
         <f t="shared" ref="C67" si="55">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C68" t="str">
         <f t="shared" ref="C68" si="56">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C69" t="str">
         <f t="shared" ref="C69" si="57">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B70">
         <f t="shared" si="45"/>
         <v>14</v>
@@ -12856,25 +12911,25 @@
         <v>create sequence QUESTION_SEQ</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C71" t="str">
         <f t="shared" ref="C71" si="59">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C72" t="str">
         <f t="shared" ref="C72" si="60">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C73" t="str">
         <f t="shared" ref="C73" si="61">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B74">
         <f t="shared" si="45"/>
         <v>15</v>
@@ -12884,19 +12939,19 @@
         <v>create sequence WARNING_SEQ</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C75" t="str">
         <f t="shared" ref="C75" si="63">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C76" t="str">
         <f t="shared" ref="C76" si="64">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C77" t="str">
         <f t="shared" ref="C77" si="65">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>

--- a/테이블설계/1. 테이블정의서.xlsx
+++ b/테이블설계/1. 테이블정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aa827\Desktop\TEAM\테이블설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF3D9A-0846-4EA2-8A37-E6EB838EEFD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90889C-CB0E-4331-89CC-8F755129EFF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="599" activeTab="2" xr2:uid="{B4850479-1AAE-4A20-BADC-A019768F0BCB}"/>
   </bookViews>
   <sheets>
     <sheet name="211005" sheetId="6" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="441">
   <si>
     <t>fk</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1536,6 +1534,26 @@
   </si>
   <si>
     <t>MEMBER_AUTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGDATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1543,7 +1561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,7 +2276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2631,6 +2649,90 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2652,77 +2754,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2750,51 +2816,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="17" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3120,19 +3141,19 @@
       <selection pane="bottomRight" activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="33.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="59.75" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="59.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28" t="s">
         <v>1</v>
@@ -3148,7 +3169,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="31"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A2" s="32" t="s">
         <v>10</v>
       </c>
@@ -3174,11 +3195,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="134" t="s">
+    <row r="3" spans="1:8" s="4" customFormat="1">
+      <c r="A3" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="128" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -3198,9 +3219,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="135"/>
-      <c r="B4" s="132"/>
+    <row r="4" spans="1:8" s="19" customFormat="1">
+      <c r="A4" s="132"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -3216,9 +3237,9 @@
       <c r="G4" s="18"/>
       <c r="H4" s="37"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="135"/>
-      <c r="B5" s="132"/>
+    <row r="5" spans="1:8">
+      <c r="A5" s="132"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
@@ -3236,9 +3257,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="135"/>
-      <c r="B6" s="132"/>
+    <row r="6" spans="1:8">
+      <c r="A6" s="132"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
@@ -3254,9 +3275,9 @@
       <c r="G6" s="11"/>
       <c r="H6" s="38"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="135"/>
-      <c r="B7" s="132"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="132"/>
+      <c r="B7" s="129"/>
       <c r="C7" s="10" t="s">
         <v>34</v>
       </c>
@@ -3272,9 +3293,9 @@
       <c r="G7" s="11"/>
       <c r="H7" s="38"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="135"/>
-      <c r="B8" s="132"/>
+    <row r="8" spans="1:8">
+      <c r="A8" s="132"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3290,9 +3311,9 @@
       <c r="G8" s="11"/>
       <c r="H8" s="38"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="135"/>
-      <c r="B9" s="132"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="132"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3308,9 +3329,9 @@
       <c r="G9" s="11"/>
       <c r="H9" s="38"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="135"/>
-      <c r="B10" s="132"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="132"/>
+      <c r="B10" s="129"/>
       <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3326,9 +3347,9 @@
       <c r="G10" s="11"/>
       <c r="H10" s="38"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="135"/>
-      <c r="B11" s="132"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="132"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -3344,9 +3365,9 @@
       <c r="G11" s="11"/>
       <c r="H11" s="38"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="135"/>
-      <c r="B12" s="132"/>
+    <row r="12" spans="1:8" s="3" customFormat="1">
+      <c r="A12" s="132"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
@@ -3362,9 +3383,9 @@
       </c>
       <c r="H12" s="38"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="136"/>
-      <c r="B13" s="133"/>
+    <row r="13" spans="1:8" s="3" customFormat="1">
+      <c r="A13" s="133"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="58" t="s">
         <v>163</v>
       </c>
@@ -3380,11 +3401,11 @@
       </c>
       <c r="H13" s="65"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="137" t="s">
+    <row r="14" spans="1:8" s="4" customFormat="1">
+      <c r="A14" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="139" t="s">
+      <c r="B14" s="136" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3407,9 +3428,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="137"/>
-      <c r="B15" s="139"/>
+    <row r="15" spans="1:8" s="3" customFormat="1">
+      <c r="A15" s="134"/>
+      <c r="B15" s="136"/>
       <c r="C15" s="15" t="s">
         <v>32</v>
       </c>
@@ -3427,9 +3448,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="148"/>
-      <c r="B16" s="139"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="145"/>
+      <c r="B16" s="136"/>
       <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
@@ -3443,9 +3464,9 @@
       <c r="G16" s="9"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="148"/>
-      <c r="B17" s="139"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="145"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="8" t="s">
         <v>41</v>
       </c>
@@ -3459,9 +3480,9 @@
       <c r="G17" s="9"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="148"/>
-      <c r="B18" s="139"/>
+    <row r="18" spans="1:8">
+      <c r="A18" s="145"/>
+      <c r="B18" s="136"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
@@ -3475,9 +3496,9 @@
       <c r="G18" s="9"/>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="148"/>
-      <c r="B19" s="139"/>
+    <row r="19" spans="1:8">
+      <c r="A19" s="145"/>
+      <c r="B19" s="136"/>
       <c r="C19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3491,9 +3512,9 @@
       <c r="G19" s="9"/>
       <c r="H19" s="41"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="148"/>
-      <c r="B20" s="139"/>
+    <row r="20" spans="1:8" s="3" customFormat="1">
+      <c r="A20" s="145"/>
+      <c r="B20" s="136"/>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
@@ -3513,9 +3534,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="148"/>
-      <c r="B21" s="139"/>
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="34.799999999999997">
+      <c r="A21" s="145"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
@@ -3533,9 +3554,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="3" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="149"/>
-      <c r="B22" s="147"/>
+    <row r="22" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1">
+      <c r="A22" s="146"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="12" t="s">
         <v>46</v>
       </c>
@@ -3555,11 +3576,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="152" t="s">
+    <row r="23" spans="1:8" s="4" customFormat="1">
+      <c r="A23" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="147" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="34" t="s">
@@ -3579,9 +3600,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="153"/>
-      <c r="B24" s="151"/>
+    <row r="24" spans="1:8" s="3" customFormat="1">
+      <c r="A24" s="150"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="10" t="s">
         <v>65</v>
       </c>
@@ -3599,9 +3620,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="153"/>
-      <c r="B25" s="151"/>
+    <row r="25" spans="1:8" s="21" customFormat="1">
+      <c r="A25" s="150"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="22" t="s">
         <v>81</v>
       </c>
@@ -3621,9 +3642,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="153"/>
-      <c r="B26" s="151"/>
+    <row r="26" spans="1:8">
+      <c r="A26" s="150"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="10" t="s">
         <v>67</v>
       </c>
@@ -3639,9 +3660,9 @@
       <c r="G26" s="11"/>
       <c r="H26" s="38"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="153"/>
-      <c r="B27" s="151"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="150"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="10" t="s">
         <v>5</v>
       </c>
@@ -3657,9 +3678,9 @@
       <c r="G27" s="11"/>
       <c r="H27" s="38"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="153"/>
-      <c r="B28" s="151"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="150"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="10" t="s">
         <v>17</v>
       </c>
@@ -3675,9 +3696,9 @@
       </c>
       <c r="H28" s="38"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="153"/>
-      <c r="B29" s="151"/>
+    <row r="29" spans="1:8">
+      <c r="A29" s="150"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="10" t="s">
         <v>44</v>
       </c>
@@ -3693,9 +3714,9 @@
       </c>
       <c r="H29" s="38"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="153"/>
-      <c r="B30" s="151"/>
+    <row r="30" spans="1:8">
+      <c r="A30" s="150"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
@@ -3711,9 +3732,9 @@
       </c>
       <c r="H30" s="38"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="153"/>
-      <c r="B31" s="151"/>
+    <row r="31" spans="1:8" s="4" customFormat="1">
+      <c r="A31" s="150"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="10" t="s">
         <v>69</v>
       </c>
@@ -3729,11 +3750,11 @@
       </c>
       <c r="H31" s="38"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="148" t="s">
+    <row r="32" spans="1:8" s="4" customFormat="1">
+      <c r="A32" s="145" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="136" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -3755,9 +3776,9 @@
         <v>nextval</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="148"/>
-      <c r="B33" s="139"/>
+    <row r="33" spans="1:8" s="21" customFormat="1">
+      <c r="A33" s="145"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="20" t="s">
         <v>73</v>
       </c>
@@ -3776,9 +3797,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="148"/>
-      <c r="B34" s="139"/>
+    <row r="34" spans="1:8" s="21" customFormat="1">
+      <c r="A34" s="145"/>
+      <c r="B34" s="136"/>
       <c r="C34" s="20" t="s">
         <v>81</v>
       </c>
@@ -3798,9 +3819,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="148"/>
-      <c r="B35" s="139"/>
+    <row r="35" spans="1:8">
+      <c r="A35" s="145"/>
+      <c r="B35" s="136"/>
       <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
@@ -3816,9 +3837,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="148"/>
-      <c r="B36" s="139"/>
+    <row r="36" spans="1:8">
+      <c r="A36" s="145"/>
+      <c r="B36" s="136"/>
       <c r="C36" s="8" t="s">
         <v>17</v>
       </c>
@@ -3834,9 +3855,9 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="148"/>
-      <c r="B37" s="139"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="145"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
@@ -3852,9 +3873,9 @@
       </c>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="148"/>
-      <c r="B38" s="139"/>
+    <row r="38" spans="1:8">
+      <c r="A38" s="145"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="8" t="s">
         <v>74</v>
       </c>
@@ -3870,9 +3891,9 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="148"/>
-      <c r="B39" s="139"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="145"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
@@ -3888,11 +3909,11 @@
       <c r="G39" s="9"/>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="154" t="s">
+    <row r="40" spans="1:8" s="4" customFormat="1">
+      <c r="A40" s="151" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="148" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="14" t="s">
@@ -3910,9 +3931,9 @@
       <c r="G40" s="14"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="154"/>
-      <c r="B41" s="151"/>
+    <row r="41" spans="1:8" s="21" customFormat="1">
+      <c r="A41" s="151"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="24" t="s">
         <v>73</v>
       </c>
@@ -3931,9 +3952,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="154"/>
-      <c r="B42" s="151"/>
+    <row r="42" spans="1:8">
+      <c r="A42" s="151"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="10" t="s">
         <v>77</v>
       </c>
@@ -3949,9 +3970,9 @@
       <c r="G42" s="11"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="154"/>
-      <c r="B43" s="151"/>
+    <row r="43" spans="1:8">
+      <c r="A43" s="151"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="10" t="s">
         <v>78</v>
       </c>
@@ -3967,9 +3988,9 @@
       <c r="G43" s="11"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="154"/>
-      <c r="B44" s="151"/>
+    <row r="44" spans="1:8">
+      <c r="A44" s="151"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="10" t="s">
         <v>79</v>
       </c>
@@ -3985,11 +4006,11 @@
       <c r="G44" s="11"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="137" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="B45" s="139" t="s">
+      <c r="B45" s="136" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -4009,9 +4030,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="137"/>
-      <c r="B46" s="139"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="134"/>
+      <c r="B46" s="136"/>
       <c r="C46" s="20" t="s">
         <v>73</v>
       </c>
@@ -4030,9 +4051,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="137"/>
-      <c r="B47" s="139"/>
+    <row r="47" spans="1:8">
+      <c r="A47" s="134"/>
+      <c r="B47" s="136"/>
       <c r="C47" s="8" t="s">
         <v>103</v>
       </c>
@@ -4050,9 +4071,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A48" s="138"/>
-      <c r="B48" s="140"/>
+    <row r="48" spans="1:8" ht="18" thickBot="1">
+      <c r="A48" s="135"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="48" t="s">
         <v>104</v>
       </c>
@@ -4070,11 +4091,11 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="144" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="141" t="s">
+      <c r="B49" s="138" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="52" t="s">
@@ -4092,9 +4113,9 @@
       <c r="G49" s="35"/>
       <c r="H49" s="36"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="145"/>
-      <c r="B50" s="142"/>
+    <row r="50" spans="1:8">
+      <c r="A50" s="142"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="10" t="s">
         <v>109</v>
       </c>
@@ -4110,9 +4131,9 @@
       <c r="G50" s="11"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="145"/>
-      <c r="B51" s="142"/>
+    <row r="51" spans="1:8">
+      <c r="A51" s="142"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="22" t="s">
         <v>110</v>
       </c>
@@ -4132,9 +4153,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="145"/>
-      <c r="B52" s="142"/>
+    <row r="52" spans="1:8">
+      <c r="A52" s="142"/>
+      <c r="B52" s="139"/>
       <c r="C52" s="10" t="s">
         <v>67</v>
       </c>
@@ -4150,9 +4171,9 @@
       <c r="G52" s="11"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="145"/>
-      <c r="B53" s="142"/>
+    <row r="53" spans="1:8">
+      <c r="A53" s="142"/>
+      <c r="B53" s="139"/>
       <c r="C53" s="10" t="s">
         <v>5</v>
       </c>
@@ -4168,9 +4189,9 @@
       <c r="G53" s="11"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="145"/>
-      <c r="B54" s="142"/>
+    <row r="54" spans="1:8">
+      <c r="A54" s="142"/>
+      <c r="B54" s="139"/>
       <c r="C54" s="10" t="s">
         <v>121</v>
       </c>
@@ -4188,9 +4209,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="145"/>
-      <c r="B55" s="142"/>
+    <row r="55" spans="1:8">
+      <c r="A55" s="142"/>
+      <c r="B55" s="139"/>
       <c r="C55" s="10" t="s">
         <v>111</v>
       </c>
@@ -4206,9 +4227,9 @@
       </c>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="146"/>
-      <c r="B56" s="143"/>
+    <row r="56" spans="1:8" ht="18" thickBot="1">
+      <c r="A56" s="143"/>
+      <c r="B56" s="140"/>
       <c r="C56" s="25" t="s">
         <v>124</v>
       </c>
@@ -4226,9 +4247,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="158"/>
+      <c r="B57" s="158" t="s">
         <v>129</v>
       </c>
       <c r="C57" s="53" t="s">
@@ -4246,9 +4267,9 @@
       <c r="G57" s="54"/>
       <c r="H57" s="55"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="128"/>
-      <c r="B58" s="128"/>
+    <row r="58" spans="1:8">
+      <c r="A58" s="156"/>
+      <c r="B58" s="156"/>
       <c r="C58" s="55" t="s">
         <v>133</v>
       </c>
@@ -4264,9 +4285,9 @@
       <c r="G58" s="54"/>
       <c r="H58" s="55"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="128"/>
-      <c r="B59" s="128"/>
+    <row r="59" spans="1:8">
+      <c r="A59" s="156"/>
+      <c r="B59" s="156"/>
       <c r="C59" s="55" t="s">
         <v>137</v>
       </c>
@@ -4282,9 +4303,9 @@
       <c r="G59" s="54"/>
       <c r="H59" s="55"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="128"/>
-      <c r="B60" s="128"/>
+    <row r="60" spans="1:8">
+      <c r="A60" s="156"/>
+      <c r="B60" s="156"/>
       <c r="C60" s="55" t="s">
         <v>140</v>
       </c>
@@ -4300,9 +4321,9 @@
       <c r="G60" s="54"/>
       <c r="H60" s="55"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="129"/>
-      <c r="B61" s="129"/>
+    <row r="61" spans="1:8">
+      <c r="A61" s="157"/>
+      <c r="B61" s="157"/>
       <c r="C61" s="55" t="s">
         <v>142</v>
       </c>
@@ -4318,9 +4339,9 @@
       </c>
       <c r="H61" s="55"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="124"/>
-      <c r="B62" s="124" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="152"/>
+      <c r="B62" s="152" t="s">
         <v>144</v>
       </c>
       <c r="C62" s="56" t="s">
@@ -4338,9 +4359,9 @@
       <c r="G62" s="57"/>
       <c r="H62" s="58"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="125"/>
-      <c r="B63" s="125"/>
+    <row r="63" spans="1:8">
+      <c r="A63" s="153"/>
+      <c r="B63" s="153"/>
       <c r="C63" s="59" t="s">
         <v>145</v>
       </c>
@@ -4358,9 +4379,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="126"/>
-      <c r="B64" s="126"/>
+    <row r="64" spans="1:8">
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
       <c r="C64" s="58" t="s">
         <v>148</v>
       </c>
@@ -4376,11 +4397,11 @@
       <c r="G64" s="57"/>
       <c r="H64" s="58"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="127" t="s">
+    <row r="65" spans="1:8">
+      <c r="A65" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="127" t="s">
+      <c r="B65" s="155" t="s">
         <v>151</v>
       </c>
       <c r="C65" s="53" t="s">
@@ -4398,9 +4419,9 @@
       <c r="G65" s="54"/>
       <c r="H65" s="55"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="128"/>
-      <c r="B66" s="128"/>
+    <row r="66" spans="1:8">
+      <c r="A66" s="156"/>
+      <c r="B66" s="156"/>
       <c r="C66" s="61" t="s">
         <v>152</v>
       </c>
@@ -4418,9 +4439,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="128"/>
-      <c r="B67" s="128"/>
+    <row r="67" spans="1:8">
+      <c r="A67" s="156"/>
+      <c r="B67" s="156"/>
       <c r="C67" s="55" t="s">
         <v>154</v>
       </c>
@@ -4436,9 +4457,9 @@
       </c>
       <c r="H67" s="55"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="128"/>
-      <c r="B68" s="128"/>
+    <row r="68" spans="1:8">
+      <c r="A68" s="156"/>
+      <c r="B68" s="156"/>
       <c r="C68" s="55" t="s">
         <v>158</v>
       </c>
@@ -4456,9 +4477,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="129"/>
-      <c r="B69" s="129"/>
+    <row r="69" spans="1:8">
+      <c r="A69" s="157"/>
+      <c r="B69" s="157"/>
       <c r="C69" s="55" t="s">
         <v>161</v>
       </c>
@@ -4474,11 +4495,11 @@
       <c r="G69" s="54"/>
       <c r="H69" s="55"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="124" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="152" t="s">
         <v>165</v>
       </c>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="152" t="s">
         <v>166</v>
       </c>
       <c r="C70" s="56" t="s">
@@ -4496,9 +4517,9 @@
       <c r="G70" s="66"/>
       <c r="H70" s="56"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="125"/>
-      <c r="B71" s="125"/>
+    <row r="71" spans="1:8">
+      <c r="A71" s="153"/>
+      <c r="B71" s="153"/>
       <c r="C71" s="58" t="s">
         <v>167</v>
       </c>
@@ -4514,9 +4535,9 @@
       <c r="G71" s="57"/>
       <c r="H71" s="56"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="125"/>
-      <c r="B72" s="125"/>
+    <row r="72" spans="1:8">
+      <c r="A72" s="153"/>
+      <c r="B72" s="153"/>
       <c r="C72" s="58" t="s">
         <v>169</v>
       </c>
@@ -4532,9 +4553,9 @@
       <c r="G72" s="57"/>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="125"/>
-      <c r="B73" s="125"/>
+    <row r="73" spans="1:8">
+      <c r="A73" s="153"/>
+      <c r="B73" s="153"/>
       <c r="C73" s="58" t="s">
         <v>140</v>
       </c>
@@ -4550,9 +4571,9 @@
       <c r="G73" s="57"/>
       <c r="H73" s="56"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="126"/>
-      <c r="B74" s="126"/>
+    <row r="74" spans="1:8">
+      <c r="A74" s="154"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="58" t="s">
         <v>171</v>
       </c>
@@ -4568,11 +4589,11 @@
       </c>
       <c r="H74" s="58"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8">
       <c r="A75" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="127" t="s">
+      <c r="B75" s="155" t="s">
         <v>180</v>
       </c>
       <c r="C75" s="53" t="s">
@@ -4590,11 +4611,11 @@
       <c r="G75" s="54"/>
       <c r="H75" s="55"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8">
       <c r="A76" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="B76" s="128"/>
+      <c r="B76" s="156"/>
       <c r="C76" s="61" t="s">
         <v>152</v>
       </c>
@@ -4612,11 +4633,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8">
       <c r="A77" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="128"/>
+      <c r="B77" s="156"/>
       <c r="C77" s="62" t="s">
         <v>181</v>
       </c>
@@ -4634,11 +4655,11 @@
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8">
       <c r="A78" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="128"/>
+      <c r="B78" s="156"/>
       <c r="C78" s="55" t="s">
         <v>183</v>
       </c>
@@ -4652,9 +4673,9 @@
       <c r="G78" s="54"/>
       <c r="H78" s="55"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8">
       <c r="A79" s="68"/>
-      <c r="B79" s="128"/>
+      <c r="B79" s="156"/>
       <c r="C79" s="55" t="s">
         <v>185</v>
       </c>
@@ -4668,11 +4689,11 @@
       <c r="G79" s="54"/>
       <c r="H79" s="55"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8">
       <c r="A80" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="B80" s="129"/>
+      <c r="B80" s="157"/>
       <c r="C80" s="55" t="s">
         <v>187</v>
       </c>
@@ -4690,6 +4711,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A70:A74"/>
+    <mergeCell ref="B70:B74"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="B65:B69"/>
     <mergeCell ref="B3:B13"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A45:A48"/>
@@ -4704,15 +4734,6 @@
     <mergeCell ref="B32:B39"/>
     <mergeCell ref="A40:A44"/>
     <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A70:A74"/>
-    <mergeCell ref="B70:B74"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4732,87 +4753,87 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="78" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="78" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="9.19921875" style="78" customWidth="1"/>
     <col min="5" max="5" width="6" style="79" customWidth="1"/>
-    <col min="6" max="7" width="8.4140625" style="79" customWidth="1"/>
-    <col min="8" max="8" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.08203125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="78" customWidth="1"/>
+    <col min="6" max="7" width="8.3984375" style="79" customWidth="1"/>
+    <col min="8" max="8" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.09765625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="36.296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.69921875" style="78" customWidth="1"/>
     <col min="13" max="13" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="78"/>
+    <col min="17" max="16384" width="8.69921875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="155" t="s">
+    <row r="1" spans="1:13" ht="18">
+      <c r="A1" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="161" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="155" t="s">
+      <c r="D1" s="178"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="159" t="s">
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="175" t="s">
         <v>394</v>
       </c>
-      <c r="J1" s="160"/>
+      <c r="J1" s="176"/>
       <c r="K1" s="80"/>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="155" t="s">
+    <row r="2" spans="1:13" ht="18">
+      <c r="A2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="171"/>
+      <c r="C2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="155" t="s">
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="157">
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="173">
         <v>44474</v>
       </c>
-      <c r="J2" s="158"/>
+      <c r="J2" s="174"/>
       <c r="K2" s="81"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="164" t="s">
+    <row r="4" spans="1:13">
+      <c r="A4" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166" t="s">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="166" t="s">
+      <c r="F4" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="167"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G4" s="163"/>
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="162"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="70" t="s">
         <v>190</v>
       </c>
@@ -4851,7 +4872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13">
       <c r="A6" s="54">
         <v>1</v>
       </c>
@@ -4880,7 +4901,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13">
       <c r="A7" s="54">
         <v>2</v>
       </c>
@@ -4913,7 +4934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13">
       <c r="A8" s="54">
         <v>3</v>
       </c>
@@ -4946,7 +4967,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13">
       <c r="A9" s="54">
         <v>4</v>
       </c>
@@ -4977,7 +4998,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13">
       <c r="A10" s="54">
         <v>5</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13">
       <c r="A11" s="54">
         <v>6</v>
       </c>
@@ -5041,7 +5062,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13">
       <c r="A12" s="54">
         <v>7</v>
       </c>
@@ -5072,7 +5093,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13">
       <c r="A13" s="54">
         <v>8</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13">
       <c r="A14" s="54">
         <v>9</v>
       </c>
@@ -5134,7 +5155,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13">
       <c r="A15" s="54">
         <v>10</v>
       </c>
@@ -5165,7 +5186,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13">
       <c r="A16" s="54">
         <v>11</v>
       </c>
@@ -5196,7 +5217,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14">
       <c r="K17" s="78" t="s">
         <v>360</v>
       </c>
@@ -5204,27 +5225,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="164" t="s">
+    <row r="18" spans="1:14">
+      <c r="A18" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166" t="s">
+      <c r="B18" s="160"/>
+      <c r="C18" s="161" t="s">
         <v>207</v>
       </c>
-      <c r="D18" s="167"/>
+      <c r="D18" s="162"/>
       <c r="E18" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F18" s="166" t="s">
+      <c r="F18" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="167"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="162"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="70" t="s">
         <v>190</v>
       </c>
@@ -5263,7 +5284,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14">
       <c r="A20" s="54">
         <v>1</v>
       </c>
@@ -5292,7 +5313,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14">
       <c r="A21" s="71">
         <v>2</v>
       </c>
@@ -5331,7 +5352,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14">
       <c r="A22" s="54">
         <v>3</v>
       </c>
@@ -5360,7 +5381,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14">
       <c r="A23" s="54">
         <v>4</v>
       </c>
@@ -5389,7 +5410,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14">
       <c r="A24" s="54">
         <v>5</v>
       </c>
@@ -5418,7 +5439,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14">
       <c r="A25" s="54">
         <v>6</v>
       </c>
@@ -5449,7 +5470,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14">
       <c r="A26" s="54">
         <v>7</v>
       </c>
@@ -5480,7 +5501,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="48" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="46.8">
       <c r="A27" s="54">
         <v>8</v>
       </c>
@@ -5509,7 +5530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14">
       <c r="A28" s="54">
         <v>9</v>
       </c>
@@ -5542,7 +5563,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14">
       <c r="K29" s="78" t="s">
         <v>360</v>
       </c>
@@ -5550,27 +5571,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30" s="164" t="s">
+    <row r="30" spans="1:14">
+      <c r="A30" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="165"/>
-      <c r="C30" s="166" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D30" s="167"/>
+      <c r="D30" s="162"/>
       <c r="E30" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F30" s="166" t="s">
+      <c r="F30" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="167"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G30" s="163"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="162"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="70" t="s">
         <v>190</v>
       </c>
@@ -5609,7 +5630,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14">
       <c r="A32" s="54">
         <v>1</v>
       </c>
@@ -5638,7 +5659,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14">
       <c r="A33" s="54">
         <v>2</v>
       </c>
@@ -5671,7 +5692,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14">
       <c r="A34" s="73">
         <v>3</v>
       </c>
@@ -5708,7 +5729,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14">
       <c r="A35" s="54">
         <v>4</v>
       </c>
@@ -5739,7 +5760,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14">
       <c r="A36" s="54">
         <v>5</v>
       </c>
@@ -5770,7 +5791,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14">
       <c r="A37" s="54">
         <v>6</v>
       </c>
@@ -5801,7 +5822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14">
       <c r="A38" s="54">
         <v>7</v>
       </c>
@@ -5832,7 +5853,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14">
       <c r="A39" s="54">
         <v>8</v>
       </c>
@@ -5861,7 +5882,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14">
       <c r="A40" s="54">
         <v>9</v>
       </c>
@@ -5890,7 +5911,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14">
       <c r="K41" s="78" t="s">
         <v>360</v>
       </c>
@@ -5898,27 +5919,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="164" t="s">
+    <row r="42" spans="1:14">
+      <c r="A42" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="169"/>
-      <c r="C42" s="170" t="s">
+      <c r="B42" s="167"/>
+      <c r="C42" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="171"/>
+      <c r="D42" s="169"/>
       <c r="E42" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="170" t="s">
+      <c r="F42" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="171"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="169"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="100" t="s">
         <v>190</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14">
       <c r="A44" s="102">
         <v>1</v>
       </c>
@@ -5986,7 +6007,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" ht="31.2">
       <c r="A45" s="87">
         <v>2</v>
       </c>
@@ -6021,7 +6042,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14">
       <c r="A46" s="88">
         <v>3</v>
       </c>
@@ -6058,7 +6079,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14">
       <c r="A47" s="101">
         <v>4</v>
       </c>
@@ -6089,7 +6110,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14">
       <c r="A48" s="101">
         <v>5</v>
       </c>
@@ -6120,7 +6141,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14">
       <c r="A49" s="101">
         <v>6</v>
       </c>
@@ -6151,7 +6172,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14">
       <c r="A50" s="101">
         <v>7</v>
       </c>
@@ -6180,7 +6201,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" ht="31.2">
       <c r="A51" s="102">
         <v>8</v>
       </c>
@@ -6211,7 +6232,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14">
       <c r="K52" s="78" t="s">
         <v>360</v>
       </c>
@@ -6219,27 +6240,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="164" t="s">
+    <row r="53" spans="1:14">
+      <c r="A53" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="165"/>
-      <c r="C53" s="166" t="s">
+      <c r="B53" s="160"/>
+      <c r="C53" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="D53" s="167"/>
+      <c r="D53" s="162"/>
       <c r="E53" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="166" t="s">
+      <c r="F53" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="167"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G53" s="163"/>
+      <c r="H53" s="163"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="162"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="70" t="s">
         <v>190</v>
       </c>
@@ -6278,7 +6299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" ht="31.2">
       <c r="A55" s="97">
         <v>1</v>
       </c>
@@ -6307,7 +6328,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" ht="31.2">
       <c r="A56" s="97">
         <v>2</v>
       </c>
@@ -6342,7 +6363,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14">
       <c r="A57" s="54">
         <v>3</v>
       </c>
@@ -6373,7 +6394,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14">
       <c r="A58" s="54">
         <v>4</v>
       </c>
@@ -6406,7 +6427,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14">
       <c r="A59" s="54">
         <v>5</v>
       </c>
@@ -6437,7 +6458,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14">
       <c r="K60" s="78" t="s">
         <v>360</v>
       </c>
@@ -6445,27 +6466,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61" s="164" t="s">
+    <row r="61" spans="1:14">
+      <c r="A61" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="166" t="s">
+      <c r="B61" s="160"/>
+      <c r="C61" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="D61" s="167"/>
+      <c r="D61" s="162"/>
       <c r="E61" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="166" t="s">
+      <c r="F61" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="167"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G61" s="163"/>
+      <c r="H61" s="163"/>
+      <c r="I61" s="163"/>
+      <c r="J61" s="162"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="70" t="s">
         <v>190</v>
       </c>
@@ -6504,7 +6525,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14">
       <c r="A63" s="54">
         <v>1</v>
       </c>
@@ -6533,7 +6554,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" ht="31.2">
       <c r="A64" s="97">
         <v>2</v>
       </c>
@@ -6568,7 +6589,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14">
       <c r="A65" s="54">
         <v>3</v>
       </c>
@@ -6599,7 +6620,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14">
       <c r="A66" s="54">
         <v>4</v>
       </c>
@@ -6630,7 +6651,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14">
       <c r="J67" s="108"/>
       <c r="K67" s="78" t="s">
         <v>360</v>
@@ -6639,27 +6660,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A68" s="173" t="s">
+    <row r="68" spans="1:14">
+      <c r="A68" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="173"/>
-      <c r="C68" s="174" t="s">
+      <c r="B68" s="166"/>
+      <c r="C68" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="D68" s="174"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F68" s="174" t="s">
+      <c r="F68" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G68" s="174"/>
-      <c r="H68" s="174"/>
-      <c r="I68" s="174"/>
-      <c r="J68" s="174"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="105" t="s">
         <v>190</v>
       </c>
@@ -6698,7 +6719,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14">
       <c r="A70" s="99">
         <v>1</v>
       </c>
@@ -6727,7 +6748,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14">
       <c r="A71" s="99">
         <v>2</v>
       </c>
@@ -6758,7 +6779,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14">
       <c r="A72" s="99">
         <v>3</v>
       </c>
@@ -6795,7 +6816,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14">
       <c r="A73" s="99">
         <v>4</v>
       </c>
@@ -6826,7 +6847,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14">
       <c r="A74" s="99">
         <v>5</v>
       </c>
@@ -6857,7 +6878,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="32" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" ht="31.2">
       <c r="A75" s="99">
         <v>6</v>
       </c>
@@ -6888,7 +6909,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14">
       <c r="A76" s="99">
         <v>7</v>
       </c>
@@ -6919,7 +6940,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14">
       <c r="A77" s="99">
         <v>8</v>
       </c>
@@ -6948,7 +6969,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14">
       <c r="K78" s="78" t="s">
         <v>360</v>
       </c>
@@ -6956,27 +6977,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A79" s="173" t="s">
+    <row r="79" spans="1:14">
+      <c r="A79" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="174" t="s">
+      <c r="B79" s="166"/>
+      <c r="C79" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="D79" s="174"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="105" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="174" t="s">
+      <c r="F79" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="174"/>
-      <c r="I79" s="174"/>
-      <c r="J79" s="174"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G79" s="165"/>
+      <c r="H79" s="165"/>
+      <c r="I79" s="165"/>
+      <c r="J79" s="165"/>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" s="105" t="s">
         <v>190</v>
       </c>
@@ -7015,7 +7036,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14">
       <c r="A81" s="96">
         <v>1</v>
       </c>
@@ -7046,7 +7067,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14">
       <c r="A82" s="99">
         <v>2</v>
       </c>
@@ -7077,7 +7098,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14">
       <c r="A83" s="99">
         <v>3</v>
       </c>
@@ -7108,7 +7129,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14">
       <c r="A84" s="99">
         <v>4</v>
       </c>
@@ -7137,7 +7158,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14">
       <c r="K85" s="78" t="s">
         <v>360</v>
       </c>
@@ -7145,27 +7166,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A86" s="164" t="s">
+    <row r="86" spans="1:14">
+      <c r="A86" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B86" s="165"/>
-      <c r="C86" s="166" t="s">
+      <c r="B86" s="160"/>
+      <c r="C86" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="D86" s="167"/>
+      <c r="D86" s="162"/>
       <c r="E86" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F86" s="166" t="s">
+      <c r="F86" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G86" s="168"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="168"/>
-      <c r="J86" s="167"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="162"/>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="70" t="s">
         <v>190</v>
       </c>
@@ -7204,7 +7225,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14">
       <c r="A88" s="97">
         <v>1</v>
       </c>
@@ -7233,7 +7254,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14">
       <c r="A89" s="73">
         <v>2</v>
       </c>
@@ -7270,7 +7291,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14">
       <c r="A90" s="54">
         <v>3</v>
       </c>
@@ -7301,7 +7322,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14">
       <c r="J91" s="108"/>
       <c r="K91" s="78" t="s">
         <v>360</v>
@@ -7310,27 +7331,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A92" s="175" t="s">
+    <row r="92" spans="1:14">
+      <c r="A92" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="175"/>
-      <c r="C92" s="174" t="s">
+      <c r="B92" s="164"/>
+      <c r="C92" s="165" t="s">
         <v>391</v>
       </c>
-      <c r="D92" s="174"/>
+      <c r="D92" s="165"/>
       <c r="E92" s="98" t="s">
         <v>286</v>
       </c>
-      <c r="F92" s="174" t="s">
+      <c r="F92" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="G92" s="174"/>
-      <c r="H92" s="174"/>
-      <c r="I92" s="174"/>
-      <c r="J92" s="174"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="98" t="s">
         <v>190</v>
       </c>
@@ -7369,7 +7390,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14">
       <c r="A94" s="99">
         <v>1</v>
       </c>
@@ -7398,7 +7419,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14">
       <c r="A95" s="93">
         <v>2</v>
       </c>
@@ -7435,7 +7456,7 @@
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14">
       <c r="A96" s="93">
         <v>3</v>
       </c>
@@ -7472,7 +7493,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER_MUST(NICKNAME)</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14">
       <c r="A97" s="99">
         <f>A96+1</f>
         <v>4</v>
@@ -7499,7 +7520,7 @@
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14">
       <c r="A98" s="99">
         <f t="shared" ref="A98:A99" si="10">A97+1</f>
         <v>5</v>
@@ -7526,7 +7547,7 @@
         <v>ORDERDATE date default sysdate,</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14">
       <c r="A99" s="99">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -7557,7 +7578,7 @@
         <v>PHONENUM varchar2(30) not null</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14">
       <c r="K100" s="78" t="s">
         <v>360</v>
       </c>
@@ -7565,27 +7586,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A101" s="164" t="s">
+    <row r="101" spans="1:14">
+      <c r="A101" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B101" s="165"/>
-      <c r="C101" s="166" t="s">
+      <c r="B101" s="160"/>
+      <c r="C101" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="D101" s="167"/>
+      <c r="D101" s="162"/>
       <c r="E101" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F101" s="166" t="s">
+      <c r="F101" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G101" s="168"/>
-      <c r="H101" s="168"/>
-      <c r="I101" s="168"/>
-      <c r="J101" s="167"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G101" s="163"/>
+      <c r="H101" s="163"/>
+      <c r="I101" s="163"/>
+      <c r="J101" s="162"/>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="70" t="s">
         <v>190</v>
       </c>
@@ -7624,7 +7645,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14">
       <c r="A103" s="54">
         <v>1</v>
       </c>
@@ -7653,7 +7674,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14">
       <c r="A104" s="54">
         <v>2</v>
       </c>
@@ -7690,7 +7711,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14">
       <c r="A105" s="54">
         <v>3</v>
       </c>
@@ -7719,7 +7740,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14">
       <c r="A106" s="54">
         <v>4</v>
       </c>
@@ -7750,7 +7771,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14">
       <c r="A107" s="54">
         <v>5</v>
       </c>
@@ -7781,7 +7802,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14">
       <c r="K108" s="78" t="s">
         <v>360</v>
       </c>
@@ -7789,27 +7810,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A109" s="164" t="s">
+    <row r="109" spans="1:14">
+      <c r="A109" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B109" s="165"/>
-      <c r="C109" s="166" t="s">
+      <c r="B109" s="160"/>
+      <c r="C109" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="D109" s="167"/>
+      <c r="D109" s="162"/>
       <c r="E109" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F109" s="166" t="s">
+      <c r="F109" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G109" s="168"/>
-      <c r="H109" s="168"/>
-      <c r="I109" s="168"/>
-      <c r="J109" s="167"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="162"/>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="70" t="s">
         <v>190</v>
       </c>
@@ -7848,7 +7869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14">
       <c r="A111" s="54">
         <v>1</v>
       </c>
@@ -7877,7 +7898,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14">
       <c r="A112" s="54">
         <v>2</v>
       </c>
@@ -7910,7 +7931,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14">
       <c r="A113" s="54">
         <v>3</v>
       </c>
@@ -7943,7 +7964,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14">
       <c r="A114" s="54">
         <v>4</v>
       </c>
@@ -7974,7 +7995,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14">
       <c r="A115" s="54">
         <v>5</v>
       </c>
@@ -8003,7 +8024,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14">
       <c r="K116" s="78" t="s">
         <v>360</v>
       </c>
@@ -8011,27 +8032,27 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A117" s="164" t="s">
+    <row r="117" spans="1:14">
+      <c r="A117" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="B117" s="165"/>
-      <c r="C117" s="166" t="s">
+      <c r="B117" s="160"/>
+      <c r="C117" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="D117" s="167"/>
+      <c r="D117" s="162"/>
       <c r="E117" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="F117" s="166" t="s">
+      <c r="F117" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="G117" s="168"/>
-      <c r="H117" s="168"/>
-      <c r="I117" s="168"/>
-      <c r="J117" s="167"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G117" s="163"/>
+      <c r="H117" s="163"/>
+      <c r="I117" s="163"/>
+      <c r="J117" s="162"/>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="70" t="s">
         <v>190</v>
       </c>
@@ -8070,7 +8091,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14">
       <c r="A119" s="54">
         <v>1</v>
       </c>
@@ -8099,7 +8120,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14">
       <c r="A120" s="54">
         <v>2</v>
       </c>
@@ -8136,7 +8157,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14">
       <c r="A121" s="97">
         <v>3</v>
       </c>
@@ -8171,7 +8192,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14">
       <c r="A122" s="54">
         <v>4</v>
       </c>
@@ -8200,7 +8221,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14">
       <c r="A123" s="54">
         <v>5</v>
       </c>
@@ -8229,7 +8250,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14">
       <c r="A124" s="54">
         <v>6</v>
       </c>
@@ -8258,7 +8279,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14">
       <c r="K125" s="78" t="s">
         <v>360</v>
       </c>
@@ -8268,6 +8289,44 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:J61"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="F79:J79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="F86:J86"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="F92:J92"/>
     <mergeCell ref="A117:B117"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="F117:J117"/>
@@ -8277,44 +8336,6 @@
     <mergeCell ref="A109:B109"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="F109:J109"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="F86:J86"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="F92:J92"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="F79:J79"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:J61"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8327,51 +8348,51 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O140"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="3" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.83203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="78" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="78" customWidth="1"/>
+    <col min="2" max="2" width="3.796875" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.69921875" style="78" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" style="78" customWidth="1"/>
     <col min="6" max="6" width="6" style="79" customWidth="1"/>
-    <col min="7" max="8" width="8.4140625" style="79" customWidth="1"/>
-    <col min="9" max="9" width="3.08203125" style="79" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" style="79" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.08203125" style="79" customWidth="1"/>
-    <col min="12" max="12" width="36.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" style="78" customWidth="1"/>
+    <col min="7" max="8" width="8.3984375" style="79" customWidth="1"/>
+    <col min="9" max="9" width="3.09765625" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.09765625" style="79" customWidth="1"/>
+    <col min="12" max="12" width="36.296875" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" style="78" customWidth="1"/>
     <col min="14" max="14" width="28.5" style="78" hidden="1" customWidth="1"/>
     <col min="15" max="17" width="0" style="78" hidden="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.6640625" style="78"/>
+    <col min="18" max="16384" width="8.69921875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B1" s="155" t="s">
+    <row r="1" spans="1:14">
+      <c r="B1" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="155"/>
-      <c r="D1" s="161" t="s">
+      <c r="C1" s="171"/>
+      <c r="D1" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="162"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="155" t="s">
+      <c r="E1" s="178"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="171" t="s">
         <v>393</v>
       </c>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="159" t="s">
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="175" t="s">
         <v>394</v>
       </c>
-      <c r="K1" s="160"/>
+      <c r="K1" s="176"/>
       <c r="L1" s="78" t="s">
         <v>414</v>
       </c>
@@ -8379,50 +8400,50 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B2" s="155" t="s">
+    <row r="2" spans="1:14">
+      <c r="B2" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="156" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="155" t="s">
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="171" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="157">
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="173">
         <v>44474</v>
       </c>
-      <c r="K2" s="158"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="K2" s="174"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="78">
         <v>1</v>
       </c>
-      <c r="B4" s="164" t="s">
+      <c r="B4" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166" t="s">
+      <c r="C4" s="160"/>
+      <c r="D4" s="161" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="167"/>
+      <c r="E4" s="162"/>
       <c r="F4" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G4" s="166" t="s">
+      <c r="G4" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="167"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H4" s="163"/>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="162"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" s="70" t="s">
         <v>190</v>
       </c>
@@ -8461,7 +8482,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14">
       <c r="B6" s="54">
         <v>1</v>
       </c>
@@ -8491,7 +8512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14">
       <c r="B7" s="54">
         <v>2</v>
       </c>
@@ -8517,14 +8538,14 @@
       <c r="J7" s="54"/>
       <c r="K7" s="107"/>
       <c r="L7" s="78" t="str">
-        <f t="shared" ref="L7:L12" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L7:L11" si="0">C7&amp;" "&amp;E7&amp;IF(E7="varchar2","("&amp;F7&amp;")","")&amp;IF(J7="",""," default "&amp;J7)&amp;IF(G7="",""," "&amp;G7)&amp;IF(H7="",""," unique")&amp;IF(I7="",""," primary key")&amp;","</f>
         <v>EMAIL varchar2(50) not null unique,</v>
       </c>
       <c r="N7" s="78" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14">
       <c r="B8" s="54">
         <v>3</v>
       </c>
@@ -8557,7 +8578,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14">
       <c r="B9" s="54">
         <v>4</v>
       </c>
@@ -8590,7 +8611,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14">
       <c r="B10" s="54">
         <v>5</v>
       </c>
@@ -8621,7 +8642,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14">
       <c r="B11" s="54">
         <v>6</v>
       </c>
@@ -8652,7 +8673,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="48" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" ht="46.8">
       <c r="B12" s="54">
         <v>7</v>
       </c>
@@ -8681,35 +8702,35 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14">
       <c r="L13" s="78" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14">
       <c r="A15" s="78">
         <v>2</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="165"/>
-      <c r="D15" s="166" t="s">
+      <c r="C15" s="160"/>
+      <c r="D15" s="161" t="s">
         <v>435</v>
       </c>
-      <c r="E15" s="167"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G15" s="166" t="s">
+      <c r="G15" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="167"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="162"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="B16" s="70" t="s">
         <v>190</v>
       </c>
@@ -8748,7 +8769,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15">
       <c r="B17" s="54">
         <v>1</v>
       </c>
@@ -8771,14 +8792,14 @@
       <c r="J17" s="54"/>
       <c r="K17" s="55"/>
       <c r="L17" s="78" t="str">
-        <f t="shared" ref="L17:L24" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L17:L23" si="1">C17&amp;" "&amp;E17&amp;IF(E17="varchar2","("&amp;F17&amp;")","")&amp;IF(J17="",""," default "&amp;J17)&amp;IF(G17="",""," "&amp;G17)&amp;IF(H17="",""," unique")&amp;IF(I17="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N17" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="B18" s="54">
         <v>2</v>
       </c>
@@ -8817,7 +8838,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15">
       <c r="B19" s="54">
         <v>3</v>
       </c>
@@ -8848,7 +8869,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15">
       <c r="B20" s="54">
         <v>4</v>
       </c>
@@ -8879,25 +8900,25 @@
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" ht="17.399999999999999">
       <c r="B21" s="54">
         <v>5</v>
       </c>
-      <c r="C21" s="177" t="s">
+      <c r="C21" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="177" t="s">
+      <c r="D21" s="126" t="s">
         <v>429</v>
       </c>
-      <c r="E21" s="177" t="s">
+      <c r="E21" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="176"/>
-      <c r="G21" s="176"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="177" t="s">
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="126" t="s">
         <v>430</v>
       </c>
       <c r="L21" s="78" t="str">
@@ -8908,27 +8929,27 @@
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" ht="17.399999999999999">
       <c r="B22" s="54">
         <v>6</v>
       </c>
-      <c r="C22" s="177" t="s">
+      <c r="C22" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="177" t="s">
+      <c r="D22" s="126" t="s">
         <v>431</v>
       </c>
-      <c r="E22" s="177" t="s">
+      <c r="E22" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F22" s="176"/>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="176" t="s">
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="125" t="s">
         <v>157</v>
       </c>
-      <c r="K22" s="177" t="s">
+      <c r="K22" s="126" t="s">
         <v>428</v>
       </c>
       <c r="L22" s="78" t="str">
@@ -8939,7 +8960,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15">
       <c r="B23" s="54">
         <v>7</v>
       </c>
@@ -8967,25 +8988,25 @@
         <v>SESSIONID varchar2(100),</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" ht="17.399999999999999">
       <c r="B24" s="54">
         <v>8</v>
       </c>
-      <c r="C24" s="177" t="s">
+      <c r="C24" s="126" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="177" t="s">
+      <c r="D24" s="126" t="s">
         <v>433</v>
       </c>
-      <c r="E24" s="177" t="s">
+      <c r="E24" s="126" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="176"/>
-      <c r="G24" s="176"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="177" t="s">
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="126" t="s">
         <v>434</v>
       </c>
       <c r="L24" s="78" t="str">
@@ -8993,7 +9014,7 @@
         <v>LOGINTIME date</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15">
       <c r="L25" s="78" t="s">
         <v>360</v>
       </c>
@@ -9001,30 +9022,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="78">
         <v>3</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="165"/>
-      <c r="D26" s="166" t="s">
+      <c r="C26" s="160"/>
+      <c r="D26" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="E26" s="167"/>
+      <c r="E26" s="162"/>
       <c r="F26" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="166" t="s">
+      <c r="G26" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="167"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="163"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="B27" s="70" t="s">
         <v>190</v>
       </c>
@@ -9063,7 +9084,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -9093,7 +9114,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="B29" s="54">
         <v>2</v>
       </c>
@@ -9132,7 +9153,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15">
       <c r="B30" s="54">
         <v>3</v>
       </c>
@@ -9163,7 +9184,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="B31" s="54">
         <v>4</v>
       </c>
@@ -9194,7 +9215,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="B32" s="54">
         <v>5</v>
       </c>
@@ -9223,7 +9244,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:15">
       <c r="B33" s="54">
         <v>6</v>
       </c>
@@ -9252,7 +9273,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:15">
       <c r="B34" s="54">
         <v>7</v>
       </c>
@@ -9281,7 +9302,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:15">
       <c r="L35" s="78" t="s">
         <v>360</v>
       </c>
@@ -9289,30 +9310,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:15">
       <c r="A36" s="78">
         <v>4</v>
       </c>
-      <c r="B36" s="164" t="s">
+      <c r="B36" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="166" t="s">
+      <c r="C36" s="160"/>
+      <c r="D36" s="161" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="167"/>
+      <c r="E36" s="162"/>
       <c r="F36" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="167"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H36" s="163"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="162"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="B37" s="70" t="s">
         <v>190</v>
       </c>
@@ -9351,7 +9372,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:15">
       <c r="B38" s="54">
         <v>1</v>
       </c>
@@ -9381,7 +9402,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15">
       <c r="B39" s="54">
         <v>2</v>
       </c>
@@ -9418,7 +9439,7 @@
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15">
       <c r="B40" s="54">
         <v>3</v>
       </c>
@@ -9447,7 +9468,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15">
       <c r="B41" s="54">
         <v>4</v>
       </c>
@@ -9478,7 +9499,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:15">
       <c r="B42" s="54">
         <v>5</v>
       </c>
@@ -9509,7 +9530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:15">
       <c r="L43" s="78" t="s">
         <v>360</v>
       </c>
@@ -9517,30 +9538,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15">
       <c r="A44" s="78">
         <v>5</v>
       </c>
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="166" t="s">
+      <c r="C44" s="160"/>
+      <c r="D44" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="E44" s="167"/>
+      <c r="E44" s="162"/>
       <c r="F44" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G44" s="166" t="s">
+      <c r="G44" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="167"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H44" s="163"/>
+      <c r="I44" s="163"/>
+      <c r="J44" s="163"/>
+      <c r="K44" s="162"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="B45" s="70" t="s">
         <v>190</v>
       </c>
@@ -9579,7 +9600,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:15">
       <c r="B46" s="54">
         <v>1</v>
       </c>
@@ -9609,7 +9630,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15">
       <c r="B47" s="54">
         <v>2</v>
       </c>
@@ -9642,7 +9663,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15">
       <c r="B48" s="73">
         <v>3</v>
       </c>
@@ -9679,7 +9700,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15">
       <c r="B49" s="54">
         <v>4</v>
       </c>
@@ -9710,7 +9731,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15">
       <c r="B50" s="54">
         <v>5</v>
       </c>
@@ -9741,7 +9762,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15">
       <c r="B51" s="54">
         <v>6</v>
       </c>
@@ -9772,7 +9793,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15">
       <c r="B52" s="54">
         <v>7</v>
       </c>
@@ -9803,7 +9824,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15">
       <c r="B53" s="54">
         <v>8</v>
       </c>
@@ -9832,7 +9853,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15">
       <c r="B54" s="54">
         <v>9</v>
       </c>
@@ -9861,7 +9882,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15">
       <c r="L55" s="78" t="s">
         <v>360</v>
       </c>
@@ -9869,30 +9890,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15">
       <c r="A56" s="78">
         <v>6</v>
       </c>
-      <c r="B56" s="164" t="s">
+      <c r="B56" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="169"/>
-      <c r="D56" s="170" t="s">
+      <c r="C56" s="167"/>
+      <c r="D56" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="E56" s="171"/>
+      <c r="E56" s="169"/>
       <c r="F56" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="G56" s="170" t="s">
+      <c r="G56" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="171"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="169"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="B57" s="111" t="s">
         <v>190</v>
       </c>
@@ -9931,7 +9952,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:15">
       <c r="B58" s="116">
         <v>1</v>
       </c>
@@ -9961,7 +9982,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:15" ht="31.2">
       <c r="B59" s="87">
         <v>2</v>
       </c>
@@ -9996,7 +10017,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15">
       <c r="B60" s="88">
         <v>3</v>
       </c>
@@ -10033,7 +10054,7 @@
         <v>constraint FK1 foreign key(WRITER) references MEMBER(NICKNAME)</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15">
       <c r="B61" s="112">
         <v>4</v>
       </c>
@@ -10064,7 +10085,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15">
       <c r="B62" s="112">
         <v>5</v>
       </c>
@@ -10095,7 +10116,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:15">
       <c r="B63" s="112">
         <v>6</v>
       </c>
@@ -10126,7 +10147,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:15">
       <c r="B64" s="112">
         <v>7</v>
       </c>
@@ -10155,7 +10176,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:15" ht="31.2">
       <c r="B65" s="116">
         <v>8</v>
       </c>
@@ -10186,7 +10207,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:15">
       <c r="L66" s="78" t="s">
         <v>360</v>
       </c>
@@ -10194,30 +10215,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:15">
       <c r="A67" s="78">
         <v>7</v>
       </c>
-      <c r="B67" s="164" t="s">
+      <c r="B67" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="165"/>
-      <c r="D67" s="166" t="s">
+      <c r="C67" s="160"/>
+      <c r="D67" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="E67" s="167"/>
+      <c r="E67" s="162"/>
       <c r="F67" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G67" s="166" t="s">
+      <c r="G67" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168"/>
-      <c r="J67" s="168"/>
-      <c r="K67" s="167"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="162"/>
+    </row>
+    <row r="68" spans="1:15">
       <c r="B68" s="70" t="s">
         <v>190</v>
       </c>
@@ -10256,7 +10277,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:15">
       <c r="B69" s="110">
         <v>1</v>
       </c>
@@ -10286,7 +10307,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:15" ht="31.2">
       <c r="B70" s="110">
         <v>2</v>
       </c>
@@ -10321,7 +10342,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:15">
       <c r="B71" s="54">
         <v>3</v>
       </c>
@@ -10352,7 +10373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:15">
       <c r="B72" s="54">
         <v>4</v>
       </c>
@@ -10385,7 +10406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:15">
       <c r="B73" s="54">
         <v>5</v>
       </c>
@@ -10416,7 +10437,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:15">
       <c r="L74" s="78" t="s">
         <v>360</v>
       </c>
@@ -10424,30 +10445,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:15">
       <c r="A75" s="78">
         <v>8</v>
       </c>
-      <c r="B75" s="164" t="s">
+      <c r="B75" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C75" s="165"/>
-      <c r="D75" s="166" t="s">
+      <c r="C75" s="160"/>
+      <c r="D75" s="161" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="167"/>
+      <c r="E75" s="162"/>
       <c r="F75" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G75" s="166" t="s">
+      <c r="G75" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="167"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="162"/>
+    </row>
+    <row r="76" spans="1:15">
       <c r="B76" s="70" t="s">
         <v>190</v>
       </c>
@@ -10486,7 +10507,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:15">
       <c r="B77" s="54">
         <v>1</v>
       </c>
@@ -10516,7 +10537,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:15" ht="31.2">
       <c r="B78" s="110">
         <v>2</v>
       </c>
@@ -10551,7 +10572,7 @@
         <v>constraint FK1 foreign key(BOARDNUM) references BOARD(NUM) 현재 조회중인 게시글의 번호</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:15">
       <c r="B79" s="54">
         <v>3</v>
       </c>
@@ -10582,7 +10603,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:15">
       <c r="B80" s="54">
         <v>4</v>
       </c>
@@ -10613,7 +10634,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:15">
       <c r="K81" s="108"/>
       <c r="L81" s="78" t="s">
         <v>360</v>
@@ -10622,30 +10643,30 @@
         <v>359</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:15">
       <c r="A82" s="78">
         <v>9</v>
       </c>
-      <c r="B82" s="173" t="s">
+      <c r="B82" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="C82" s="173"/>
-      <c r="D82" s="174" t="s">
+      <c r="C82" s="166"/>
+      <c r="D82" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="174"/>
+      <c r="E82" s="165"/>
       <c r="F82" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G82" s="174" t="s">
+      <c r="G82" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H82" s="174"/>
-      <c r="I82" s="174"/>
-      <c r="J82" s="174"/>
-      <c r="K82" s="174"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="H82" s="165"/>
+      <c r="I82" s="165"/>
+      <c r="J82" s="165"/>
+      <c r="K82" s="165"/>
+    </row>
+    <row r="83" spans="1:15">
       <c r="B83" s="115" t="s">
         <v>190</v>
       </c>
@@ -10684,7 +10705,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:15">
       <c r="B84" s="96">
         <v>1</v>
       </c>
@@ -10707,14 +10728,14 @@
       <c r="J84" s="96"/>
       <c r="K84" s="96"/>
       <c r="L84" s="78" t="str">
-        <f t="shared" ref="L84:L89" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
+        <f t="shared" ref="L84:L90" si="8">C84&amp;" "&amp;E84&amp;IF(E84="varchar2","("&amp;F84&amp;")","")&amp;IF(J84="",""," default "&amp;J84)&amp;IF(G84="",""," "&amp;G84)&amp;IF(H84="",""," unique")&amp;IF(I84="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
       <c r="N84" s="78" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="118" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:15" s="118" customFormat="1">
       <c r="B85" s="119">
         <v>2</v>
       </c>
@@ -10740,7 +10761,7 @@
         <v>GOODSCODE varchar2(100),</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:15">
       <c r="B86" s="119">
         <v>3</v>
       </c>
@@ -10771,7 +10792,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:15">
       <c r="B87" s="119">
         <v>4</v>
       </c>
@@ -10802,7 +10823,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:15">
       <c r="B88" s="119">
         <v>5</v>
       </c>
@@ -10831,385 +10852,376 @@
         <v>372</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:15">
       <c r="B89" s="119">
         <v>6</v>
       </c>
       <c r="C89" s="91" t="s">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="D89" s="91" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="E89" s="91" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="121">
-        <v>10</v>
-      </c>
-      <c r="G89" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="121"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="122" t="s">
-        <v>418</v>
-      </c>
-      <c r="K89" s="121" t="s">
-        <v>419</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="F89" s="124"/>
+      <c r="G89" s="124" t="s">
+        <v>439</v>
+      </c>
+      <c r="H89" s="124"/>
+      <c r="I89" s="124"/>
+      <c r="J89" s="124" t="s">
+        <v>440</v>
+      </c>
+      <c r="K89" s="124"/>
       <c r="L89" s="78" t="str">
         <f t="shared" si="8"/>
-        <v>HEART varchar2(10) default 'NO' not null,</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+        <v>REGDATE date default sysdate not null,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="B90" s="119">
         <v>7</v>
       </c>
       <c r="C90" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" s="91" t="s">
+        <v>416</v>
+      </c>
+      <c r="E90" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" s="121">
+        <v>10</v>
+      </c>
+      <c r="G90" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H90" s="121"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="122" t="s">
+        <v>418</v>
+      </c>
+      <c r="K90" s="121" t="s">
+        <v>419</v>
+      </c>
+      <c r="L90" s="78" t="str">
+        <f t="shared" si="8"/>
+        <v>HEART varchar2(10) default 'NO' not null,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="B91" s="119">
+        <v>8</v>
+      </c>
+      <c r="C91" s="91" t="s">
         <v>424</v>
       </c>
-      <c r="D90" s="91" t="s">
+      <c r="D91" s="91" t="s">
         <v>423</v>
       </c>
-      <c r="E90" s="91" t="s">
+      <c r="E91" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F90" s="123"/>
-      <c r="G90" s="123"/>
-      <c r="H90" s="123"/>
-      <c r="I90" s="123"/>
-      <c r="J90" s="122">
+      <c r="F91" s="123"/>
+      <c r="G91" s="123"/>
+      <c r="H91" s="123"/>
+      <c r="I91" s="123"/>
+      <c r="J91" s="122">
         <v>20</v>
       </c>
-      <c r="K90" s="123"/>
-      <c r="L90" s="78" t="str">
-        <f>C90&amp;" "&amp;E90&amp;IF(E90="varchar2","("&amp;F90&amp;")","")&amp;IF(J90="",""," default "&amp;J90)&amp;IF(G90="",""," "&amp;G90)&amp;IF(H90="",""," unique")&amp;IF(I90="",""," primary key")</f>
+      <c r="K91" s="123"/>
+      <c r="L91" s="78" t="str">
+        <f>C91&amp;" "&amp;E91&amp;IF(E91="varchar2","("&amp;F91&amp;")","")&amp;IF(J91="",""," default "&amp;J91)&amp;IF(G91="",""," "&amp;G91)&amp;IF(H91="",""," unique")&amp;IF(I91="",""," primary key")</f>
         <v>STOCK number default 20</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L91" s="78" t="s">
+    <row r="92" spans="1:15">
+      <c r="L92" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N91" s="78" t="s">
+      <c r="N92" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A92" s="78">
+    <row r="93" spans="1:15">
+      <c r="A93" s="78">
         <v>10</v>
       </c>
-      <c r="B92" s="164" t="s">
+      <c r="B93" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C92" s="165"/>
-      <c r="D92" s="166" t="s">
+      <c r="C93" s="160"/>
+      <c r="D93" s="161" t="s">
         <v>270</v>
       </c>
-      <c r="E92" s="167"/>
-      <c r="F92" s="70" t="s">
+      <c r="E93" s="162"/>
+      <c r="F93" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G92" s="166" t="s">
+      <c r="G93" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H92" s="168"/>
-      <c r="I92" s="168"/>
-      <c r="J92" s="168"/>
-      <c r="K92" s="167"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B93" s="70" t="s">
+      <c r="H93" s="163"/>
+      <c r="I93" s="163"/>
+      <c r="J93" s="163"/>
+      <c r="K93" s="162"/>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="B94" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="70" t="s">
+      <c r="C94" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D93" s="70" t="s">
+      <c r="D94" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E93" s="70" t="s">
+      <c r="E94" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F94" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G93" s="70" t="s">
+      <c r="G94" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H93" s="70" t="s">
+      <c r="H94" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I93" s="70" t="s">
+      <c r="I94" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J93" s="70" t="s">
+      <c r="J94" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K93" s="70" t="s">
+      <c r="K94" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L93" s="78" t="str">
-        <f>"create table "&amp;D92&amp;"("</f>
+      <c r="L94" s="78" t="str">
+        <f>"create table "&amp;D93&amp;"("</f>
         <v>create table GOODS_IMAGE(</v>
       </c>
-      <c r="N93" s="78" t="s">
+      <c r="N94" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B94" s="110">
+    <row r="95" spans="1:15">
+      <c r="B95" s="110">
         <v>1</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C95" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="D94" s="53" t="str">
-        <f>"번호 ("&amp;D92&amp;"_SEQ.nextval)"</f>
+      <c r="D95" s="53" t="str">
+        <f>"번호 ("&amp;D93&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_IMAGE_SEQ.nextval)</v>
       </c>
-      <c r="E94" s="75" t="s">
+      <c r="E95" s="75" t="s">
         <v>128</v>
       </c>
-      <c r="F94" s="110"/>
-      <c r="G94" s="110"/>
-      <c r="H94" s="110"/>
-      <c r="I94" s="110" t="s">
+      <c r="F95" s="110"/>
+      <c r="G95" s="110"/>
+      <c r="H95" s="110"/>
+      <c r="I95" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J94" s="110"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="78" t="str">
-        <f t="shared" ref="L94:L95" si="9">C94&amp;" "&amp;E94&amp;IF(E94="varchar2","("&amp;F94&amp;")","")&amp;IF(J94="",""," default "&amp;J94)&amp;IF(G94="",""," "&amp;G94)&amp;IF(H94="",""," unique")&amp;IF(I94="",""," primary key")&amp;","</f>
+      <c r="J95" s="110"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="78" t="str">
+        <f t="shared" ref="L95:L96" si="9">C95&amp;" "&amp;E95&amp;IF(E95="varchar2","("&amp;F95&amp;")","")&amp;IF(J95="",""," default "&amp;J95)&amp;IF(G95="",""," "&amp;G95)&amp;IF(H95="",""," unique")&amp;IF(I95="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N94" s="78" t="s">
+      <c r="N95" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B95" s="73">
+    <row r="96" spans="1:15">
+      <c r="B96" s="73">
         <v>2</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C96" s="74" t="s">
         <v>134</v>
       </c>
-      <c r="D95" s="74" t="s">
+      <c r="D96" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="E95" s="74" t="s">
+      <c r="E96" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="F95" s="73">
+      <c r="F96" s="73">
         <v>100</v>
       </c>
-      <c r="G95" s="73" t="s">
+      <c r="G96" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="H95" s="73"/>
-      <c r="I95" s="73"/>
-      <c r="J95" s="73"/>
-      <c r="K95" s="74" t="s">
+      <c r="H96" s="73"/>
+      <c r="I96" s="73"/>
+      <c r="J96" s="73"/>
+      <c r="K96" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="L95" s="78" t="str">
+      <c r="L96" s="78" t="str">
         <f t="shared" si="9"/>
         <v>GOODSCODE varchar2(100) not null,</v>
       </c>
-      <c r="N95" s="78" t="s">
+      <c r="N96" s="78" t="s">
         <v>345</v>
       </c>
-      <c r="O95" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C95&amp;") references "&amp;K95</f>
+      <c r="O96" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C96&amp;") references "&amp;K96</f>
         <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B96" s="54">
+    <row r="97" spans="1:15">
+      <c r="B97" s="54">
         <v>3</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C97" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D97" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="E96" s="55" t="s">
+      <c r="E97" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F97" s="54">
         <v>100</v>
       </c>
-      <c r="G96" s="54" t="s">
+      <c r="G97" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="54"/>
-      <c r="K96" s="55"/>
-      <c r="L96" s="78" t="str">
-        <f>C96&amp;" "&amp;E96&amp;IF(E96="varchar2","("&amp;F96&amp;")","")&amp;IF(J96="",""," default "&amp;J96)&amp;IF(G96="",""," "&amp;G96)&amp;IF(H96="",""," unique")&amp;IF(I96="",""," primary key")</f>
+      <c r="H97" s="54"/>
+      <c r="I97" s="54"/>
+      <c r="J97" s="54"/>
+      <c r="K97" s="55"/>
+      <c r="L97" s="78" t="str">
+        <f>C97&amp;" "&amp;E97&amp;IF(E97="varchar2","("&amp;F97&amp;")","")&amp;IF(J97="",""," default "&amp;J97)&amp;IF(G97="",""," "&amp;G97)&amp;IF(H97="",""," unique")&amp;IF(I97="",""," primary key")</f>
         <v>SAVENAME varchar2(100) not null</v>
       </c>
-      <c r="N96" s="78" t="s">
+      <c r="N97" s="78" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="K97" s="108"/>
-      <c r="L97" s="78" t="s">
+    <row r="98" spans="1:15">
+      <c r="K98" s="108"/>
+      <c r="L98" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N97" s="78" t="s">
+      <c r="N98" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A98" s="78">
+    <row r="99" spans="1:15">
+      <c r="A99" s="78">
         <v>11</v>
       </c>
-      <c r="B98" s="175" t="s">
+      <c r="B99" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="C98" s="175"/>
-      <c r="D98" s="174" t="s">
+      <c r="C99" s="164"/>
+      <c r="D99" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="E98" s="174"/>
-      <c r="F98" s="113" t="s">
+      <c r="E99" s="165"/>
+      <c r="F99" s="113" t="s">
         <v>286</v>
       </c>
-      <c r="G98" s="174" t="s">
+      <c r="G99" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H98" s="174"/>
-      <c r="I98" s="174"/>
-      <c r="J98" s="174"/>
-      <c r="K98" s="174"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B99" s="113" t="s">
+      <c r="H99" s="165"/>
+      <c r="I99" s="165"/>
+      <c r="J99" s="165"/>
+      <c r="K99" s="165"/>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="B100" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="C99" s="113" t="s">
+      <c r="C100" s="113" t="s">
         <v>287</v>
       </c>
-      <c r="D99" s="113" t="s">
+      <c r="D100" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="E99" s="113" t="s">
+      <c r="E100" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F99" s="113" t="s">
+      <c r="F100" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="G99" s="113" t="s">
+      <c r="G100" s="113" t="s">
         <v>288</v>
       </c>
-      <c r="H99" s="113" t="s">
+      <c r="H100" s="113" t="s">
         <v>395</v>
       </c>
-      <c r="I99" s="113" t="s">
+      <c r="I100" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="J99" s="113" t="s">
+      <c r="J100" s="113" t="s">
         <v>202</v>
       </c>
-      <c r="K99" s="113" t="s">
+      <c r="K100" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="L99" s="78" t="str">
-        <f>"create table "&amp;D98&amp;"("</f>
+      <c r="L100" s="78" t="str">
+        <f>"create table "&amp;D99&amp;"("</f>
         <v>create table GOODS_SALES(</v>
       </c>
-      <c r="N99" s="78" t="s">
+      <c r="N100" s="78" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B100" s="114">
+    <row r="101" spans="1:15">
+      <c r="B101" s="114">
         <v>1</v>
       </c>
-      <c r="C100" s="90" t="s">
+      <c r="C101" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="53" t="str">
-        <f>"번호 ("&amp;D98&amp;"_SEQ.nextval)"</f>
+      <c r="D101" s="53" t="str">
+        <f>"번호 ("&amp;D99&amp;"_SEQ.nextval)"</f>
         <v>번호 (GOODS_SALES_SEQ.nextval)</v>
       </c>
-      <c r="E100" s="90" t="s">
+      <c r="E101" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114" t="s">
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J100" s="114"/>
-      <c r="K100" s="91"/>
-      <c r="L100" s="78" t="str">
-        <f t="shared" ref="L100:L103" si="10">C100&amp;" "&amp;E100&amp;IF(E100="varchar2","("&amp;F100&amp;")","")&amp;IF(J100="",""," default "&amp;J100)&amp;IF(G100="",""," "&amp;G100)&amp;IF(H100="",""," unique")&amp;IF(I100="",""," primary key")&amp;","</f>
+      <c r="J101" s="114"/>
+      <c r="K101" s="91"/>
+      <c r="L101" s="78" t="str">
+        <f t="shared" ref="L101:L104" si="10">C101&amp;" "&amp;E101&amp;IF(E101="varchar2","("&amp;F101&amp;")","")&amp;IF(J101="",""," default "&amp;J101)&amp;IF(G101="",""," "&amp;G101)&amp;IF(H101="",""," unique")&amp;IF(I101="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N100" s="78" t="s">
+      <c r="N101" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B101" s="93">
+    <row r="102" spans="1:15">
+      <c r="B102" s="93">
         <v>2</v>
       </c>
-      <c r="C101" s="92" t="s">
+      <c r="C102" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="D101" s="92" t="s">
+      <c r="D102" s="92" t="s">
         <v>425</v>
-      </c>
-      <c r="E101" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="F101" s="93">
-        <v>100</v>
-      </c>
-      <c r="G101" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="H101" s="93"/>
-      <c r="I101" s="93"/>
-      <c r="J101" s="93"/>
-      <c r="K101" s="92" t="s">
-        <v>271</v>
-      </c>
-      <c r="L101" s="78" t="str">
-        <f t="shared" si="10"/>
-        <v>GOODSCODE varchar2(100) not null,</v>
-      </c>
-      <c r="N101" s="78" t="s">
-        <v>345</v>
-      </c>
-      <c r="O101" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C101&amp;") references "&amp;K101</f>
-        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B102" s="93">
-        <v>3</v>
-      </c>
-      <c r="C102" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="D102" s="92" t="s">
-        <v>379</v>
       </c>
       <c r="E102" s="92" t="s">
         <v>135</v>
       </c>
       <c r="F102" s="93">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G102" s="93" t="s">
         <v>139</v>
@@ -11218,214 +11230,218 @@
       <c r="I102" s="93"/>
       <c r="J102" s="93"/>
       <c r="K102" s="92" t="s">
-        <v>398</v>
+        <v>271</v>
       </c>
       <c r="L102" s="78" t="str">
         <f t="shared" si="10"/>
-        <v>NICKNAME varchar2(20) not null,</v>
+        <v>GOODSCODE varchar2(100) not null,</v>
       </c>
       <c r="N102" s="78" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="O102" s="78" t="str">
         <f>"constraint FK1 foreign key("&amp;C102&amp;") references "&amp;K102</f>
-        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B103" s="114">
-        <v>4</v>
-      </c>
-      <c r="C103" s="91" t="s">
-        <v>382</v>
-      </c>
-      <c r="D103" s="117" t="s">
-        <v>380</v>
-      </c>
-      <c r="E103" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="F103" s="117"/>
-      <c r="G103" s="104" t="s">
+        <v>constraint FK1 foreign key(GOODSCODE) references GOODS(GOODSCODE)</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="B103" s="93">
         <v>3</v>
       </c>
-      <c r="H103" s="104"/>
-      <c r="I103" s="117"/>
-      <c r="J103" s="117"/>
-      <c r="K103" s="109"/>
+      <c r="C103" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D103" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="E103" s="92" t="s">
+        <v>135</v>
+      </c>
+      <c r="F103" s="93">
+        <v>20</v>
+      </c>
+      <c r="G103" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H103" s="93"/>
+      <c r="I103" s="93"/>
+      <c r="J103" s="93"/>
+      <c r="K103" s="92" t="s">
+        <v>398</v>
+      </c>
       <c r="L103" s="78" t="str">
         <f t="shared" si="10"/>
+        <v>NICKNAME varchar2(20) not null,</v>
+      </c>
+      <c r="N103" s="78" t="s">
+        <v>332</v>
+      </c>
+      <c r="O103" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C103&amp;") references "&amp;K103</f>
+        <v>constraint FK1 foreign key(NICKNAME) references MEMBER(NICKNAME)</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="B104" s="114">
+        <v>4</v>
+      </c>
+      <c r="C104" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="D104" s="117" t="s">
+        <v>380</v>
+      </c>
+      <c r="E104" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="117"/>
+      <c r="G104" s="104" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="104"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="117"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="78" t="str">
+        <f t="shared" si="10"/>
         <v>SALES number not null,</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B104" s="114">
+    <row r="105" spans="1:15">
+      <c r="B105" s="114">
         <v>5</v>
       </c>
-      <c r="C104" s="91" t="s">
+      <c r="C105" s="91" t="s">
         <v>383</v>
       </c>
-      <c r="D104" s="91" t="s">
+      <c r="D105" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="E104" s="91" t="s">
+      <c r="E105" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="F104" s="114"/>
-      <c r="G104" s="104"/>
-      <c r="H104" s="104"/>
-      <c r="I104" s="114"/>
-      <c r="J104" s="114" t="s">
+      <c r="F105" s="114"/>
+      <c r="G105" s="104"/>
+      <c r="H105" s="104"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="K104" s="91"/>
-      <c r="L104" s="78" t="str">
-        <f>C104&amp;" "&amp;E104&amp;IF(E104="varchar2","("&amp;F104&amp;")","")&amp;IF(J104="",""," default "&amp;J104)&amp;IF(G104="",""," "&amp;G104)&amp;IF(H104="",""," unique")&amp;IF(I104="",""," primary key")</f>
+      <c r="K105" s="91"/>
+      <c r="L105" s="78" t="str">
+        <f>C105&amp;" "&amp;E105&amp;IF(E105="varchar2","("&amp;F105&amp;")","")&amp;IF(J105="",""," default "&amp;J105)&amp;IF(G105="",""," "&amp;G105)&amp;IF(H105="",""," unique")&amp;IF(I105="",""," primary key")</f>
         <v>ORDERDATE date default sysdate</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L105" s="78" t="s">
+    <row r="106" spans="1:15">
+      <c r="L106" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N105" s="78" t="s">
+      <c r="N106" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A106" s="78">
+    <row r="107" spans="1:15">
+      <c r="A107" s="78">
         <v>12</v>
       </c>
-      <c r="B106" s="164" t="s">
+      <c r="B107" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C106" s="165"/>
-      <c r="D106" s="166" t="s">
+      <c r="C107" s="160"/>
+      <c r="D107" s="161" t="s">
         <v>276</v>
       </c>
-      <c r="E106" s="167"/>
-      <c r="F106" s="70" t="s">
+      <c r="E107" s="162"/>
+      <c r="F107" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G106" s="166" t="s">
+      <c r="G107" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H106" s="168"/>
-      <c r="I106" s="168"/>
-      <c r="J106" s="168"/>
-      <c r="K106" s="167"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B107" s="70" t="s">
+      <c r="H107" s="163"/>
+      <c r="I107" s="163"/>
+      <c r="J107" s="163"/>
+      <c r="K107" s="162"/>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="B108" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C107" s="70" t="s">
+      <c r="C108" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D107" s="70" t="s">
+      <c r="D108" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E107" s="70" t="s">
+      <c r="E108" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F107" s="70" t="s">
+      <c r="F108" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="70" t="s">
+      <c r="G108" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H107" s="70" t="s">
+      <c r="H108" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I107" s="70" t="s">
+      <c r="I108" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J107" s="70" t="s">
+      <c r="J108" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K107" s="70" t="s">
+      <c r="K108" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L107" s="78" t="str">
-        <f>"create table "&amp;D106&amp;"("</f>
+      <c r="L108" s="78" t="str">
+        <f>"create table "&amp;D107&amp;"("</f>
         <v>create table ASSATALK(</v>
       </c>
-      <c r="N107" s="78" t="s">
+      <c r="N108" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B108" s="54">
+    <row r="109" spans="1:15">
+      <c r="B109" s="54">
         <v>1</v>
       </c>
-      <c r="C108" s="53" t="s">
+      <c r="C109" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D108" s="53" t="str">
-        <f>"번호 ("&amp;D106&amp;"_SEQ.nextval)"</f>
+      <c r="D109" s="53" t="str">
+        <f>"번호 ("&amp;D107&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_SEQ.nextval)</v>
       </c>
-      <c r="E108" s="53" t="s">
+      <c r="E109" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
-      <c r="H108" s="54"/>
-      <c r="I108" s="54" t="s">
+      <c r="F109" s="54"/>
+      <c r="G109" s="54"/>
+      <c r="H109" s="54"/>
+      <c r="I109" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J108" s="54"/>
-      <c r="K108" s="55"/>
-      <c r="L108" s="78" t="str">
-        <f t="shared" ref="L108:L111" si="11">C108&amp;" "&amp;E108&amp;IF(E108="varchar2","("&amp;F108&amp;")","")&amp;IF(J108="",""," default "&amp;J108)&amp;IF(G108="",""," "&amp;G108)&amp;IF(H108="",""," unique")&amp;IF(I108="",""," primary key")&amp;","</f>
+      <c r="J109" s="54"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="78" t="str">
+        <f t="shared" ref="L109:L112" si="11">C109&amp;" "&amp;E109&amp;IF(E109="varchar2","("&amp;F109&amp;")","")&amp;IF(J109="",""," default "&amp;J109)&amp;IF(G109="",""," "&amp;G109)&amp;IF(H109="",""," unique")&amp;IF(I109="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N108" s="78" t="s">
+      <c r="N109" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B109" s="54">
+    <row r="110" spans="1:15">
+      <c r="B110" s="54">
         <v>2</v>
       </c>
-      <c r="C109" s="55" t="s">
+      <c r="C110" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D110" s="55" t="s">
         <v>167</v>
-      </c>
-      <c r="E109" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F109" s="54">
-        <v>20</v>
-      </c>
-      <c r="G109" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H109" s="54"/>
-      <c r="I109" s="54"/>
-      <c r="J109" s="54"/>
-      <c r="K109" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="L109" s="78" t="str">
-        <f t="shared" si="11"/>
-        <v>SPEAKER varchar2(20) not null,</v>
-      </c>
-      <c r="N109" s="78" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B110" s="54">
-        <v>3</v>
-      </c>
-      <c r="C110" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D110" s="55" t="s">
-        <v>169</v>
       </c>
       <c r="E110" s="55" t="s">
         <v>135</v>
@@ -11444,27 +11460,27 @@
       </c>
       <c r="L110" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>LISTENER varchar2(20) not null,</v>
+        <v>SPEAKER varchar2(20) not null,</v>
       </c>
       <c r="N110" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="B111" s="54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C111" s="55" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D111" s="55" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E111" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F111" s="54">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G111" s="54" t="s">
         <v>139</v>
@@ -11472,225 +11488,225 @@
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
       <c r="J111" s="54"/>
-      <c r="K111" s="55"/>
+      <c r="K111" s="55" t="s">
+        <v>296</v>
+      </c>
       <c r="L111" s="78" t="str">
         <f t="shared" si="11"/>
-        <v>CONTENT varchar2(200) not null,</v>
+        <v>LISTENER varchar2(20) not null,</v>
       </c>
       <c r="N111" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="B112" s="54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C112" s="55" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D112" s="55" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="E112" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F112" s="54"/>
-      <c r="G112" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F112" s="54">
+        <v>200</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>139</v>
+      </c>
       <c r="H112" s="54"/>
       <c r="I112" s="54"/>
-      <c r="J112" s="54" t="s">
-        <v>174</v>
-      </c>
+      <c r="J112" s="54"/>
       <c r="K112" s="55"/>
       <c r="L112" s="78" t="str">
-        <f>C112&amp;" "&amp;E112&amp;IF(E112="varchar2","("&amp;F112&amp;")","")&amp;IF(J112="",""," default "&amp;J112)&amp;IF(G112="",""," "&amp;G112)&amp;IF(H112="",""," unique")&amp;IF(I112="",""," primary key")</f>
+        <f t="shared" si="11"/>
+        <v>CONTENT varchar2(200) not null,</v>
+      </c>
+      <c r="N112" s="78" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="B113" s="54">
+        <v>5</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E113" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F113" s="54"/>
+      <c r="G113" s="54"/>
+      <c r="H113" s="54"/>
+      <c r="I113" s="54"/>
+      <c r="J113" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="K113" s="55"/>
+      <c r="L113" s="78" t="str">
+        <f>C113&amp;" "&amp;E113&amp;IF(E113="varchar2","("&amp;F113&amp;")","")&amp;IF(J113="",""," default "&amp;J113)&amp;IF(G113="",""," "&amp;G113)&amp;IF(H113="",""," unique")&amp;IF(I113="",""," primary key")</f>
         <v>SENDTIME timestamp default systimestamp</v>
       </c>
-      <c r="N112" s="78" t="s">
+      <c r="N113" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L113" s="78" t="s">
+    <row r="114" spans="1:15">
+      <c r="L114" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N113" s="78" t="s">
+      <c r="N114" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A114" s="78">
+    <row r="115" spans="1:15">
+      <c r="A115" s="78">
         <v>13</v>
       </c>
-      <c r="B114" s="164" t="s">
+      <c r="B115" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C114" s="165"/>
-      <c r="D114" s="166" t="s">
+      <c r="C115" s="160"/>
+      <c r="D115" s="161" t="s">
         <v>404</v>
       </c>
-      <c r="E114" s="167"/>
-      <c r="F114" s="70" t="s">
+      <c r="E115" s="162"/>
+      <c r="F115" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G114" s="166" t="s">
+      <c r="G115" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H114" s="168"/>
-      <c r="I114" s="168"/>
-      <c r="J114" s="168"/>
-      <c r="K114" s="167"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B115" s="70" t="s">
+      <c r="H115" s="163"/>
+      <c r="I115" s="163"/>
+      <c r="J115" s="163"/>
+      <c r="K115" s="162"/>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="B116" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="70" t="s">
+      <c r="C116" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D115" s="70" t="s">
+      <c r="D116" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E115" s="70" t="s">
+      <c r="E116" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F115" s="70" t="s">
+      <c r="F116" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G115" s="70" t="s">
+      <c r="G116" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H115" s="70" t="s">
+      <c r="H116" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I115" s="70" t="s">
+      <c r="I116" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J115" s="70" t="s">
+      <c r="J116" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K115" s="70" t="s">
+      <c r="K116" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L115" s="78" t="str">
-        <f>"create table "&amp;D114&amp;"("</f>
+      <c r="L116" s="78" t="str">
+        <f>"create table "&amp;D115&amp;"("</f>
         <v>create table ASSATALK_KEYWORD(</v>
       </c>
-      <c r="N115" s="78" t="s">
+      <c r="N116" s="78" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B116" s="54">
+    <row r="117" spans="1:15">
+      <c r="B117" s="54">
         <v>1</v>
       </c>
-      <c r="C116" s="53" t="s">
+      <c r="C117" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D116" s="53" t="str">
-        <f>"번호 ("&amp;D114&amp;"_SEQ.nextval)"</f>
+      <c r="D117" s="53" t="str">
+        <f>"번호 ("&amp;D115&amp;"_SEQ.nextval)"</f>
         <v>번호 (ASSATALK_KEYWORD_SEQ.nextval)</v>
       </c>
-      <c r="E116" s="53" t="s">
+      <c r="E117" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54"/>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54" t="s">
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J116" s="54"/>
-      <c r="K116" s="55"/>
-      <c r="L116" s="78" t="str">
-        <f t="shared" ref="L116:L118" si="12">C116&amp;" "&amp;E116&amp;IF(E116="varchar2","("&amp;F116&amp;")","")&amp;IF(J116="",""," default "&amp;J116)&amp;IF(G116="",""," "&amp;G116)&amp;IF(H116="",""," unique")&amp;IF(I116="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N116" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B117" s="54">
-        <v>2</v>
-      </c>
-      <c r="C117" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="D117" s="55" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F117" s="54">
-        <v>20</v>
-      </c>
-      <c r="G117" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="I117" s="54"/>
       <c r="J117" s="54"/>
       <c r="K117" s="55"/>
       <c r="L117" s="78" t="str">
+        <f t="shared" ref="L117:L119" si="12">C117&amp;" "&amp;E117&amp;IF(E117="varchar2","("&amp;F117&amp;")","")&amp;IF(J117="",""," default "&amp;J117)&amp;IF(G117="",""," "&amp;G117)&amp;IF(H117="",""," unique")&amp;IF(I117="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N117" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="B118" s="54">
+        <v>2</v>
+      </c>
+      <c r="C118" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D118" s="55" t="s">
+        <v>405</v>
+      </c>
+      <c r="E118" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118" s="54">
+        <v>20</v>
+      </c>
+      <c r="G118" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="55"/>
+      <c r="L118" s="78" t="str">
         <f t="shared" si="12"/>
         <v>KEYWORD varchar2(20) not null unique,</v>
       </c>
-      <c r="N117" s="78" t="s">
+      <c r="N118" s="78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="32" x14ac:dyDescent="0.45">
-      <c r="B118" s="54">
+    <row r="119" spans="1:15" ht="31.2">
+      <c r="B119" s="54">
         <v>3</v>
       </c>
-      <c r="C118" s="55" t="s">
+      <c r="C119" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="D118" s="55" t="s">
+      <c r="D119" s="55" t="s">
         <v>406</v>
-      </c>
-      <c r="E118" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="54">
-        <v>20</v>
-      </c>
-      <c r="G118" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="55" t="s">
-        <v>410</v>
-      </c>
-      <c r="L118" s="78" t="str">
-        <f t="shared" si="12"/>
-        <v>ANSWERTYPE varchar2(20) not null,</v>
-      </c>
-      <c r="N118" s="78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B119" s="54">
-        <v>5</v>
-      </c>
-      <c r="C119" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="55" t="s">
-        <v>407</v>
       </c>
       <c r="E119" s="55" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="54">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="G119" s="54" t="s">
         <v>3</v>
@@ -11698,229 +11714,231 @@
       <c r="H119" s="54"/>
       <c r="I119" s="54"/>
       <c r="J119" s="54"/>
-      <c r="K119" s="55"/>
+      <c r="K119" s="55" t="s">
+        <v>410</v>
+      </c>
       <c r="L119" s="78" t="str">
-        <f>C119&amp;" "&amp;E119&amp;IF(E119="varchar2","("&amp;F119&amp;")","")&amp;IF(J119="",""," default "&amp;J119)&amp;IF(G119="",""," "&amp;G119)&amp;IF(H119="",""," unique")&amp;IF(I119="",""," primary key")</f>
+        <f t="shared" si="12"/>
+        <v>ANSWERTYPE varchar2(20) not null,</v>
+      </c>
+      <c r="N119" s="78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="B120" s="54">
+        <v>5</v>
+      </c>
+      <c r="C120" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D120" s="55" t="s">
+        <v>407</v>
+      </c>
+      <c r="E120" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="54">
+        <v>4000</v>
+      </c>
+      <c r="G120" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="55"/>
+      <c r="L120" s="78" t="str">
+        <f>C120&amp;" "&amp;E120&amp;IF(E120="varchar2","("&amp;F120&amp;")","")&amp;IF(J120="",""," default "&amp;J120)&amp;IF(G120="",""," "&amp;G120)&amp;IF(H120="",""," unique")&amp;IF(I120="",""," primary key")</f>
         <v>ANSWER varchar2(4000) not null</v>
       </c>
-      <c r="N119" s="78" t="s">
+      <c r="N120" s="78" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L120" s="78" t="s">
+    <row r="121" spans="1:15">
+      <c r="L121" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N120" s="78" t="s">
+      <c r="N121" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A121" s="78">
+    <row r="122" spans="1:15">
+      <c r="A122" s="78">
         <v>14</v>
       </c>
-      <c r="B121" s="173" t="s">
+      <c r="B122" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="C121" s="173"/>
-      <c r="D121" s="174" t="s">
+      <c r="C122" s="166"/>
+      <c r="D122" s="165" t="s">
         <v>257</v>
       </c>
-      <c r="E121" s="174"/>
-      <c r="F121" s="115" t="s">
+      <c r="E122" s="165"/>
+      <c r="F122" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="G121" s="174" t="s">
+      <c r="G122" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="H121" s="174"/>
-      <c r="I121" s="174"/>
-      <c r="J121" s="174"/>
-      <c r="K121" s="174"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B122" s="115" t="s">
+      <c r="H122" s="165"/>
+      <c r="I122" s="165"/>
+      <c r="J122" s="165"/>
+      <c r="K122" s="165"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="B123" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="C122" s="115" t="s">
+      <c r="C123" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="D122" s="115" t="s">
+      <c r="D123" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="E122" s="115" t="s">
+      <c r="E123" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="F122" s="115" t="s">
+      <c r="F123" s="115" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="115" t="s">
+      <c r="G123" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="H122" s="70" t="s">
+      <c r="H123" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I122" s="115" t="s">
+      <c r="I123" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="J122" s="115" t="s">
+      <c r="J123" s="115" t="s">
         <v>202</v>
       </c>
-      <c r="K122" s="115" t="s">
+      <c r="K123" s="115" t="s">
         <v>203</v>
       </c>
-      <c r="L122" s="78" t="str">
-        <f>"create table "&amp;D121&amp;"("</f>
+      <c r="L123" s="78" t="str">
+        <f>"create table "&amp;D122&amp;"("</f>
         <v>create table QUESTION(</v>
       </c>
-      <c r="N122" s="78" t="s">
+      <c r="N123" s="78" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B123" s="114">
+    <row r="124" spans="1:15">
+      <c r="B124" s="114">
         <v>1</v>
       </c>
-      <c r="C123" s="90" t="s">
+      <c r="C124" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="53" t="str">
-        <f>"번호 ("&amp;D121&amp;"_SEQ.nextval)"</f>
+      <c r="D124" s="53" t="str">
+        <f>"번호 ("&amp;D122&amp;"_SEQ.nextval)"</f>
         <v>번호 (QUESTION_SEQ.nextval)</v>
       </c>
-      <c r="E123" s="90" t="s">
+      <c r="E124" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F123" s="114"/>
-      <c r="G123" s="114"/>
-      <c r="H123" s="114"/>
-      <c r="I123" s="114" t="s">
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114" t="s">
         <v>205</v>
       </c>
-      <c r="J123" s="114"/>
-      <c r="K123" s="91"/>
-      <c r="L123" s="78" t="str">
-        <f t="shared" ref="L123:L129" si="13">C123&amp;" "&amp;E123&amp;IF(E123="varchar2","("&amp;F123&amp;")","")&amp;IF(J123="",""," default "&amp;J123)&amp;IF(G123="",""," "&amp;G123)&amp;IF(H123="",""," unique")&amp;IF(I123="",""," primary key")&amp;","</f>
-        <v>NUM number primary key,</v>
-      </c>
-      <c r="N123" s="78" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B124" s="114">
-        <v>2</v>
-      </c>
-      <c r="C124" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D124" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="E124" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" s="114">
-        <v>20</v>
-      </c>
-      <c r="G124" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H124" s="114"/>
-      <c r="I124" s="114"/>
       <c r="J124" s="114"/>
       <c r="K124" s="91"/>
       <c r="L124" s="78" t="str">
+        <f t="shared" ref="L124:L130" si="13">C124&amp;" "&amp;E124&amp;IF(E124="varchar2","("&amp;F124&amp;")","")&amp;IF(J124="",""," default "&amp;J124)&amp;IF(G124="",""," "&amp;G124)&amp;IF(H124="",""," unique")&amp;IF(I124="",""," primary key")&amp;","</f>
+        <v>NUM number primary key,</v>
+      </c>
+      <c r="N124" s="78" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="B125" s="114">
+        <v>2</v>
+      </c>
+      <c r="C125" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="D125" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F125" s="114">
+        <v>20</v>
+      </c>
+      <c r="G125" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="H125" s="114"/>
+      <c r="I125" s="114"/>
+      <c r="J125" s="114"/>
+      <c r="K125" s="91"/>
+      <c r="L125" s="78" t="str">
         <f t="shared" si="13"/>
         <v>ASKTYPE varchar2(20) not null,</v>
       </c>
-      <c r="N124" s="78" t="s">
+      <c r="N125" s="78" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B125" s="114">
+    <row r="126" spans="1:15">
+      <c r="B126" s="114">
         <v>3</v>
       </c>
-      <c r="C125" s="94" t="s">
+      <c r="C126" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="D125" s="94" t="s">
+      <c r="D126" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="94" t="s">
+      <c r="E126" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="F125" s="95">
+      <c r="F126" s="95">
         <v>20</v>
       </c>
-      <c r="G125" s="95" t="s">
+      <c r="G126" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="H125" s="95"/>
-      <c r="I125" s="95"/>
-      <c r="J125" s="95"/>
-      <c r="K125" s="94" t="s">
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="L125" s="78" t="str">
+      <c r="L126" s="78" t="str">
         <f t="shared" si="13"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N125" s="78" t="s">
+      <c r="N126" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O125" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C125&amp;") references "&amp;K125</f>
+      <c r="O126" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C126&amp;") references "&amp;K126</f>
         <v>constraint FK1 foreign key(NICKNAME) references 현재 로그인된 사용자</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B126" s="114">
+    <row r="127" spans="1:15">
+      <c r="B127" s="114">
         <v>4</v>
       </c>
-      <c r="C126" s="91" t="s">
+      <c r="C127" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="D126" s="91" t="s">
+      <c r="D127" s="91" t="s">
         <v>233</v>
-      </c>
-      <c r="E126" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="F126" s="114">
-        <v>50</v>
-      </c>
-      <c r="G126" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="H126" s="114"/>
-      <c r="I126" s="114"/>
-      <c r="J126" s="114"/>
-      <c r="K126" s="91"/>
-      <c r="L126" s="78" t="str">
-        <f t="shared" si="13"/>
-        <v>TITLE varchar2(50) not null,</v>
-      </c>
-      <c r="N126" s="78" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B127" s="114">
-        <v>5</v>
-      </c>
-      <c r="C127" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="D127" s="91" t="s">
-        <v>140</v>
       </c>
       <c r="E127" s="91" t="s">
         <v>135</v>
       </c>
       <c r="F127" s="114">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G127" s="114" t="s">
         <v>139</v>
@@ -11931,21 +11949,21 @@
       <c r="K127" s="91"/>
       <c r="L127" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>CONTENT varchar2(4000) not null,</v>
+        <v>TITLE varchar2(50) not null,</v>
       </c>
       <c r="N127" s="78" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" ht="32" x14ac:dyDescent="0.45">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="B128" s="114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" s="91" t="s">
-        <v>262</v>
+        <v>141</v>
       </c>
       <c r="D128" s="91" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="E128" s="91" t="s">
         <v>135</v>
@@ -11953,61 +11971,61 @@
       <c r="F128" s="114">
         <v>4000</v>
       </c>
-      <c r="G128" s="114"/>
+      <c r="G128" s="114" t="s">
+        <v>139</v>
+      </c>
       <c r="H128" s="114"/>
       <c r="I128" s="114"/>
       <c r="J128" s="114"/>
-      <c r="K128" s="91" t="s">
-        <v>365</v>
-      </c>
+      <c r="K128" s="91"/>
       <c r="L128" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>ANSWER varchar2(4000),</v>
+        <v>CONTENT varchar2(4000) not null,</v>
       </c>
       <c r="N128" s="78" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="31.2">
       <c r="B129" s="114">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" s="91" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E129" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="F129" s="114"/>
+        <v>135</v>
+      </c>
+      <c r="F129" s="114">
+        <v>4000</v>
+      </c>
       <c r="G129" s="114"/>
       <c r="H129" s="114"/>
       <c r="I129" s="114"/>
-      <c r="J129" s="114" t="s">
-        <v>157</v>
-      </c>
+      <c r="J129" s="114"/>
       <c r="K129" s="91" t="s">
-        <v>266</v>
+        <v>365</v>
       </c>
       <c r="L129" s="78" t="str">
         <f t="shared" si="13"/>
-        <v>ASKDATE date default sysdate,</v>
+        <v>ANSWER varchar2(4000),</v>
       </c>
       <c r="N129" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="B130" s="114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" s="91" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D130" s="91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E130" s="91" t="s">
         <v>156</v>
@@ -12016,234 +12034,236 @@
       <c r="G130" s="114"/>
       <c r="H130" s="114"/>
       <c r="I130" s="114"/>
-      <c r="J130" s="114"/>
+      <c r="J130" s="114" t="s">
+        <v>157</v>
+      </c>
       <c r="K130" s="91" t="s">
+        <v>266</v>
+      </c>
+      <c r="L130" s="78" t="str">
+        <f t="shared" si="13"/>
+        <v>ASKDATE date default sysdate,</v>
+      </c>
+      <c r="N130" s="78" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="B131" s="114">
+        <v>8</v>
+      </c>
+      <c r="C131" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="D131" s="91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E131" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="F131" s="114"/>
+      <c r="G131" s="114"/>
+      <c r="H131" s="114"/>
+      <c r="I131" s="114"/>
+      <c r="J131" s="114"/>
+      <c r="K131" s="91" t="s">
         <v>269</v>
       </c>
-      <c r="L130" s="78" t="str">
-        <f>C130&amp;" "&amp;E130&amp;IF(E130="varchar2","("&amp;F130&amp;")","")&amp;IF(J130="",""," default "&amp;J130)&amp;IF(G130="",""," "&amp;G130)&amp;IF(H130="",""," unique")&amp;IF(I130="",""," primary key")</f>
+      <c r="L131" s="78" t="str">
+        <f>C131&amp;" "&amp;E131&amp;IF(E131="varchar2","("&amp;F131&amp;")","")&amp;IF(J131="",""," default "&amp;J131)&amp;IF(G131="",""," "&amp;G131)&amp;IF(H131="",""," unique")&amp;IF(I131="",""," primary key")</f>
         <v>ANSWERDATE date</v>
       </c>
-      <c r="N130" s="78" t="s">
+      <c r="N131" s="78" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L131" s="78" t="s">
+    <row r="132" spans="1:15">
+      <c r="L132" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N131" s="78" t="s">
+      <c r="N132" s="78" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A132" s="78">
+    <row r="133" spans="1:15">
+      <c r="A133" s="78">
         <v>15</v>
       </c>
-      <c r="B132" s="164" t="s">
+      <c r="B133" s="159" t="s">
         <v>189</v>
       </c>
-      <c r="C132" s="165"/>
-      <c r="D132" s="166" t="s">
+      <c r="C133" s="160"/>
+      <c r="D133" s="161" t="s">
         <v>297</v>
       </c>
-      <c r="E132" s="167"/>
-      <c r="F132" s="70" t="s">
+      <c r="E133" s="162"/>
+      <c r="F133" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="G132" s="166" t="s">
+      <c r="G133" s="161" t="s">
         <v>389</v>
       </c>
-      <c r="H132" s="168"/>
-      <c r="I132" s="168"/>
-      <c r="J132" s="168"/>
-      <c r="K132" s="167"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B133" s="70" t="s">
+      <c r="H133" s="163"/>
+      <c r="I133" s="163"/>
+      <c r="J133" s="163"/>
+      <c r="K133" s="162"/>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="B134" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C133" s="70" t="s">
+      <c r="C134" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D133" s="70" t="s">
+      <c r="D134" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="E133" s="70" t="s">
+      <c r="E134" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F133" s="70" t="s">
+      <c r="F134" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G134" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="H133" s="70" t="s">
+      <c r="H134" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="I133" s="70" t="s">
+      <c r="I134" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="J133" s="70" t="s">
+      <c r="J134" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="K133" s="70" t="s">
+      <c r="K134" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="L133" s="78" t="str">
-        <f>"create table "&amp;D132&amp;"("</f>
+      <c r="L134" s="78" t="str">
+        <f>"create table "&amp;D133&amp;"("</f>
         <v>create table WARNING(</v>
       </c>
-      <c r="N133" s="78" t="s">
+      <c r="N134" s="78" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B134" s="54">
+    <row r="135" spans="1:15">
+      <c r="B135" s="54">
         <v>1</v>
       </c>
-      <c r="C134" s="53" t="s">
+      <c r="C135" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D134" s="53" t="str">
-        <f>"번호 ("&amp;D132&amp;"_SEQ.nextval)"</f>
+      <c r="D135" s="53" t="str">
+        <f>"번호 ("&amp;D133&amp;"_SEQ.nextval)"</f>
         <v>번호 (WARNING_SEQ.nextval)</v>
       </c>
-      <c r="E134" s="53" t="s">
+      <c r="E135" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54" t="s">
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J134" s="54"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="78" t="str">
-        <f t="shared" ref="L134:L138" si="14">C134&amp;" "&amp;E134&amp;IF(E134="varchar2","("&amp;F134&amp;")","")&amp;IF(J134="",""," default "&amp;J134)&amp;IF(G134="",""," "&amp;G134)&amp;IF(H134="",""," unique")&amp;IF(I134="",""," primary key")&amp;","</f>
+      <c r="J135" s="54"/>
+      <c r="K135" s="55"/>
+      <c r="L135" s="78" t="str">
+        <f t="shared" ref="L135:L139" si="14">C135&amp;" "&amp;E135&amp;IF(E135="varchar2","("&amp;F135&amp;")","")&amp;IF(J135="",""," default "&amp;J135)&amp;IF(G135="",""," "&amp;G135)&amp;IF(H135="",""," unique")&amp;IF(I135="",""," primary key")&amp;","</f>
         <v>NUM number primary key,</v>
       </c>
-      <c r="N134" s="78" t="s">
+      <c r="N135" s="78" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B135" s="54">
+    <row r="136" spans="1:15">
+      <c r="B136" s="54">
         <v>2</v>
       </c>
-      <c r="C135" s="82" t="s">
+      <c r="C136" s="82" t="s">
         <v>153</v>
       </c>
-      <c r="D135" s="82" t="s">
+      <c r="D136" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="E135" s="82" t="s">
+      <c r="E136" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="F135" s="83">
+      <c r="F136" s="83">
         <v>20</v>
       </c>
-      <c r="G135" s="83" t="s">
+      <c r="G136" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
-      <c r="K135" s="85" t="s">
+      <c r="H136" s="83"/>
+      <c r="I136" s="83"/>
+      <c r="J136" s="83"/>
+      <c r="K136" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="L135" s="78" t="str">
+      <c r="L136" s="78" t="str">
         <f t="shared" si="14"/>
         <v>NICKNAME varchar2(20) not null,</v>
       </c>
-      <c r="N135" s="78" t="s">
+      <c r="N136" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="O135" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C135&amp;") references "&amp;K135</f>
+      <c r="O136" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
         <v>constraint FK1 foreign key(NICKNAME) references 신고한 게시글 작성자</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B136" s="110">
+    <row r="137" spans="1:15">
+      <c r="B137" s="110">
         <v>3</v>
       </c>
-      <c r="C136" s="85" t="s">
+      <c r="C137" s="85" t="s">
         <v>182</v>
       </c>
-      <c r="D136" s="85" t="s">
+      <c r="D137" s="85" t="s">
         <v>181</v>
       </c>
-      <c r="E136" s="85" t="s">
+      <c r="E137" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="F136" s="84"/>
-      <c r="G136" s="84" t="s">
+      <c r="F137" s="84"/>
+      <c r="G137" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="H136" s="84"/>
-      <c r="I136" s="84"/>
-      <c r="J136" s="84"/>
-      <c r="K136" s="85" t="s">
+      <c r="H137" s="84"/>
+      <c r="I137" s="84"/>
+      <c r="J137" s="84"/>
+      <c r="K137" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="L136" s="78" t="str">
+      <c r="L137" s="78" t="str">
         <f t="shared" si="14"/>
         <v>BOARDNUM number not null,</v>
       </c>
-      <c r="N136" s="78" t="s">
+      <c r="N137" s="78" t="s">
         <v>326</v>
       </c>
-      <c r="O136" s="78" t="str">
-        <f>"constraint FK1 foreign key("&amp;C136&amp;") references "&amp;K136</f>
+      <c r="O137" s="78" t="str">
+        <f>"constraint FK1 foreign key("&amp;C137&amp;") references "&amp;K137</f>
         <v>constraint FK1 foreign key(BOARDNUM) references 신고버튼 누른 게시글번호</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B137" s="54">
+    <row r="138" spans="1:15">
+      <c r="B138" s="54">
         <v>4</v>
       </c>
-      <c r="C137" s="55" t="s">
+      <c r="C138" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="D138" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="E137" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="F137" s="54">
-        <v>30</v>
-      </c>
-      <c r="G137" s="54"/>
-      <c r="H137" s="54"/>
-      <c r="I137" s="54"/>
-      <c r="J137" s="54"/>
-      <c r="K137" s="55"/>
-      <c r="L137" s="78" t="str">
-        <f t="shared" si="14"/>
-        <v>WARNTYPE varchar2(30),</v>
-      </c>
-      <c r="N137" s="78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="B138" s="54">
-        <v>5</v>
-      </c>
-      <c r="C138" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="D138" s="55" t="s">
-        <v>185</v>
       </c>
       <c r="E138" s="55" t="s">
         <v>135</v>
       </c>
       <c r="F138" s="54">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G138" s="54"/>
       <c r="H138" s="54"/>
@@ -12252,96 +12272,80 @@
       <c r="K138" s="55"/>
       <c r="L138" s="78" t="str">
         <f t="shared" si="14"/>
-        <v>WARNWHY varchar2(300),</v>
+        <v>WARNTYPE varchar2(30),</v>
       </c>
       <c r="N138" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="B139" s="54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D139" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E139" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="F139" s="54"/>
+        <v>135</v>
+      </c>
+      <c r="F139" s="54">
+        <v>300</v>
+      </c>
       <c r="G139" s="54"/>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
-      <c r="J139" s="54" t="s">
-        <v>157</v>
-      </c>
+      <c r="J139" s="54"/>
       <c r="K139" s="55"/>
       <c r="L139" s="78" t="str">
-        <f>C139&amp;" "&amp;E139&amp;IF(E139="varchar2","("&amp;F139&amp;")","")&amp;IF(J139="",""," default "&amp;J139)&amp;IF(G139="",""," "&amp;G139)&amp;IF(H139="",""," unique")&amp;IF(I139="",""," primary key")</f>
+        <f t="shared" si="14"/>
+        <v>WARNWHY varchar2(300),</v>
+      </c>
+      <c r="N139" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="B140" s="54">
+        <v>6</v>
+      </c>
+      <c r="C140" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="D140" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="E140" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54"/>
+      <c r="H140" s="54"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="K140" s="55"/>
+      <c r="L140" s="78" t="str">
+        <f>C140&amp;" "&amp;E140&amp;IF(E140="varchar2","("&amp;F140&amp;")","")&amp;IF(J140="",""," default "&amp;J140)&amp;IF(G140="",""," "&amp;G140)&amp;IF(H140="",""," unique")&amp;IF(I140="",""," primary key")</f>
         <v>WARNTIME date default sysdate</v>
       </c>
-      <c r="N139" s="78" t="s">
+      <c r="N140" s="78" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="L140" s="78" t="s">
+    <row r="141" spans="1:15">
+      <c r="L141" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="N140" s="78" t="s">
+      <c r="N141" s="78" t="s">
         <v>359</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:K132"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:K106"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:K121"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:K82"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:K98"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:K67"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:K56"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:K15"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
@@ -12350,6 +12354,51 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:K56"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:K67"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:K122"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:K82"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:K93"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:K99"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:K133"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:K107"/>
+    <mergeCell ref="B93:C93"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12361,21 +12410,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673B5F2D-4078-4D93-9D61-EE3F07480652}">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" hidden="1">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -12383,11 +12432,11 @@
         <v>1</v>
       </c>
       <c r="C1" t="str">
-        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B1, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" hidden="1">
       <c r="A2" t="s">
         <v>376</v>
       </c>
@@ -12396,11 +12445,11 @@
         <v>2</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B2, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER_AUTO</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" hidden="1">
       <c r="A3" t="s">
         <v>377</v>
       </c>
@@ -12409,11 +12458,11 @@
         <v>3</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B3, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>MEMBER_ADDR</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" hidden="1">
       <c r="A4" t="s">
         <v>413</v>
       </c>
@@ -12422,123 +12471,123 @@
         <v>4</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B4, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>POINT</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" hidden="1">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B5, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" hidden="1">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B6, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_REF</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" hidden="1">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B7, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_IMAGE</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" hidden="1">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B8, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>BOARD_TERM</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" hidden="1">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B9, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" hidden="1">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B10, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS_IMAGE</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" hidden="1">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B11, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>GOODS_SALES</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" hidden="1">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B12, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>ASSATALK</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" hidden="1">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B13, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>ASSATALK_KEYWORD</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" hidden="1">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B14, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>QUESTION</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" hidden="1">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$139,4,FALSE)</f>
+        <f>VLOOKUP(B15, '테이블 정의서(1009수정)'!$A$4:$E$140,4,FALSE)</f>
         <v>WARNING</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" hidden="1"/>
+    <row r="17" spans="2:3" hidden="1"/>
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>1</v>
       </c>
@@ -12547,25 +12596,25 @@
         <v>create sequence MEMBER_SEQ</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3">
       <c r="C19" t="str">
         <f>$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3">
       <c r="C20" t="str">
         <f>$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3">
       <c r="C21" t="str">
         <f>$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22">
         <f>B18+1</f>
         <v>2</v>
@@ -12575,25 +12624,25 @@
         <v>create sequence MEMBER_AUTO_SEQ</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="str">
         <f t="shared" ref="C23" si="2">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="str">
         <f t="shared" ref="C24" si="3">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="str">
         <f t="shared" ref="C25" si="4">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="B26">
         <f t="shared" ref="B26" si="5">B22+1</f>
         <v>3</v>
@@ -12603,25 +12652,25 @@
         <v>create sequence MEMBER_ADDR_SEQ</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="str">
         <f t="shared" ref="C27" si="7">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="str">
         <f t="shared" ref="C28" si="8">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="str">
         <f t="shared" ref="C29" si="9">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3">
       <c r="B30">
         <f t="shared" ref="B30" si="10">B26+1</f>
         <v>4</v>
@@ -12631,25 +12680,25 @@
         <v>create sequence POINT_SEQ</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3">
       <c r="C31" t="str">
         <f t="shared" ref="C31" si="12">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:3">
       <c r="C32" t="str">
         <f t="shared" ref="C32" si="13">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="C33" t="str">
         <f t="shared" ref="C33" si="14">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:3">
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
         <v>5</v>
@@ -12659,25 +12708,25 @@
         <v>create sequence BOARD_SEQ</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:3">
       <c r="C35" t="str">
         <f t="shared" ref="C35" si="17">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:3">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="18">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:3">
       <c r="C37" t="str">
         <f t="shared" ref="C37" si="19">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38">
         <f t="shared" ref="B38" si="20">B34+1</f>
         <v>6</v>
@@ -12687,25 +12736,25 @@
         <v>create sequence BOARD_REF_SEQ</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="C39" t="str">
         <f t="shared" ref="C39" si="22">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3">
       <c r="C40" t="str">
         <f t="shared" ref="C40" si="23">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3">
       <c r="C41" t="str">
         <f t="shared" ref="C41" si="24">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3">
       <c r="B42">
         <f t="shared" ref="B42" si="25">B38+1</f>
         <v>7</v>
@@ -12715,25 +12764,25 @@
         <v>create sequence BOARD_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="C43" t="str">
         <f t="shared" ref="C43" si="27">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:3">
       <c r="C44" t="str">
         <f t="shared" ref="C44" si="28">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3">
       <c r="C45" t="str">
         <f t="shared" ref="C45" si="29">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:3">
       <c r="B46">
         <f t="shared" ref="B46" si="30">B42+1</f>
         <v>8</v>
@@ -12743,25 +12792,25 @@
         <v>create sequence BOARD_TERM_SEQ</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3">
       <c r="C47" t="str">
         <f t="shared" ref="C47" si="32">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3">
       <c r="C48" t="str">
         <f t="shared" ref="C48" si="33">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:3">
       <c r="C49" t="str">
         <f t="shared" ref="C49" si="34">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:3">
       <c r="B50">
         <f t="shared" ref="B50" si="35">B46+1</f>
         <v>9</v>
@@ -12771,25 +12820,25 @@
         <v>create sequence GOODS_SEQ</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:3">
       <c r="C51" t="str">
         <f t="shared" ref="C51" si="37">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:3">
       <c r="C52" t="str">
         <f t="shared" ref="C52" si="38">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:3">
       <c r="C53" t="str">
         <f t="shared" ref="C53" si="39">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:3">
       <c r="B54">
         <f t="shared" ref="B54" si="40">B50+1</f>
         <v>10</v>
@@ -12799,25 +12848,25 @@
         <v>create sequence GOODS_IMAGE_SEQ</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:3">
       <c r="C55" t="str">
         <f t="shared" ref="C55" si="42">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:3">
       <c r="C56" t="str">
         <f t="shared" ref="C56" si="43">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:3">
       <c r="C57" t="str">
         <f t="shared" ref="C57" si="44">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:3">
       <c r="B58">
         <f t="shared" ref="B58:B74" si="45">B54+1</f>
         <v>11</v>
@@ -12827,25 +12876,25 @@
         <v>create sequence GOODS_SALES_SEQ</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:3">
       <c r="C59" t="str">
         <f t="shared" ref="C59" si="47">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:3">
       <c r="C60" t="str">
         <f t="shared" ref="C60" si="48">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:3">
       <c r="C61" t="str">
         <f t="shared" ref="C61" si="49">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:3">
       <c r="B62">
         <f t="shared" si="45"/>
         <v>12</v>
@@ -12855,25 +12904,25 @@
         <v>create sequence ASSATALK_SEQ</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:3">
       <c r="C63" t="str">
         <f t="shared" ref="C63" si="51">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:3">
       <c r="C64" t="str">
         <f t="shared" ref="C64" si="52">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:3">
       <c r="C65" t="str">
         <f t="shared" ref="C65" si="53">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:3">
       <c r="B66">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -12883,25 +12932,25 @@
         <v>create sequence ASSATALK_KEYWORD_SEQ</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:3">
       <c r="C67" t="str">
         <f t="shared" ref="C67" si="55">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:3">
       <c r="C68" t="str">
         <f t="shared" ref="C68" si="56">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:3">
       <c r="C69" t="str">
         <f t="shared" ref="C69" si="57">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3">
       <c r="B70">
         <f t="shared" si="45"/>
         <v>14</v>
@@ -12911,25 +12960,25 @@
         <v>create sequence QUESTION_SEQ</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:3">
       <c r="C71" t="str">
         <f t="shared" ref="C71" si="59">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:3">
       <c r="C72" t="str">
         <f t="shared" ref="C72" si="60">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:3">
       <c r="C73" t="str">
         <f t="shared" ref="C73" si="61">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:3">
       <c r="B74">
         <f t="shared" si="45"/>
         <v>15</v>
@@ -12939,19 +12988,19 @@
         <v>create sequence WARNING_SEQ</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3">
       <c r="C75" t="str">
         <f t="shared" ref="C75" si="63">$A$2</f>
         <v xml:space="preserve">start with 1 </v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:3">
       <c r="C76" t="str">
         <f t="shared" ref="C76" si="64">$A$3</f>
         <v xml:space="preserve">increment by 1 </v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:3">
       <c r="C77" t="str">
         <f t="shared" ref="C77" si="65">$A$4</f>
         <v>nomaxvalue nocycle nocache noorder;</v>
